--- a/docs/excel/TAward.xlsx
+++ b/docs/excel/TAward.xlsx
@@ -281,10 +281,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CostType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -326,6 +322,10 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -749,7 +749,7 @@
   <dimension ref="A1:O562"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -759,7 +759,7 @@
     <col min="3" max="3" width="11.69921875" style="5" customWidth="1"/>
     <col min="4" max="4" width="8.796875" style="4"/>
     <col min="5" max="5" width="10.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11.296875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="4" customWidth="1"/>
     <col min="7" max="7" width="10.5" style="4" customWidth="1"/>
     <col min="8" max="8" width="13.69921875" style="4" customWidth="1"/>
     <col min="9" max="9" width="16.5" style="4" customWidth="1"/>
@@ -776,16 +776,16 @@
         <v>63</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>20</v>
@@ -797,19 +797,19 @@
         <v>22</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>23</v>
@@ -835,13 +835,13 @@
         <v>17</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>17</v>
@@ -850,10 +850,10 @@
         <v>17</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>17</v>
@@ -872,13 +872,13 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -17252,7 +17252,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/docs/excel/TAward.xlsx
+++ b/docs/excel/TAward.xlsx
@@ -748,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O562"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -900,7 +900,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H5" s="6">
         <v>5000</v>
@@ -931,7 +931,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H6" s="6">
         <v>50000</v>
@@ -962,7 +962,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H7" s="6">
         <v>500000</v>
@@ -993,7 +993,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H8" s="6">
         <v>500</v>
@@ -1022,7 +1022,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H9" s="6">
         <v>4000</v>
@@ -1276,7 +1276,7 @@
         <v>5</v>
       </c>
       <c r="G17" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H17" s="6">
         <v>20000</v>
@@ -1305,7 +1305,7 @@
         <v>5</v>
       </c>
       <c r="G18" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H18" s="6">
         <v>30000</v>
@@ -1536,7 +1536,7 @@
         <v>5</v>
       </c>
       <c r="G25" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H25" s="6">
         <v>6000000</v>
@@ -1569,7 +1569,7 @@
         <v>5</v>
       </c>
       <c r="G26" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H26" s="6">
         <v>2340000</v>
@@ -1602,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="G27" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H27" s="6">
         <v>1130000</v>
@@ -1635,7 +1635,7 @@
         <v>5</v>
       </c>
       <c r="G28" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H28" s="6">
         <v>330000</v>
@@ -1668,7 +1668,7 @@
         <v>5</v>
       </c>
       <c r="G29" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H29" s="6">
         <v>108000</v>
@@ -1866,7 +1866,7 @@
         <v>5</v>
       </c>
       <c r="G35" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H35" s="6">
         <v>64000</v>
@@ -1901,7 +1901,7 @@
         <v>5</v>
       </c>
       <c r="G36" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H36" s="6">
         <v>197000</v>
@@ -1936,7 +1936,7 @@
         <v>5</v>
       </c>
       <c r="G37" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H37" s="6">
         <v>755000</v>
@@ -1971,7 +1971,7 @@
         <v>5</v>
       </c>
       <c r="G38" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H38" s="6">
         <v>1460000</v>
@@ -2006,7 +2006,7 @@
         <v>5</v>
       </c>
       <c r="G39" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H39" s="6">
         <v>3880000</v>
@@ -2041,7 +2041,7 @@
         <v>5</v>
       </c>
       <c r="G40" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H40" s="6">
         <v>8100000</v>
@@ -2076,7 +2076,7 @@
         <v>5</v>
       </c>
       <c r="G41" s="6">
-        <v>2</v>
+        <v>60002</v>
       </c>
       <c r="H41" s="6">
         <v>6</v>
@@ -2109,7 +2109,7 @@
         <v>5</v>
       </c>
       <c r="G42" s="6">
-        <v>2</v>
+        <v>60002</v>
       </c>
       <c r="H42" s="6">
         <v>18</v>
@@ -2142,7 +2142,7 @@
         <v>5</v>
       </c>
       <c r="G43" s="6">
-        <v>2</v>
+        <v>60002</v>
       </c>
       <c r="H43" s="6">
         <v>68</v>
@@ -2175,7 +2175,7 @@
         <v>5</v>
       </c>
       <c r="G44" s="6">
-        <v>2</v>
+        <v>60002</v>
       </c>
       <c r="H44" s="6">
         <v>128</v>
@@ -2208,7 +2208,7 @@
         <v>5</v>
       </c>
       <c r="G45" s="6">
-        <v>2</v>
+        <v>60002</v>
       </c>
       <c r="H45" s="6">
         <v>328</v>
@@ -2241,7 +2241,7 @@
         <v>5</v>
       </c>
       <c r="G46" s="6">
-        <v>2</v>
+        <v>60002</v>
       </c>
       <c r="H46" s="6">
         <v>648</v>
@@ -2324,7 +2324,7 @@
         <v>5</v>
       </c>
       <c r="G49" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H49" s="6">
         <v>1800</v>
@@ -2353,7 +2353,7 @@
         <v>5</v>
       </c>
       <c r="G50" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H50" s="6">
         <v>2200</v>
@@ -2382,7 +2382,7 @@
         <v>5</v>
       </c>
       <c r="G51" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H51" s="6">
         <v>2600</v>
@@ -2411,7 +2411,7 @@
         <v>5</v>
       </c>
       <c r="G52" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H52" s="6">
         <v>3000</v>
@@ -2440,7 +2440,7 @@
         <v>5</v>
       </c>
       <c r="G53" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H53" s="6">
         <v>3400</v>
@@ -2469,7 +2469,7 @@
         <v>5</v>
       </c>
       <c r="G54" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H54" s="6">
         <v>3800</v>
@@ -2498,7 +2498,7 @@
         <v>5</v>
       </c>
       <c r="G55" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H55" s="6">
         <v>5000</v>
@@ -2527,7 +2527,7 @@
         <v>5</v>
       </c>
       <c r="G56" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H56" s="6">
         <v>3000</v>
@@ -2556,7 +2556,7 @@
         <v>5</v>
       </c>
       <c r="G57" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H57" s="6">
         <v>5000</v>
@@ -2585,7 +2585,7 @@
         <v>5</v>
       </c>
       <c r="G58" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H58" s="6">
         <v>8000</v>
@@ -2614,7 +2614,7 @@
         <v>5</v>
       </c>
       <c r="G59" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H59" s="6">
         <v>25000</v>
@@ -2645,7 +2645,7 @@
         <v>5</v>
       </c>
       <c r="G60" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H60" s="6">
         <v>98000</v>
@@ -2676,7 +2676,7 @@
         <v>5</v>
       </c>
       <c r="G61" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H61" s="6">
         <v>40000</v>
@@ -2705,7 +2705,7 @@
         <v>5</v>
       </c>
       <c r="G62" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H62" s="6">
         <v>20000</v>
@@ -2734,7 +2734,7 @@
         <v>5</v>
       </c>
       <c r="G63" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H63" s="6">
         <v>14000</v>
@@ -2763,7 +2763,7 @@
         <v>5</v>
       </c>
       <c r="G64" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H64" s="6">
         <v>10000</v>
@@ -2792,7 +2792,7 @@
         <v>5</v>
       </c>
       <c r="G65" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H65" s="6">
         <v>10000</v>
@@ -2821,7 +2821,7 @@
         <v>5</v>
       </c>
       <c r="G66" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H66" s="6">
         <v>10000</v>
@@ -2850,7 +2850,7 @@
         <v>5</v>
       </c>
       <c r="G67" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H67" s="6">
         <v>6000</v>
@@ -2879,7 +2879,7 @@
         <v>5</v>
       </c>
       <c r="G68" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H68" s="6">
         <v>6000</v>
@@ -2908,7 +2908,7 @@
         <v>5</v>
       </c>
       <c r="G69" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H69" s="6">
         <v>6000</v>
@@ -2937,7 +2937,7 @@
         <v>5</v>
       </c>
       <c r="G70" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H70" s="6">
         <v>6000</v>
@@ -2966,7 +2966,7 @@
         <v>5</v>
       </c>
       <c r="G71" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H71" s="6">
         <v>6000</v>
@@ -2995,7 +2995,7 @@
         <v>5</v>
       </c>
       <c r="G72" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H72" s="6">
         <v>6000</v>
@@ -3024,7 +3024,7 @@
         <v>5</v>
       </c>
       <c r="G73" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H73" s="6">
         <v>4000</v>
@@ -3053,7 +3053,7 @@
         <v>5</v>
       </c>
       <c r="G74" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H74" s="6">
         <v>4000</v>
@@ -3082,7 +3082,7 @@
         <v>5</v>
       </c>
       <c r="G75" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H75" s="6">
         <v>4000</v>
@@ -3111,7 +3111,7 @@
         <v>5</v>
       </c>
       <c r="G76" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H76" s="6">
         <v>4000</v>
@@ -3140,7 +3140,7 @@
         <v>5</v>
       </c>
       <c r="G77" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H77" s="6">
         <v>4000</v>
@@ -3169,7 +3169,7 @@
         <v>5</v>
       </c>
       <c r="G78" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H78" s="6">
         <v>4000</v>
@@ -3198,7 +3198,7 @@
         <v>5</v>
       </c>
       <c r="G79" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H79" s="6">
         <v>3000</v>
@@ -3227,7 +3227,7 @@
         <v>5</v>
       </c>
       <c r="G80" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H80" s="6">
         <v>3000</v>
@@ -3256,7 +3256,7 @@
         <v>5</v>
       </c>
       <c r="G81" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H81" s="6">
         <v>3000</v>
@@ -3285,7 +3285,7 @@
         <v>5</v>
       </c>
       <c r="G82" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H82" s="6">
         <v>3000</v>
@@ -3314,7 +3314,7 @@
         <v>5</v>
       </c>
       <c r="G83" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H83" s="6">
         <v>3000</v>
@@ -3343,7 +3343,7 @@
         <v>5</v>
       </c>
       <c r="G84" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H84" s="6">
         <v>3000</v>
@@ -3372,7 +3372,7 @@
         <v>5</v>
       </c>
       <c r="G85" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H85" s="6">
         <v>2000</v>
@@ -3401,7 +3401,7 @@
         <v>5</v>
       </c>
       <c r="G86" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H86" s="6">
         <v>2000</v>
@@ -3430,7 +3430,7 @@
         <v>5</v>
       </c>
       <c r="G87" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H87" s="6">
         <v>2000</v>
@@ -3459,7 +3459,7 @@
         <v>5</v>
       </c>
       <c r="G88" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H88" s="6">
         <v>2000</v>
@@ -3488,7 +3488,7 @@
         <v>5</v>
       </c>
       <c r="G89" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H89" s="6">
         <v>2000</v>
@@ -3517,7 +3517,7 @@
         <v>5</v>
       </c>
       <c r="G90" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H90" s="6">
         <v>2000</v>
@@ -3546,7 +3546,7 @@
         <v>5</v>
       </c>
       <c r="G91" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H91" s="6">
         <v>2000</v>
@@ -3575,7 +3575,7 @@
         <v>5</v>
       </c>
       <c r="G92" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H92" s="6">
         <v>2000</v>
@@ -3604,7 +3604,7 @@
         <v>5</v>
       </c>
       <c r="G93" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H93" s="6">
         <v>2000</v>
@@ -3633,7 +3633,7 @@
         <v>5</v>
       </c>
       <c r="G94" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H94" s="6">
         <v>2000</v>
@@ -3662,7 +3662,7 @@
         <v>5</v>
       </c>
       <c r="G95" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H95" s="6">
         <v>2000</v>
@@ -3691,7 +3691,7 @@
         <v>5</v>
       </c>
       <c r="G96" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H96" s="6">
         <v>2000</v>
@@ -3720,7 +3720,7 @@
         <v>5</v>
       </c>
       <c r="G97" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H97" s="6">
         <v>2000</v>
@@ -3749,7 +3749,7 @@
         <v>5</v>
       </c>
       <c r="G98" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H98" s="6">
         <v>2000</v>
@@ -3778,7 +3778,7 @@
         <v>5</v>
       </c>
       <c r="G99" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H99" s="6">
         <v>2000</v>
@@ -3807,7 +3807,7 @@
         <v>5</v>
       </c>
       <c r="G100" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H100" s="6">
         <v>2000</v>
@@ -3836,7 +3836,7 @@
         <v>5</v>
       </c>
       <c r="G101" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H101" s="6">
         <v>2000</v>
@@ -3865,7 +3865,7 @@
         <v>5</v>
       </c>
       <c r="G102" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H102" s="6">
         <v>2000</v>
@@ -3894,7 +3894,7 @@
         <v>5</v>
       </c>
       <c r="G103" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H103" s="6">
         <v>2000</v>
@@ -3923,7 +3923,7 @@
         <v>5</v>
       </c>
       <c r="G104" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H104" s="6">
         <v>2000</v>
@@ -3952,7 +3952,7 @@
         <v>5</v>
       </c>
       <c r="G105" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H105" s="6">
         <v>2000</v>
@@ -3981,7 +3981,7 @@
         <v>5</v>
       </c>
       <c r="G106" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H106" s="6">
         <v>250000</v>
@@ -4010,7 +4010,7 @@
         <v>5</v>
       </c>
       <c r="G107" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H107" s="6">
         <v>150000</v>
@@ -4039,7 +4039,7 @@
         <v>5</v>
       </c>
       <c r="G108" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H108" s="6">
         <v>100000</v>
@@ -4068,7 +4068,7 @@
         <v>5</v>
       </c>
       <c r="G109" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H109" s="6">
         <v>80000</v>
@@ -4097,7 +4097,7 @@
         <v>5</v>
       </c>
       <c r="G110" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H110" s="6">
         <v>50000</v>
@@ -4126,7 +4126,7 @@
         <v>5</v>
       </c>
       <c r="G111" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H111" s="6">
         <v>30000</v>
@@ -4155,7 +4155,7 @@
         <v>5</v>
       </c>
       <c r="G112" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H112" s="6">
         <v>16000</v>
@@ -4184,7 +4184,7 @@
         <v>5</v>
       </c>
       <c r="G113" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H113" s="6">
         <v>16000</v>
@@ -4213,7 +4213,7 @@
         <v>5</v>
       </c>
       <c r="G114" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H114" s="6">
         <v>16000</v>
@@ -4242,7 +4242,7 @@
         <v>5</v>
       </c>
       <c r="G115" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H115" s="6">
         <v>14000</v>
@@ -4271,7 +4271,7 @@
         <v>5</v>
       </c>
       <c r="G116" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H116" s="6">
         <v>14000</v>
@@ -4300,7 +4300,7 @@
         <v>5</v>
       </c>
       <c r="G117" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H117" s="6">
         <v>14000</v>
@@ -4329,7 +4329,7 @@
         <v>5</v>
       </c>
       <c r="G118" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H118" s="6">
         <v>14000</v>
@@ -4358,7 +4358,7 @@
         <v>5</v>
       </c>
       <c r="G119" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H119" s="6">
         <v>14000</v>
@@ -4387,7 +4387,7 @@
         <v>5</v>
       </c>
       <c r="G120" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H120" s="6">
         <v>14000</v>
@@ -4416,7 +4416,7 @@
         <v>5</v>
       </c>
       <c r="G121" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H121" s="6">
         <v>12000</v>
@@ -4445,7 +4445,7 @@
         <v>5</v>
       </c>
       <c r="G122" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H122" s="6">
         <v>12000</v>
@@ -4474,7 +4474,7 @@
         <v>5</v>
       </c>
       <c r="G123" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H123" s="6">
         <v>12000</v>
@@ -4503,7 +4503,7 @@
         <v>5</v>
       </c>
       <c r="G124" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H124" s="6">
         <v>12000</v>
@@ -4532,7 +4532,7 @@
         <v>5</v>
       </c>
       <c r="G125" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H125" s="6">
         <v>12000</v>
@@ -4561,7 +4561,7 @@
         <v>5</v>
       </c>
       <c r="G126" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H126" s="6">
         <v>12000</v>
@@ -4590,7 +4590,7 @@
         <v>5</v>
       </c>
       <c r="G127" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H127" s="6">
         <v>10000</v>
@@ -4619,7 +4619,7 @@
         <v>5</v>
       </c>
       <c r="G128" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H128" s="6">
         <v>10000</v>
@@ -4648,7 +4648,7 @@
         <v>5</v>
       </c>
       <c r="G129" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H129" s="6">
         <v>10000</v>
@@ -4677,7 +4677,7 @@
         <v>5</v>
       </c>
       <c r="G130" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H130" s="6">
         <v>10000</v>
@@ -4706,7 +4706,7 @@
         <v>5</v>
       </c>
       <c r="G131" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H131" s="6">
         <v>10000</v>
@@ -4735,7 +4735,7 @@
         <v>5</v>
       </c>
       <c r="G132" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H132" s="6">
         <v>10000</v>
@@ -4764,7 +4764,7 @@
         <v>5</v>
       </c>
       <c r="G133" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H133" s="6">
         <v>9000</v>
@@ -4793,7 +4793,7 @@
         <v>5</v>
       </c>
       <c r="G134" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H134" s="6">
         <v>9000</v>
@@ -4822,7 +4822,7 @@
         <v>5</v>
       </c>
       <c r="G135" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H135" s="6">
         <v>9000</v>
@@ -4851,7 +4851,7 @@
         <v>5</v>
       </c>
       <c r="G136" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H136" s="6">
         <v>9000</v>
@@ -4880,7 +4880,7 @@
         <v>5</v>
       </c>
       <c r="G137" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H137" s="6">
         <v>9000</v>
@@ -4909,7 +4909,7 @@
         <v>5</v>
       </c>
       <c r="G138" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H138" s="6">
         <v>9000</v>
@@ -4938,7 +4938,7 @@
         <v>5</v>
       </c>
       <c r="G139" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H139" s="6">
         <v>9000</v>
@@ -4967,7 +4967,7 @@
         <v>5</v>
       </c>
       <c r="G140" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H140" s="6">
         <v>9000</v>
@@ -4996,7 +4996,7 @@
         <v>5</v>
       </c>
       <c r="G141" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H141" s="6">
         <v>9000</v>
@@ -5025,7 +5025,7 @@
         <v>5</v>
       </c>
       <c r="G142" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H142" s="6">
         <v>400000</v>
@@ -5054,7 +5054,7 @@
         <v>5</v>
       </c>
       <c r="G143" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H143" s="6">
         <v>270000</v>
@@ -5083,7 +5083,7 @@
         <v>5</v>
       </c>
       <c r="G144" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H144" s="6">
         <v>190000</v>
@@ -5112,7 +5112,7 @@
         <v>5</v>
       </c>
       <c r="G145" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H145" s="6">
         <v>135000</v>
@@ -5141,7 +5141,7 @@
         <v>5</v>
       </c>
       <c r="G146" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H146" s="6">
         <v>95000</v>
@@ -5170,7 +5170,7 @@
         <v>5</v>
       </c>
       <c r="G147" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H147" s="6">
         <v>67000</v>
@@ -5199,7 +5199,7 @@
         <v>5</v>
       </c>
       <c r="G148" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H148" s="6">
         <v>55000</v>
@@ -5228,7 +5228,7 @@
         <v>5</v>
       </c>
       <c r="G149" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H149" s="6">
         <v>45000</v>
@@ -5257,7 +5257,7 @@
         <v>5</v>
       </c>
       <c r="G150" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H150" s="6">
         <v>45000</v>
@@ -5286,7 +5286,7 @@
         <v>5</v>
       </c>
       <c r="G151" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H151" s="6">
         <v>36000</v>
@@ -5315,7 +5315,7 @@
         <v>5</v>
       </c>
       <c r="G152" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H152" s="6">
         <v>36000</v>
@@ -5344,7 +5344,7 @@
         <v>5</v>
       </c>
       <c r="G153" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H153" s="6">
         <v>36000</v>
@@ -5373,7 +5373,7 @@
         <v>5</v>
       </c>
       <c r="G154" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H154" s="6">
         <v>30000</v>
@@ -5402,7 +5402,7 @@
         <v>5</v>
       </c>
       <c r="G155" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H155" s="6">
         <v>30000</v>
@@ -5431,7 +5431,7 @@
         <v>5</v>
       </c>
       <c r="G156" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H156" s="6">
         <v>30000</v>
@@ -5460,7 +5460,7 @@
         <v>5</v>
       </c>
       <c r="G157" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H157" s="6">
         <v>24000</v>
@@ -5489,7 +5489,7 @@
         <v>5</v>
       </c>
       <c r="G158" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H158" s="6">
         <v>24000</v>
@@ -5518,7 +5518,7 @@
         <v>5</v>
       </c>
       <c r="G159" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H159" s="6">
         <v>24000</v>
@@ -5547,7 +5547,7 @@
         <v>5</v>
       </c>
       <c r="G160" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H160" s="6">
         <v>20000</v>
@@ -5576,7 +5576,7 @@
         <v>5</v>
       </c>
       <c r="G161" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H161" s="6">
         <v>20000</v>
@@ -5605,7 +5605,7 @@
         <v>5</v>
       </c>
       <c r="G162" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H162" s="6">
         <v>20000</v>
@@ -5634,7 +5634,7 @@
         <v>5</v>
       </c>
       <c r="G163" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H163" s="6">
         <v>20000</v>
@@ -5663,7 +5663,7 @@
         <v>5</v>
       </c>
       <c r="G164" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H164" s="6">
         <v>20000</v>
@@ -5692,7 +5692,7 @@
         <v>5</v>
       </c>
       <c r="G165" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H165" s="6">
         <v>20000</v>
@@ -5721,7 +5721,7 @@
         <v>5</v>
       </c>
       <c r="G166" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H166" s="6">
         <v>16000</v>
@@ -5750,7 +5750,7 @@
         <v>5</v>
       </c>
       <c r="G167" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H167" s="6">
         <v>16000</v>
@@ -5779,7 +5779,7 @@
         <v>5</v>
       </c>
       <c r="G168" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H168" s="6">
         <v>16000</v>
@@ -5808,7 +5808,7 @@
         <v>5</v>
       </c>
       <c r="G169" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H169" s="6">
         <v>16000</v>
@@ -5837,7 +5837,7 @@
         <v>5</v>
       </c>
       <c r="G170" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H170" s="6">
         <v>16000</v>
@@ -5866,7 +5866,7 @@
         <v>5</v>
       </c>
       <c r="G171" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H171" s="6">
         <v>16000</v>
@@ -5895,7 +5895,7 @@
         <v>5</v>
       </c>
       <c r="G172" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H172" s="6">
         <v>16000</v>
@@ -5924,7 +5924,7 @@
         <v>5</v>
       </c>
       <c r="G173" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H173" s="6">
         <v>16000</v>
@@ -5953,7 +5953,7 @@
         <v>5</v>
       </c>
       <c r="G174" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H174" s="6">
         <v>16000</v>
@@ -5982,7 +5982,7 @@
         <v>5</v>
       </c>
       <c r="G175" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H175" s="6">
         <v>16000</v>
@@ -6011,7 +6011,7 @@
         <v>5</v>
       </c>
       <c r="G176" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H176" s="6">
         <v>16000</v>
@@ -6040,7 +6040,7 @@
         <v>5</v>
       </c>
       <c r="G177" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H177" s="6">
         <v>16000</v>
@@ -6069,7 +6069,7 @@
         <v>5</v>
       </c>
       <c r="G178" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H178" s="6">
         <v>13000</v>
@@ -6098,7 +6098,7 @@
         <v>5</v>
       </c>
       <c r="G179" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H179" s="6">
         <v>13000</v>
@@ -6127,7 +6127,7 @@
         <v>5</v>
       </c>
       <c r="G180" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H180" s="6">
         <v>13000</v>
@@ -6156,7 +6156,7 @@
         <v>5</v>
       </c>
       <c r="G181" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H181" s="6">
         <v>13000</v>
@@ -6185,7 +6185,7 @@
         <v>5</v>
       </c>
       <c r="G182" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H182" s="6">
         <v>13000</v>
@@ -6214,7 +6214,7 @@
         <v>5</v>
       </c>
       <c r="G183" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H183" s="6">
         <v>13000</v>
@@ -6243,7 +6243,7 @@
         <v>5</v>
       </c>
       <c r="G184" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H184" s="6">
         <v>13000</v>
@@ -6272,7 +6272,7 @@
         <v>5</v>
       </c>
       <c r="G185" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H185" s="6">
         <v>13000</v>
@@ -6301,7 +6301,7 @@
         <v>5</v>
       </c>
       <c r="G186" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H186" s="6">
         <v>13000</v>
@@ -6330,7 +6330,7 @@
         <v>5</v>
       </c>
       <c r="G187" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H187" s="6">
         <v>13000</v>
@@ -6359,7 +6359,7 @@
         <v>5</v>
       </c>
       <c r="G188" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H188" s="6">
         <v>13000</v>
@@ -6388,7 +6388,7 @@
         <v>5</v>
       </c>
       <c r="G189" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H189" s="6">
         <v>13000</v>
@@ -6417,7 +6417,7 @@
         <v>5</v>
       </c>
       <c r="G190" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H190" s="6">
         <v>1300000</v>
@@ -6446,7 +6446,7 @@
         <v>5</v>
       </c>
       <c r="G191" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H191" s="6">
         <v>800000</v>
@@ -6475,7 +6475,7 @@
         <v>5</v>
       </c>
       <c r="G192" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H192" s="6">
         <v>540000</v>
@@ -6504,7 +6504,7 @@
         <v>5</v>
       </c>
       <c r="G193" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H193" s="6">
         <v>270000</v>
@@ -6533,7 +6533,7 @@
         <v>5</v>
       </c>
       <c r="G194" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H194" s="6">
         <v>200000</v>
@@ -6562,7 +6562,7 @@
         <v>5</v>
       </c>
       <c r="G195" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H195" s="6">
         <v>130000</v>
@@ -6591,7 +6591,7 @@
         <v>5</v>
       </c>
       <c r="G196" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H196" s="6">
         <v>110000</v>
@@ -6620,7 +6620,7 @@
         <v>5</v>
       </c>
       <c r="G197" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H197" s="6">
         <v>110000</v>
@@ -6649,7 +6649,7 @@
         <v>5</v>
       </c>
       <c r="G198" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H198" s="6">
         <v>110000</v>
@@ -6678,7 +6678,7 @@
         <v>5</v>
       </c>
       <c r="G199" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H199" s="6">
         <v>95000</v>
@@ -6707,7 +6707,7 @@
         <v>5</v>
       </c>
       <c r="G200" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H200" s="6">
         <v>95000</v>
@@ -6736,7 +6736,7 @@
         <v>5</v>
       </c>
       <c r="G201" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H201" s="6">
         <v>95000</v>
@@ -6765,7 +6765,7 @@
         <v>5</v>
       </c>
       <c r="G202" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H202" s="6">
         <v>95000</v>
@@ -6794,7 +6794,7 @@
         <v>5</v>
       </c>
       <c r="G203" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H203" s="6">
         <v>95000</v>
@@ -6823,7 +6823,7 @@
         <v>5</v>
       </c>
       <c r="G204" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H204" s="6">
         <v>95000</v>
@@ -6852,7 +6852,7 @@
         <v>5</v>
       </c>
       <c r="G205" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H205" s="6">
         <v>85000</v>
@@ -6881,7 +6881,7 @@
         <v>5</v>
       </c>
       <c r="G206" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H206" s="6">
         <v>85000</v>
@@ -6910,7 +6910,7 @@
         <v>5</v>
       </c>
       <c r="G207" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H207" s="6">
         <v>85000</v>
@@ -6939,7 +6939,7 @@
         <v>5</v>
       </c>
       <c r="G208" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H208" s="6">
         <v>85000</v>
@@ -6968,7 +6968,7 @@
         <v>5</v>
       </c>
       <c r="G209" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H209" s="6">
         <v>85000</v>
@@ -6997,7 +6997,7 @@
         <v>5</v>
       </c>
       <c r="G210" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H210" s="6">
         <v>85000</v>
@@ -7026,7 +7026,7 @@
         <v>5</v>
       </c>
       <c r="G211" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H211" s="6">
         <v>85000</v>
@@ -7055,7 +7055,7 @@
         <v>5</v>
       </c>
       <c r="G212" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H212" s="6">
         <v>85000</v>
@@ -7084,7 +7084,7 @@
         <v>5</v>
       </c>
       <c r="G213" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H213" s="6">
         <v>85000</v>
@@ -7113,7 +7113,7 @@
         <v>5</v>
       </c>
       <c r="G214" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H214" s="6">
         <v>2000000</v>
@@ -7142,7 +7142,7 @@
         <v>5</v>
       </c>
       <c r="G215" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H215" s="6">
         <v>1300000</v>
@@ -7171,7 +7171,7 @@
         <v>5</v>
       </c>
       <c r="G216" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H216" s="6">
         <v>950000</v>
@@ -7200,7 +7200,7 @@
         <v>5</v>
       </c>
       <c r="G217" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H217" s="6">
         <v>650000</v>
@@ -7229,7 +7229,7 @@
         <v>5</v>
       </c>
       <c r="G218" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H218" s="6">
         <v>470000</v>
@@ -7258,7 +7258,7 @@
         <v>5</v>
       </c>
       <c r="G219" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H219" s="6">
         <v>330000</v>
@@ -7287,7 +7287,7 @@
         <v>5</v>
       </c>
       <c r="G220" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H220" s="6">
         <v>270000</v>
@@ -7316,7 +7316,7 @@
         <v>5</v>
       </c>
       <c r="G221" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H221" s="6">
         <v>220000</v>
@@ -7345,7 +7345,7 @@
         <v>5</v>
       </c>
       <c r="G222" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H222" s="6">
         <v>180000</v>
@@ -7374,7 +7374,7 @@
         <v>5</v>
       </c>
       <c r="G223" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H223" s="6">
         <v>180000</v>
@@ -7403,7 +7403,7 @@
         <v>5</v>
       </c>
       <c r="G224" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H224" s="6">
         <v>150000</v>
@@ -7432,7 +7432,7 @@
         <v>5</v>
       </c>
       <c r="G225" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H225" s="6">
         <v>150000</v>
@@ -7461,7 +7461,7 @@
         <v>5</v>
       </c>
       <c r="G226" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H226" s="6">
         <v>150000</v>
@@ -7490,7 +7490,7 @@
         <v>5</v>
       </c>
       <c r="G227" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H227" s="6">
         <v>150000</v>
@@ -7519,7 +7519,7 @@
         <v>5</v>
       </c>
       <c r="G228" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H228" s="6">
         <v>120000</v>
@@ -7548,7 +7548,7 @@
         <v>5</v>
       </c>
       <c r="G229" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H229" s="6">
         <v>120000</v>
@@ -7577,7 +7577,7 @@
         <v>5</v>
       </c>
       <c r="G230" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H230" s="6">
         <v>120000</v>
@@ -7606,7 +7606,7 @@
         <v>5</v>
       </c>
       <c r="G231" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H231" s="6">
         <v>120000</v>
@@ -7635,7 +7635,7 @@
         <v>5</v>
       </c>
       <c r="G232" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H232" s="6">
         <v>100000</v>
@@ -7664,7 +7664,7 @@
         <v>5</v>
       </c>
       <c r="G233" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H233" s="6">
         <v>100000</v>
@@ -7693,7 +7693,7 @@
         <v>5</v>
       </c>
       <c r="G234" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H234" s="6">
         <v>100000</v>
@@ -7722,7 +7722,7 @@
         <v>5</v>
       </c>
       <c r="G235" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H235" s="6">
         <v>100000</v>
@@ -7751,7 +7751,7 @@
         <v>5</v>
       </c>
       <c r="G236" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H236" s="6">
         <v>100000</v>
@@ -7780,7 +7780,7 @@
         <v>5</v>
       </c>
       <c r="G237" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H237" s="6">
         <v>80000</v>
@@ -7809,7 +7809,7 @@
         <v>5</v>
       </c>
       <c r="G238" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H238" s="6">
         <v>80000</v>
@@ -7838,7 +7838,7 @@
         <v>5</v>
       </c>
       <c r="G239" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H239" s="6">
         <v>80000</v>
@@ -7867,7 +7867,7 @@
         <v>5</v>
       </c>
       <c r="G240" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H240" s="6">
         <v>80000</v>
@@ -7896,7 +7896,7 @@
         <v>5</v>
       </c>
       <c r="G241" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H241" s="6">
         <v>80000</v>
@@ -7925,7 +7925,7 @@
         <v>5</v>
       </c>
       <c r="G242" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H242" s="6">
         <v>80000</v>
@@ -7954,7 +7954,7 @@
         <v>5</v>
       </c>
       <c r="G243" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H243" s="6">
         <v>80000</v>
@@ -7983,7 +7983,7 @@
         <v>5</v>
       </c>
       <c r="G244" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H244" s="6">
         <v>80000</v>
@@ -8012,7 +8012,7 @@
         <v>5</v>
       </c>
       <c r="G245" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H245" s="6">
         <v>80000</v>
@@ -8041,7 +8041,7 @@
         <v>5</v>
       </c>
       <c r="G246" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H246" s="6">
         <v>80000</v>
@@ -8070,7 +8070,7 @@
         <v>5</v>
       </c>
       <c r="G247" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H247" s="6">
         <v>80000</v>
@@ -8099,7 +8099,7 @@
         <v>5</v>
       </c>
       <c r="G248" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H248" s="6">
         <v>80000</v>
@@ -8128,7 +8128,7 @@
         <v>5</v>
       </c>
       <c r="G249" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H249" s="6">
         <v>80000</v>
@@ -8157,7 +8157,7 @@
         <v>5</v>
       </c>
       <c r="G250" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H250" s="6">
         <v>80000</v>
@@ -8186,7 +8186,7 @@
         <v>5</v>
       </c>
       <c r="G251" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H251" s="6">
         <v>80000</v>
@@ -8215,7 +8215,7 @@
         <v>5</v>
       </c>
       <c r="G252" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H252" s="6">
         <v>80000</v>
@@ -8244,7 +8244,7 @@
         <v>5</v>
       </c>
       <c r="G253" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H253" s="6">
         <v>80000</v>
@@ -8273,7 +8273,7 @@
         <v>5</v>
       </c>
       <c r="G254" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H254" s="6">
         <v>80000</v>
@@ -8302,7 +8302,7 @@
         <v>5</v>
       </c>
       <c r="G255" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H255" s="6">
         <v>80000</v>
@@ -8331,7 +8331,7 @@
         <v>5</v>
       </c>
       <c r="G256" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H256" s="6">
         <v>80000</v>
@@ -8360,7 +8360,7 @@
         <v>5</v>
       </c>
       <c r="G257" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H257" s="6">
         <v>80000</v>
@@ -8389,7 +8389,7 @@
         <v>5</v>
       </c>
       <c r="G258" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H258" s="6">
         <v>80000</v>
@@ -8418,7 +8418,7 @@
         <v>5</v>
       </c>
       <c r="G259" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H259" s="6">
         <v>80000</v>
@@ -8447,7 +8447,7 @@
         <v>5</v>
       </c>
       <c r="G260" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H260" s="6">
         <v>80000</v>
@@ -8476,7 +8476,7 @@
         <v>5</v>
       </c>
       <c r="G261" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H261" s="6">
         <v>80000</v>
@@ -8505,7 +8505,7 @@
         <v>5</v>
       </c>
       <c r="G262" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H262" s="6">
         <v>4000000</v>
@@ -8534,7 +8534,7 @@
         <v>5</v>
       </c>
       <c r="G263" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H263" s="6">
         <v>2600000</v>
@@ -8563,7 +8563,7 @@
         <v>5</v>
       </c>
       <c r="G264" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H264" s="6">
         <v>1900000</v>
@@ -8592,7 +8592,7 @@
         <v>5</v>
       </c>
       <c r="G265" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H265" s="6">
         <v>1300000</v>
@@ -8621,7 +8621,7 @@
         <v>5</v>
       </c>
       <c r="G266" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H266" s="6">
         <v>950000</v>
@@ -8650,7 +8650,7 @@
         <v>5</v>
       </c>
       <c r="G267" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H267" s="6">
         <v>670000</v>
@@ -8679,7 +8679,7 @@
         <v>5</v>
       </c>
       <c r="G268" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H268" s="6">
         <v>550000</v>
@@ -8708,7 +8708,7 @@
         <v>5</v>
       </c>
       <c r="G269" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H269" s="6">
         <v>450000</v>
@@ -8737,7 +8737,7 @@
         <v>5</v>
       </c>
       <c r="G270" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H270" s="6">
         <v>350000</v>
@@ -8766,7 +8766,7 @@
         <v>5</v>
       </c>
       <c r="G271" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H271" s="6">
         <v>350000</v>
@@ -8795,7 +8795,7 @@
         <v>5</v>
       </c>
       <c r="G272" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H272" s="6">
         <v>300000</v>
@@ -8824,7 +8824,7 @@
         <v>5</v>
       </c>
       <c r="G273" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H273" s="6">
         <v>300000</v>
@@ -8853,7 +8853,7 @@
         <v>5</v>
       </c>
       <c r="G274" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H274" s="6">
         <v>300000</v>
@@ -8882,7 +8882,7 @@
         <v>5</v>
       </c>
       <c r="G275" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H275" s="6">
         <v>240000</v>
@@ -8911,7 +8911,7 @@
         <v>5</v>
       </c>
       <c r="G276" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H276" s="6">
         <v>240000</v>
@@ -8940,7 +8940,7 @@
         <v>5</v>
       </c>
       <c r="G277" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H277" s="6">
         <v>240000</v>
@@ -8969,7 +8969,7 @@
         <v>5</v>
       </c>
       <c r="G278" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H278" s="6">
         <v>200000</v>
@@ -8998,7 +8998,7 @@
         <v>5</v>
       </c>
       <c r="G279" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H279" s="6">
         <v>200000</v>
@@ -9027,7 +9027,7 @@
         <v>5</v>
       </c>
       <c r="G280" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H280" s="6">
         <v>200000</v>
@@ -9056,7 +9056,7 @@
         <v>5</v>
       </c>
       <c r="G281" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H281" s="6">
         <v>200000</v>
@@ -9085,7 +9085,7 @@
         <v>5</v>
       </c>
       <c r="G282" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H282" s="6">
         <v>200000</v>
@@ -9114,7 +9114,7 @@
         <v>5</v>
       </c>
       <c r="G283" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H283" s="6">
         <v>200000</v>
@@ -9143,7 +9143,7 @@
         <v>5</v>
       </c>
       <c r="G284" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H284" s="6">
         <v>160000</v>
@@ -9172,7 +9172,7 @@
         <v>5</v>
       </c>
       <c r="G285" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H285" s="6">
         <v>160000</v>
@@ -9201,7 +9201,7 @@
         <v>5</v>
       </c>
       <c r="G286" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H286" s="6">
         <v>160000</v>
@@ -9230,7 +9230,7 @@
         <v>5</v>
       </c>
       <c r="G287" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H287" s="6">
         <v>160000</v>
@@ -9259,7 +9259,7 @@
         <v>5</v>
       </c>
       <c r="G288" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H288" s="6">
         <v>160000</v>
@@ -9288,7 +9288,7 @@
         <v>5</v>
       </c>
       <c r="G289" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H289" s="6">
         <v>160000</v>
@@ -9317,7 +9317,7 @@
         <v>5</v>
       </c>
       <c r="G290" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H290" s="6">
         <v>160000</v>
@@ -9346,7 +9346,7 @@
         <v>5</v>
       </c>
       <c r="G291" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H291" s="6">
         <v>160000</v>
@@ -9375,7 +9375,7 @@
         <v>5</v>
       </c>
       <c r="G292" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H292" s="6">
         <v>160000</v>
@@ -9404,7 +9404,7 @@
         <v>5</v>
       </c>
       <c r="G293" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H293" s="6">
         <v>160000</v>
@@ -9433,7 +9433,7 @@
         <v>5</v>
       </c>
       <c r="G294" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H294" s="6">
         <v>160000</v>
@@ -9462,7 +9462,7 @@
         <v>5</v>
       </c>
       <c r="G295" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H295" s="6">
         <v>160000</v>
@@ -9491,7 +9491,7 @@
         <v>5</v>
       </c>
       <c r="G296" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H296" s="6">
         <v>130000</v>
@@ -9520,7 +9520,7 @@
         <v>5</v>
       </c>
       <c r="G297" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H297" s="6">
         <v>130000</v>
@@ -9549,7 +9549,7 @@
         <v>5</v>
       </c>
       <c r="G298" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H298" s="6">
         <v>130000</v>
@@ -9578,7 +9578,7 @@
         <v>5</v>
       </c>
       <c r="G299" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H299" s="6">
         <v>130000</v>
@@ -9607,7 +9607,7 @@
         <v>5</v>
       </c>
       <c r="G300" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H300" s="6">
         <v>130000</v>
@@ -9636,7 +9636,7 @@
         <v>5</v>
       </c>
       <c r="G301" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H301" s="6">
         <v>130000</v>
@@ -9665,7 +9665,7 @@
         <v>5</v>
       </c>
       <c r="G302" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H302" s="6">
         <v>130000</v>
@@ -9694,7 +9694,7 @@
         <v>5</v>
       </c>
       <c r="G303" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H303" s="6">
         <v>130000</v>
@@ -9723,7 +9723,7 @@
         <v>5</v>
       </c>
       <c r="G304" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H304" s="6">
         <v>130000</v>
@@ -9752,7 +9752,7 @@
         <v>5</v>
       </c>
       <c r="G305" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H305" s="6">
         <v>130000</v>
@@ -9781,7 +9781,7 @@
         <v>5</v>
       </c>
       <c r="G306" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H306" s="6">
         <v>130000</v>
@@ -9810,7 +9810,7 @@
         <v>5</v>
       </c>
       <c r="G307" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H307" s="6">
         <v>130000</v>
@@ -9839,7 +9839,7 @@
         <v>5</v>
       </c>
       <c r="G308" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H308" s="6">
         <v>130000</v>
@@ -9868,7 +9868,7 @@
         <v>5</v>
       </c>
       <c r="G309" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H309" s="6">
         <v>130000</v>
@@ -9897,7 +9897,7 @@
         <v>5</v>
       </c>
       <c r="G310" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H310" s="6">
         <v>18000000</v>
@@ -9926,7 +9926,7 @@
         <v>5</v>
       </c>
       <c r="G311" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H311" s="6">
         <v>12000000</v>
@@ -9955,7 +9955,7 @@
         <v>5</v>
       </c>
       <c r="G312" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H312" s="6">
         <v>8800000</v>
@@ -9984,7 +9984,7 @@
         <v>5</v>
       </c>
       <c r="G313" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H313" s="6">
         <v>6000000</v>
@@ -10013,7 +10013,7 @@
         <v>5</v>
       </c>
       <c r="G314" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H314" s="6">
         <v>4300000</v>
@@ -10042,7 +10042,7 @@
         <v>5</v>
       </c>
       <c r="G315" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H315" s="6">
         <v>3000000</v>
@@ -10071,7 +10071,7 @@
         <v>5</v>
       </c>
       <c r="G316" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H316" s="6">
         <v>2500000</v>
@@ -10100,7 +10100,7 @@
         <v>5</v>
       </c>
       <c r="G317" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H317" s="6">
         <v>2000000</v>
@@ -10129,7 +10129,7 @@
         <v>5</v>
       </c>
       <c r="G318" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H318" s="6">
         <v>2000000</v>
@@ -10158,7 +10158,7 @@
         <v>5</v>
       </c>
       <c r="G319" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H319" s="6">
         <v>1600000</v>
@@ -10187,7 +10187,7 @@
         <v>5</v>
       </c>
       <c r="G320" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H320" s="6">
         <v>1600000</v>
@@ -10216,7 +10216,7 @@
         <v>5</v>
       </c>
       <c r="G321" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H321" s="6">
         <v>1300000</v>
@@ -10245,7 +10245,7 @@
         <v>5</v>
       </c>
       <c r="G322" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H322" s="6">
         <v>1300000</v>
@@ -10274,7 +10274,7 @@
         <v>5</v>
       </c>
       <c r="G323" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H323" s="6">
         <v>1300000</v>
@@ -10303,7 +10303,7 @@
         <v>5</v>
       </c>
       <c r="G324" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H324" s="6">
         <v>1000000</v>
@@ -10332,7 +10332,7 @@
         <v>5</v>
       </c>
       <c r="G325" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H325" s="6">
         <v>1000000</v>
@@ -10361,7 +10361,7 @@
         <v>5</v>
       </c>
       <c r="G326" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H326" s="6">
         <v>1000000</v>
@@ -10390,7 +10390,7 @@
         <v>5</v>
       </c>
       <c r="G327" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H327" s="6">
         <v>880000</v>
@@ -10419,7 +10419,7 @@
         <v>5</v>
       </c>
       <c r="G328" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H328" s="6">
         <v>880000</v>
@@ -10448,7 +10448,7 @@
         <v>5</v>
       </c>
       <c r="G329" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H329" s="6">
         <v>880000</v>
@@ -10477,7 +10477,7 @@
         <v>5</v>
       </c>
       <c r="G330" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H330" s="6">
         <v>880000</v>
@@ -10506,7 +10506,7 @@
         <v>5</v>
       </c>
       <c r="G331" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H331" s="6">
         <v>880000</v>
@@ -10535,7 +10535,7 @@
         <v>5</v>
       </c>
       <c r="G332" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H332" s="6">
         <v>880000</v>
@@ -10564,7 +10564,7 @@
         <v>5</v>
       </c>
       <c r="G333" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H333" s="6">
         <v>720000</v>
@@ -10593,7 +10593,7 @@
         <v>5</v>
       </c>
       <c r="G334" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H334" s="6">
         <v>720000</v>
@@ -10622,7 +10622,7 @@
         <v>5</v>
       </c>
       <c r="G335" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H335" s="6">
         <v>720000</v>
@@ -10651,7 +10651,7 @@
         <v>5</v>
       </c>
       <c r="G336" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H336" s="6">
         <v>720000</v>
@@ -10680,7 +10680,7 @@
         <v>5</v>
       </c>
       <c r="G337" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H337" s="6">
         <v>720000</v>
@@ -10709,7 +10709,7 @@
         <v>5</v>
       </c>
       <c r="G338" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H338" s="6">
         <v>720000</v>
@@ -10738,7 +10738,7 @@
         <v>5</v>
       </c>
       <c r="G339" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H339" s="6">
         <v>720000</v>
@@ -10767,7 +10767,7 @@
         <v>5</v>
       </c>
       <c r="G340" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H340" s="6">
         <v>720000</v>
@@ -10796,7 +10796,7 @@
         <v>5</v>
       </c>
       <c r="G341" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H341" s="6">
         <v>720000</v>
@@ -10825,7 +10825,7 @@
         <v>5</v>
       </c>
       <c r="G342" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H342" s="6">
         <v>720000</v>
@@ -10854,7 +10854,7 @@
         <v>5</v>
       </c>
       <c r="G343" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H343" s="6">
         <v>720000</v>
@@ -10883,7 +10883,7 @@
         <v>5</v>
       </c>
       <c r="G344" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H344" s="6">
         <v>720000</v>
@@ -10912,7 +10912,7 @@
         <v>5</v>
       </c>
       <c r="G345" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H345" s="6">
         <v>580000</v>
@@ -10941,7 +10941,7 @@
         <v>5</v>
       </c>
       <c r="G346" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H346" s="6">
         <v>580000</v>
@@ -10970,7 +10970,7 @@
         <v>5</v>
       </c>
       <c r="G347" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H347" s="6">
         <v>580000</v>
@@ -10999,7 +10999,7 @@
         <v>5</v>
       </c>
       <c r="G348" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H348" s="6">
         <v>580000</v>
@@ -11028,7 +11028,7 @@
         <v>5</v>
       </c>
       <c r="G349" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H349" s="6">
         <v>580000</v>
@@ -11057,7 +11057,7 @@
         <v>5</v>
       </c>
       <c r="G350" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H350" s="6">
         <v>580000</v>
@@ -11086,7 +11086,7 @@
         <v>5</v>
       </c>
       <c r="G351" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H351" s="6">
         <v>580000</v>
@@ -11115,7 +11115,7 @@
         <v>5</v>
       </c>
       <c r="G352" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H352" s="6">
         <v>580000</v>
@@ -11144,7 +11144,7 @@
         <v>5</v>
       </c>
       <c r="G353" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H353" s="6">
         <v>580000</v>
@@ -11173,7 +11173,7 @@
         <v>5</v>
       </c>
       <c r="G354" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H354" s="6">
         <v>580000</v>
@@ -11202,7 +11202,7 @@
         <v>5</v>
       </c>
       <c r="G355" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H355" s="6">
         <v>580000</v>
@@ -11231,7 +11231,7 @@
         <v>5</v>
       </c>
       <c r="G356" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H356" s="6">
         <v>580000</v>
@@ -11260,7 +11260,7 @@
         <v>5</v>
       </c>
       <c r="G357" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H357" s="6">
         <v>480000</v>
@@ -11289,7 +11289,7 @@
         <v>5</v>
       </c>
       <c r="G358" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H358" s="6">
         <v>480000</v>
@@ -11318,7 +11318,7 @@
         <v>5</v>
       </c>
       <c r="G359" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H359" s="6">
         <v>480000</v>
@@ -11347,7 +11347,7 @@
         <v>5</v>
       </c>
       <c r="G360" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H360" s="6">
         <v>480000</v>
@@ -11376,7 +11376,7 @@
         <v>5</v>
       </c>
       <c r="G361" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H361" s="6">
         <v>480000</v>
@@ -11405,7 +11405,7 @@
         <v>5</v>
       </c>
       <c r="G362" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H362" s="6">
         <v>480000</v>
@@ -11434,7 +11434,7 @@
         <v>5</v>
       </c>
       <c r="G363" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H363" s="6">
         <v>480000</v>
@@ -11463,7 +11463,7 @@
         <v>5</v>
       </c>
       <c r="G364" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H364" s="6">
         <v>480000</v>
@@ -11492,7 +11492,7 @@
         <v>5</v>
       </c>
       <c r="G365" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H365" s="6">
         <v>480000</v>
@@ -11521,7 +11521,7 @@
         <v>5</v>
       </c>
       <c r="G366" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H366" s="6">
         <v>480000</v>
@@ -11550,7 +11550,7 @@
         <v>5</v>
       </c>
       <c r="G367" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H367" s="6">
         <v>480000</v>
@@ -11579,7 +11579,7 @@
         <v>5</v>
       </c>
       <c r="G368" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H368" s="6">
         <v>480000</v>
@@ -11608,7 +11608,7 @@
         <v>5</v>
       </c>
       <c r="G369" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H369" s="6">
         <v>480000</v>
@@ -11637,7 +11637,7 @@
         <v>5</v>
       </c>
       <c r="G370" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H370" s="6">
         <v>480000</v>
@@ -11666,7 +11666,7 @@
         <v>5</v>
       </c>
       <c r="G371" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H371" s="6">
         <v>480000</v>
@@ -11695,7 +11695,7 @@
         <v>5</v>
       </c>
       <c r="G372" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H372" s="6">
         <v>480000</v>
@@ -11724,7 +11724,7 @@
         <v>5</v>
       </c>
       <c r="G373" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H373" s="6">
         <v>480000</v>
@@ -11753,7 +11753,7 @@
         <v>5</v>
       </c>
       <c r="G374" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H374" s="6">
         <v>480000</v>
@@ -11813,7 +11813,7 @@
         <v>5</v>
       </c>
       <c r="G376" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H376" s="6">
         <v>70000</v>
@@ -11842,7 +11842,7 @@
         <v>5</v>
       </c>
       <c r="G377" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H377" s="6">
         <v>50000</v>
@@ -11871,7 +11871,7 @@
         <v>5</v>
       </c>
       <c r="G378" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H378" s="6">
         <v>30000</v>
@@ -11900,7 +11900,7 @@
         <v>5</v>
       </c>
       <c r="G379" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H379" s="6">
         <v>20000</v>
@@ -11929,7 +11929,7 @@
         <v>5</v>
       </c>
       <c r="G380" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H380" s="6">
         <v>17000</v>
@@ -11958,7 +11958,7 @@
         <v>5</v>
       </c>
       <c r="G381" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H381" s="6">
         <v>15000</v>
@@ -11987,7 +11987,7 @@
         <v>5</v>
       </c>
       <c r="G382" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H382" s="6">
         <v>15000</v>
@@ -12016,7 +12016,7 @@
         <v>5</v>
       </c>
       <c r="G383" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H383" s="6">
         <v>15000</v>
@@ -12045,7 +12045,7 @@
         <v>5</v>
       </c>
       <c r="G384" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H384" s="6">
         <v>13000</v>
@@ -12074,7 +12074,7 @@
         <v>5</v>
       </c>
       <c r="G385" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H385" s="6">
         <v>13000</v>
@@ -12103,7 +12103,7 @@
         <v>5</v>
       </c>
       <c r="G386" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H386" s="6">
         <v>13000</v>
@@ -12132,7 +12132,7 @@
         <v>5</v>
       </c>
       <c r="G387" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H387" s="6">
         <v>10000</v>
@@ -12161,7 +12161,7 @@
         <v>5</v>
       </c>
       <c r="G388" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H388" s="6">
         <v>10000</v>
@@ -12190,7 +12190,7 @@
         <v>5</v>
       </c>
       <c r="G389" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H389" s="6">
         <v>10000</v>
@@ -12219,7 +12219,7 @@
         <v>5</v>
       </c>
       <c r="G390" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H390" s="6">
         <v>10000</v>
@@ -12248,7 +12248,7 @@
         <v>5</v>
       </c>
       <c r="G391" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H391" s="6">
         <v>10000</v>
@@ -12277,7 +12277,7 @@
         <v>5</v>
       </c>
       <c r="G392" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H392" s="6">
         <v>10000</v>
@@ -12306,7 +12306,7 @@
         <v>5</v>
       </c>
       <c r="G393" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H393" s="6">
         <v>8000</v>
@@ -12335,7 +12335,7 @@
         <v>5</v>
       </c>
       <c r="G394" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H394" s="6">
         <v>8000</v>
@@ -12364,7 +12364,7 @@
         <v>5</v>
       </c>
       <c r="G395" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H395" s="6">
         <v>8000</v>
@@ -12393,7 +12393,7 @@
         <v>5</v>
       </c>
       <c r="G396" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H396" s="6">
         <v>8000</v>
@@ -12422,7 +12422,7 @@
         <v>5</v>
       </c>
       <c r="G397" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H397" s="6">
         <v>8000</v>
@@ -12451,7 +12451,7 @@
         <v>5</v>
       </c>
       <c r="G398" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H398" s="6">
         <v>8000</v>
@@ -12480,7 +12480,7 @@
         <v>5</v>
       </c>
       <c r="G399" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H399" s="6">
         <v>6000</v>
@@ -12509,7 +12509,7 @@
         <v>5</v>
       </c>
       <c r="G400" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H400" s="6">
         <v>6000</v>
@@ -12538,7 +12538,7 @@
         <v>5</v>
       </c>
       <c r="G401" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H401" s="6">
         <v>6000</v>
@@ -12567,7 +12567,7 @@
         <v>5</v>
       </c>
       <c r="G402" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H402" s="6">
         <v>6000</v>
@@ -12596,7 +12596,7 @@
         <v>5</v>
       </c>
       <c r="G403" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H403" s="6">
         <v>6000</v>
@@ -12625,7 +12625,7 @@
         <v>5</v>
       </c>
       <c r="G404" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H404" s="6">
         <v>6000</v>
@@ -12654,7 +12654,7 @@
         <v>5</v>
       </c>
       <c r="G405" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H405" s="6">
         <v>4000</v>
@@ -12683,7 +12683,7 @@
         <v>5</v>
       </c>
       <c r="G406" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H406" s="6">
         <v>4000</v>
@@ -12712,7 +12712,7 @@
         <v>5</v>
       </c>
       <c r="G407" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H407" s="6">
         <v>4000</v>
@@ -12741,7 +12741,7 @@
         <v>5</v>
       </c>
       <c r="G408" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H408" s="6">
         <v>4000</v>
@@ -12770,7 +12770,7 @@
         <v>5</v>
       </c>
       <c r="G409" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H409" s="6">
         <v>4000</v>
@@ -12799,7 +12799,7 @@
         <v>5</v>
       </c>
       <c r="G410" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H410" s="6">
         <v>4000</v>
@@ -12828,7 +12828,7 @@
         <v>5</v>
       </c>
       <c r="G411" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H411" s="6">
         <v>4000</v>
@@ -12857,7 +12857,7 @@
         <v>5</v>
       </c>
       <c r="G412" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H412" s="6">
         <v>4000</v>
@@ -12886,7 +12886,7 @@
         <v>5</v>
       </c>
       <c r="G413" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H413" s="6">
         <v>4000</v>
@@ -12915,7 +12915,7 @@
         <v>5</v>
       </c>
       <c r="G414" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H414" s="6">
         <v>4000</v>
@@ -12944,7 +12944,7 @@
         <v>5</v>
       </c>
       <c r="G415" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H415" s="6">
         <v>4000</v>
@@ -12973,7 +12973,7 @@
         <v>5</v>
       </c>
       <c r="G416" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H416" s="6">
         <v>4000</v>
@@ -13002,7 +13002,7 @@
         <v>5</v>
       </c>
       <c r="G417" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H417" s="6">
         <v>4000</v>
@@ -13031,7 +13031,7 @@
         <v>5</v>
       </c>
       <c r="G418" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H418" s="6">
         <v>4000</v>
@@ -13060,7 +13060,7 @@
         <v>5</v>
       </c>
       <c r="G419" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H419" s="6">
         <v>4000</v>
@@ -13089,7 +13089,7 @@
         <v>5</v>
       </c>
       <c r="G420" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H420" s="6">
         <v>4000</v>
@@ -13118,7 +13118,7 @@
         <v>5</v>
       </c>
       <c r="G421" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H421" s="6">
         <v>4000</v>
@@ -13147,7 +13147,7 @@
         <v>5</v>
       </c>
       <c r="G422" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H422" s="6">
         <v>4000</v>
@@ -13238,7 +13238,7 @@
         <v>5</v>
       </c>
       <c r="G425" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H425" s="6">
         <v>180000</v>
@@ -13267,7 +13267,7 @@
         <v>5</v>
       </c>
       <c r="G426" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H426" s="6">
         <v>140000</v>
@@ -13296,7 +13296,7 @@
         <v>5</v>
       </c>
       <c r="G427" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H427" s="6">
         <v>100000</v>
@@ -13325,7 +13325,7 @@
         <v>5</v>
       </c>
       <c r="G428" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H428" s="6">
         <v>70000</v>
@@ -13354,7 +13354,7 @@
         <v>5</v>
       </c>
       <c r="G429" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H429" s="6">
         <v>58000</v>
@@ -13383,7 +13383,7 @@
         <v>5</v>
       </c>
       <c r="G430" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H430" s="6">
         <v>48000</v>
@@ -13412,7 +13412,7 @@
         <v>5</v>
       </c>
       <c r="G431" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H431" s="6">
         <v>48000</v>
@@ -13441,7 +13441,7 @@
         <v>5</v>
       </c>
       <c r="G432" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H432" s="6">
         <v>38000</v>
@@ -13470,7 +13470,7 @@
         <v>5</v>
       </c>
       <c r="G433" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H433" s="6">
         <v>38000</v>
@@ -13499,7 +13499,7 @@
         <v>5</v>
       </c>
       <c r="G434" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H434" s="6">
         <v>31000</v>
@@ -13528,7 +13528,7 @@
         <v>5</v>
       </c>
       <c r="G435" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H435" s="6">
         <v>31000</v>
@@ -13557,7 +13557,7 @@
         <v>5</v>
       </c>
       <c r="G436" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H436" s="6">
         <v>31000</v>
@@ -13586,7 +13586,7 @@
         <v>5</v>
       </c>
       <c r="G437" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H437" s="6">
         <v>25000</v>
@@ -13615,7 +13615,7 @@
         <v>5</v>
       </c>
       <c r="G438" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H438" s="6">
         <v>25000</v>
@@ -13644,7 +13644,7 @@
         <v>5</v>
       </c>
       <c r="G439" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H439" s="6">
         <v>25000</v>
@@ -13673,7 +13673,7 @@
         <v>5</v>
       </c>
       <c r="G440" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H440" s="6">
         <v>21000</v>
@@ -13702,7 +13702,7 @@
         <v>5</v>
       </c>
       <c r="G441" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H441" s="6">
         <v>21000</v>
@@ -13731,7 +13731,7 @@
         <v>5</v>
       </c>
       <c r="G442" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H442" s="6">
         <v>21000</v>
@@ -13760,7 +13760,7 @@
         <v>5</v>
       </c>
       <c r="G443" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H443" s="6">
         <v>21000</v>
@@ -13789,7 +13789,7 @@
         <v>5</v>
       </c>
       <c r="G444" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H444" s="6">
         <v>21000</v>
@@ -13818,7 +13818,7 @@
         <v>5</v>
       </c>
       <c r="G445" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H445" s="6">
         <v>21000</v>
@@ -13847,7 +13847,7 @@
         <v>5</v>
       </c>
       <c r="G446" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H446" s="6">
         <v>18000</v>
@@ -13876,7 +13876,7 @@
         <v>5</v>
       </c>
       <c r="G447" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H447" s="6">
         <v>18000</v>
@@ -13905,7 +13905,7 @@
         <v>5</v>
       </c>
       <c r="G448" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H448" s="6">
         <v>18000</v>
@@ -13934,7 +13934,7 @@
         <v>5</v>
       </c>
       <c r="G449" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H449" s="6">
         <v>18000</v>
@@ -13963,7 +13963,7 @@
         <v>5</v>
       </c>
       <c r="G450" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H450" s="6">
         <v>18000</v>
@@ -13992,7 +13992,7 @@
         <v>5</v>
       </c>
       <c r="G451" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H451" s="6">
         <v>18000</v>
@@ -14021,7 +14021,7 @@
         <v>5</v>
       </c>
       <c r="G452" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H452" s="6">
         <v>18000</v>
@@ -14050,7 +14050,7 @@
         <v>5</v>
       </c>
       <c r="G453" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H453" s="6">
         <v>18000</v>
@@ -14079,7 +14079,7 @@
         <v>5</v>
       </c>
       <c r="G454" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H454" s="6">
         <v>18000</v>
@@ -14108,7 +14108,7 @@
         <v>5</v>
       </c>
       <c r="G455" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H455" s="6">
         <v>18000</v>
@@ -14137,7 +14137,7 @@
         <v>5</v>
       </c>
       <c r="G456" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H456" s="6">
         <v>18000</v>
@@ -14166,7 +14166,7 @@
         <v>5</v>
       </c>
       <c r="G457" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H457" s="6">
         <v>18000</v>
@@ -14195,7 +14195,7 @@
         <v>5</v>
       </c>
       <c r="G458" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H458" s="6">
         <v>15000</v>
@@ -14224,7 +14224,7 @@
         <v>5</v>
       </c>
       <c r="G459" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H459" s="6">
         <v>15000</v>
@@ -14253,7 +14253,7 @@
         <v>5</v>
       </c>
       <c r="G460" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H460" s="6">
         <v>15000</v>
@@ -14282,7 +14282,7 @@
         <v>5</v>
       </c>
       <c r="G461" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H461" s="6">
         <v>15000</v>
@@ -14311,7 +14311,7 @@
         <v>5</v>
       </c>
       <c r="G462" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H462" s="6">
         <v>15000</v>
@@ -14340,7 +14340,7 @@
         <v>5</v>
       </c>
       <c r="G463" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H463" s="6">
         <v>15000</v>
@@ -14369,7 +14369,7 @@
         <v>5</v>
       </c>
       <c r="G464" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H464" s="6">
         <v>15000</v>
@@ -14398,7 +14398,7 @@
         <v>5</v>
       </c>
       <c r="G465" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H465" s="6">
         <v>15000</v>
@@ -14427,7 +14427,7 @@
         <v>5</v>
       </c>
       <c r="G466" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H466" s="6">
         <v>15000</v>
@@ -14456,7 +14456,7 @@
         <v>5</v>
       </c>
       <c r="G467" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H467" s="6">
         <v>15000</v>
@@ -14485,7 +14485,7 @@
         <v>5</v>
       </c>
       <c r="G468" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H468" s="6">
         <v>15000</v>
@@ -14514,7 +14514,7 @@
         <v>5</v>
       </c>
       <c r="G469" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H469" s="6">
         <v>15000</v>
@@ -14543,7 +14543,7 @@
         <v>5</v>
       </c>
       <c r="G470" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H470" s="6">
         <v>15000</v>
@@ -14665,7 +14665,7 @@
         <v>5</v>
       </c>
       <c r="G474" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H474" s="6">
         <v>200000</v>
@@ -14694,7 +14694,7 @@
         <v>5</v>
       </c>
       <c r="G475" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H475" s="6">
         <v>150000</v>
@@ -14723,7 +14723,7 @@
         <v>5</v>
       </c>
       <c r="G476" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H476" s="6">
         <v>100000</v>
@@ -14752,7 +14752,7 @@
         <v>5</v>
       </c>
       <c r="G477" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H477" s="6">
         <v>80000</v>
@@ -14781,7 +14781,7 @@
         <v>5</v>
       </c>
       <c r="G478" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H478" s="6">
         <v>80000</v>
@@ -14810,7 +14810,7 @@
         <v>5</v>
       </c>
       <c r="G479" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H479" s="6">
         <v>80000</v>
@@ -14839,7 +14839,7 @@
         <v>5</v>
       </c>
       <c r="G480" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H480" s="6">
         <v>70000</v>
@@ -14868,7 +14868,7 @@
         <v>5</v>
       </c>
       <c r="G481" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H481" s="6">
         <v>70000</v>
@@ -14897,7 +14897,7 @@
         <v>5</v>
       </c>
       <c r="G482" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H482" s="6">
         <v>70000</v>
@@ -14926,7 +14926,7 @@
         <v>5</v>
       </c>
       <c r="G483" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H483" s="6">
         <v>70000</v>
@@ -14955,7 +14955,7 @@
         <v>5</v>
       </c>
       <c r="G484" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H484" s="6">
         <v>70000</v>
@@ -14984,7 +14984,7 @@
         <v>5</v>
       </c>
       <c r="G485" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H485" s="6">
         <v>70000</v>
@@ -15013,7 +15013,7 @@
         <v>5</v>
       </c>
       <c r="G486" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H486" s="6">
         <v>65000</v>
@@ -15042,7 +15042,7 @@
         <v>5</v>
       </c>
       <c r="G487" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H487" s="6">
         <v>65000</v>
@@ -15071,7 +15071,7 @@
         <v>5</v>
       </c>
       <c r="G488" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H488" s="6">
         <v>65000</v>
@@ -15100,7 +15100,7 @@
         <v>5</v>
       </c>
       <c r="G489" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H489" s="6">
         <v>65000</v>
@@ -15129,7 +15129,7 @@
         <v>5</v>
       </c>
       <c r="G490" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H490" s="6">
         <v>65000</v>
@@ -15158,7 +15158,7 @@
         <v>5</v>
       </c>
       <c r="G491" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H491" s="6">
         <v>65000</v>
@@ -15187,7 +15187,7 @@
         <v>5</v>
       </c>
       <c r="G492" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H492" s="6">
         <v>65000</v>
@@ -15216,7 +15216,7 @@
         <v>5</v>
       </c>
       <c r="G493" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H493" s="6">
         <v>65000</v>
@@ -15245,7 +15245,7 @@
         <v>5</v>
       </c>
       <c r="G494" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H494" s="6">
         <v>65000</v>
@@ -15274,7 +15274,7 @@
         <v>5</v>
       </c>
       <c r="G495" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H495" s="6">
         <v>60000</v>
@@ -15303,7 +15303,7 @@
         <v>5</v>
       </c>
       <c r="G496" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H496" s="6">
         <v>60000</v>
@@ -15332,7 +15332,7 @@
         <v>5</v>
       </c>
       <c r="G497" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H497" s="6">
         <v>60000</v>
@@ -15361,7 +15361,7 @@
         <v>5</v>
       </c>
       <c r="G498" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H498" s="6">
         <v>60000</v>
@@ -15390,7 +15390,7 @@
         <v>5</v>
       </c>
       <c r="G499" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H499" s="6">
         <v>60000</v>
@@ -15419,7 +15419,7 @@
         <v>5</v>
       </c>
       <c r="G500" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H500" s="6">
         <v>60000</v>
@@ -15448,7 +15448,7 @@
         <v>5</v>
       </c>
       <c r="G501" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H501" s="6">
         <v>60000</v>
@@ -15477,7 +15477,7 @@
         <v>5</v>
       </c>
       <c r="G502" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H502" s="6">
         <v>60000</v>
@@ -15506,7 +15506,7 @@
         <v>5</v>
       </c>
       <c r="G503" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H503" s="6">
         <v>60000</v>
@@ -15535,7 +15535,7 @@
         <v>5</v>
       </c>
       <c r="G504" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H504" s="6">
         <v>60000</v>
@@ -15564,7 +15564,7 @@
         <v>5</v>
       </c>
       <c r="G505" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H505" s="6">
         <v>60000</v>
@@ -15593,7 +15593,7 @@
         <v>5</v>
       </c>
       <c r="G506" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H506" s="6">
         <v>60000</v>
@@ -15622,7 +15622,7 @@
         <v>5</v>
       </c>
       <c r="G507" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H507" s="6">
         <v>6000</v>
@@ -15651,7 +15651,7 @@
         <v>5</v>
       </c>
       <c r="G508" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H508" s="6">
         <v>12000</v>
@@ -15680,7 +15680,7 @@
         <v>5</v>
       </c>
       <c r="G509" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H509" s="6">
         <v>60000</v>
@@ -15709,7 +15709,7 @@
         <v>5</v>
       </c>
       <c r="G510" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H510" s="6">
         <v>4000</v>
@@ -15738,7 +15738,7 @@
         <v>5</v>
       </c>
       <c r="G511" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H511" s="6">
         <v>2000</v>
@@ -15767,7 +15767,7 @@
         <v>5</v>
       </c>
       <c r="G512" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H512" s="6">
         <v>8000</v>
@@ -15796,7 +15796,7 @@
         <v>5</v>
       </c>
       <c r="G513" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H513" s="6">
         <v>4000</v>
@@ -15825,7 +15825,7 @@
         <v>5</v>
       </c>
       <c r="G514" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H514" s="6">
         <v>20000</v>
@@ -15854,7 +15854,7 @@
         <v>5</v>
       </c>
       <c r="G515" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H515" s="6">
         <v>10000</v>
@@ -15883,7 +15883,7 @@
         <v>5</v>
       </c>
       <c r="G516" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H516" s="6">
         <v>40000</v>
@@ -15912,7 +15912,7 @@
         <v>5</v>
       </c>
       <c r="G517" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H517" s="6">
         <v>20000</v>
@@ -15941,7 +15941,7 @@
         <v>5</v>
       </c>
       <c r="G518" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H518" s="6">
         <v>80000</v>
@@ -15970,7 +15970,7 @@
         <v>5</v>
       </c>
       <c r="G519" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H519" s="6">
         <v>40000</v>
@@ -15999,7 +15999,7 @@
         <v>5</v>
       </c>
       <c r="G520" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H520" s="6">
         <v>200000</v>
@@ -16028,7 +16028,7 @@
         <v>5</v>
       </c>
       <c r="G521" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H521" s="6">
         <v>100000</v>
@@ -16057,7 +16057,7 @@
         <v>5</v>
       </c>
       <c r="G522" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H522" s="6">
         <v>400000</v>
@@ -16086,7 +16086,7 @@
         <v>5</v>
       </c>
       <c r="G523" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H523" s="6">
         <v>200000</v>
@@ -16115,7 +16115,7 @@
         <v>5</v>
       </c>
       <c r="G524" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H524" s="6">
         <v>100000</v>
@@ -16144,7 +16144,7 @@
         <v>5</v>
       </c>
       <c r="G525" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H525" s="6">
         <v>200000</v>
@@ -16173,7 +16173,7 @@
         <v>5</v>
       </c>
       <c r="G526" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H526" s="6">
         <v>400000</v>
@@ -16202,7 +16202,7 @@
         <v>5</v>
       </c>
       <c r="G527" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H527" s="6">
         <v>1000000</v>
@@ -16262,7 +16262,7 @@
         <v>5</v>
       </c>
       <c r="G529" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H529" s="6">
         <v>200000000</v>
@@ -16436,7 +16436,7 @@
         <v>5</v>
       </c>
       <c r="G535" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H535" s="6">
         <v>100000000</v>
@@ -16552,7 +16552,7 @@
         <v>5</v>
       </c>
       <c r="G539" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H539" s="6">
         <v>20000000</v>
@@ -16668,7 +16668,7 @@
         <v>5</v>
       </c>
       <c r="G543" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H543" s="6">
         <v>10000000</v>
@@ -16842,7 +16842,7 @@
         <v>5</v>
       </c>
       <c r="G549" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H549" s="6">
         <v>900000</v>
@@ -16958,7 +16958,7 @@
         <v>5</v>
       </c>
       <c r="G553" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H553" s="6">
         <v>200000</v>
@@ -17045,7 +17045,7 @@
         <v>5</v>
       </c>
       <c r="G556" s="6">
-        <v>1</v>
+        <v>60003</v>
       </c>
       <c r="H556" s="6">
         <v>4000</v>

--- a/docs/excel/TAward.xlsx
+++ b/docs/excel/TAward.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -748,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O562"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -826,13 +826,13 @@
         <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>72</v>
@@ -870,7 +870,15 @@
         <v>0</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="F3" s="4" t="s">
         <v>73</v>
       </c>

--- a/docs/excel/TAward.xlsx
+++ b/docs/excel/TAward.xlsx
@@ -748,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O562"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A532" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I550" sqref="I550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -908,7 +908,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H5" s="6">
         <v>5000</v>
@@ -939,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H6" s="6">
         <v>50000</v>
@@ -970,7 +970,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H7" s="6">
         <v>500000</v>
@@ -1001,7 +1001,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H8" s="6">
         <v>500</v>
@@ -1030,7 +1030,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H9" s="6">
         <v>4000</v>
@@ -1284,7 +1284,7 @@
         <v>5</v>
       </c>
       <c r="G17" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H17" s="6">
         <v>20000</v>
@@ -1313,7 +1313,7 @@
         <v>5</v>
       </c>
       <c r="G18" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H18" s="6">
         <v>30000</v>
@@ -1544,7 +1544,7 @@
         <v>5</v>
       </c>
       <c r="G25" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H25" s="6">
         <v>6000000</v>
@@ -1577,7 +1577,7 @@
         <v>5</v>
       </c>
       <c r="G26" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H26" s="6">
         <v>2340000</v>
@@ -1610,7 +1610,7 @@
         <v>5</v>
       </c>
       <c r="G27" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H27" s="6">
         <v>1130000</v>
@@ -1643,7 +1643,7 @@
         <v>5</v>
       </c>
       <c r="G28" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H28" s="6">
         <v>330000</v>
@@ -1676,7 +1676,7 @@
         <v>5</v>
       </c>
       <c r="G29" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H29" s="6">
         <v>108000</v>
@@ -1874,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="G35" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H35" s="6">
         <v>64000</v>
@@ -1909,7 +1909,7 @@
         <v>5</v>
       </c>
       <c r="G36" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H36" s="6">
         <v>197000</v>
@@ -1944,7 +1944,7 @@
         <v>5</v>
       </c>
       <c r="G37" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H37" s="6">
         <v>755000</v>
@@ -1979,7 +1979,7 @@
         <v>5</v>
       </c>
       <c r="G38" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H38" s="6">
         <v>1460000</v>
@@ -2014,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="G39" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H39" s="6">
         <v>3880000</v>
@@ -2049,7 +2049,7 @@
         <v>5</v>
       </c>
       <c r="G40" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H40" s="6">
         <v>8100000</v>
@@ -2084,7 +2084,7 @@
         <v>5</v>
       </c>
       <c r="G41" s="6">
-        <v>60002</v>
+        <v>2</v>
       </c>
       <c r="H41" s="6">
         <v>6</v>
@@ -2117,7 +2117,7 @@
         <v>5</v>
       </c>
       <c r="G42" s="6">
-        <v>60002</v>
+        <v>2</v>
       </c>
       <c r="H42" s="6">
         <v>18</v>
@@ -2150,7 +2150,7 @@
         <v>5</v>
       </c>
       <c r="G43" s="6">
-        <v>60002</v>
+        <v>2</v>
       </c>
       <c r="H43" s="6">
         <v>68</v>
@@ -2183,7 +2183,7 @@
         <v>5</v>
       </c>
       <c r="G44" s="6">
-        <v>60002</v>
+        <v>2</v>
       </c>
       <c r="H44" s="6">
         <v>128</v>
@@ -2216,7 +2216,7 @@
         <v>5</v>
       </c>
       <c r="G45" s="6">
-        <v>60002</v>
+        <v>2</v>
       </c>
       <c r="H45" s="6">
         <v>328</v>
@@ -2249,7 +2249,7 @@
         <v>5</v>
       </c>
       <c r="G46" s="6">
-        <v>60002</v>
+        <v>2</v>
       </c>
       <c r="H46" s="6">
         <v>648</v>
@@ -2332,7 +2332,7 @@
         <v>5</v>
       </c>
       <c r="G49" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H49" s="6">
         <v>1800</v>
@@ -2361,7 +2361,7 @@
         <v>5</v>
       </c>
       <c r="G50" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H50" s="6">
         <v>2200</v>
@@ -2390,7 +2390,7 @@
         <v>5</v>
       </c>
       <c r="G51" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H51" s="6">
         <v>2600</v>
@@ -2419,7 +2419,7 @@
         <v>5</v>
       </c>
       <c r="G52" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H52" s="6">
         <v>3000</v>
@@ -2448,7 +2448,7 @@
         <v>5</v>
       </c>
       <c r="G53" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H53" s="6">
         <v>3400</v>
@@ -2477,7 +2477,7 @@
         <v>5</v>
       </c>
       <c r="G54" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H54" s="6">
         <v>3800</v>
@@ -2506,7 +2506,7 @@
         <v>5</v>
       </c>
       <c r="G55" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H55" s="6">
         <v>5000</v>
@@ -2535,7 +2535,7 @@
         <v>5</v>
       </c>
       <c r="G56" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H56" s="6">
         <v>3000</v>
@@ -2564,7 +2564,7 @@
         <v>5</v>
       </c>
       <c r="G57" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H57" s="6">
         <v>5000</v>
@@ -2593,7 +2593,7 @@
         <v>5</v>
       </c>
       <c r="G58" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H58" s="6">
         <v>8000</v>
@@ -2622,7 +2622,7 @@
         <v>5</v>
       </c>
       <c r="G59" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H59" s="6">
         <v>25000</v>
@@ -2653,7 +2653,7 @@
         <v>5</v>
       </c>
       <c r="G60" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H60" s="6">
         <v>98000</v>
@@ -2684,7 +2684,7 @@
         <v>5</v>
       </c>
       <c r="G61" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H61" s="6">
         <v>40000</v>
@@ -2713,7 +2713,7 @@
         <v>5</v>
       </c>
       <c r="G62" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H62" s="6">
         <v>20000</v>
@@ -2742,7 +2742,7 @@
         <v>5</v>
       </c>
       <c r="G63" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H63" s="6">
         <v>14000</v>
@@ -2771,7 +2771,7 @@
         <v>5</v>
       </c>
       <c r="G64" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H64" s="6">
         <v>10000</v>
@@ -2800,7 +2800,7 @@
         <v>5</v>
       </c>
       <c r="G65" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H65" s="6">
         <v>10000</v>
@@ -2829,7 +2829,7 @@
         <v>5</v>
       </c>
       <c r="G66" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H66" s="6">
         <v>10000</v>
@@ -2858,7 +2858,7 @@
         <v>5</v>
       </c>
       <c r="G67" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H67" s="6">
         <v>6000</v>
@@ -2887,7 +2887,7 @@
         <v>5</v>
       </c>
       <c r="G68" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H68" s="6">
         <v>6000</v>
@@ -2916,7 +2916,7 @@
         <v>5</v>
       </c>
       <c r="G69" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H69" s="6">
         <v>6000</v>
@@ -2945,7 +2945,7 @@
         <v>5</v>
       </c>
       <c r="G70" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H70" s="6">
         <v>6000</v>
@@ -2974,7 +2974,7 @@
         <v>5</v>
       </c>
       <c r="G71" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H71" s="6">
         <v>6000</v>
@@ -3003,7 +3003,7 @@
         <v>5</v>
       </c>
       <c r="G72" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H72" s="6">
         <v>6000</v>
@@ -3032,7 +3032,7 @@
         <v>5</v>
       </c>
       <c r="G73" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H73" s="6">
         <v>4000</v>
@@ -3061,7 +3061,7 @@
         <v>5</v>
       </c>
       <c r="G74" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H74" s="6">
         <v>4000</v>
@@ -3090,7 +3090,7 @@
         <v>5</v>
       </c>
       <c r="G75" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H75" s="6">
         <v>4000</v>
@@ -3119,7 +3119,7 @@
         <v>5</v>
       </c>
       <c r="G76" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H76" s="6">
         <v>4000</v>
@@ -3148,7 +3148,7 @@
         <v>5</v>
       </c>
       <c r="G77" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H77" s="6">
         <v>4000</v>
@@ -3177,7 +3177,7 @@
         <v>5</v>
       </c>
       <c r="G78" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H78" s="6">
         <v>4000</v>
@@ -3206,7 +3206,7 @@
         <v>5</v>
       </c>
       <c r="G79" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H79" s="6">
         <v>3000</v>
@@ -3235,7 +3235,7 @@
         <v>5</v>
       </c>
       <c r="G80" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H80" s="6">
         <v>3000</v>
@@ -3264,7 +3264,7 @@
         <v>5</v>
       </c>
       <c r="G81" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H81" s="6">
         <v>3000</v>
@@ -3293,7 +3293,7 @@
         <v>5</v>
       </c>
       <c r="G82" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H82" s="6">
         <v>3000</v>
@@ -3322,7 +3322,7 @@
         <v>5</v>
       </c>
       <c r="G83" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H83" s="6">
         <v>3000</v>
@@ -3351,7 +3351,7 @@
         <v>5</v>
       </c>
       <c r="G84" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H84" s="6">
         <v>3000</v>
@@ -3380,7 +3380,7 @@
         <v>5</v>
       </c>
       <c r="G85" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H85" s="6">
         <v>2000</v>
@@ -3409,7 +3409,7 @@
         <v>5</v>
       </c>
       <c r="G86" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H86" s="6">
         <v>2000</v>
@@ -3438,7 +3438,7 @@
         <v>5</v>
       </c>
       <c r="G87" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H87" s="6">
         <v>2000</v>
@@ -3467,7 +3467,7 @@
         <v>5</v>
       </c>
       <c r="G88" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H88" s="6">
         <v>2000</v>
@@ -3496,7 +3496,7 @@
         <v>5</v>
       </c>
       <c r="G89" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H89" s="6">
         <v>2000</v>
@@ -3525,7 +3525,7 @@
         <v>5</v>
       </c>
       <c r="G90" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H90" s="6">
         <v>2000</v>
@@ -3554,7 +3554,7 @@
         <v>5</v>
       </c>
       <c r="G91" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H91" s="6">
         <v>2000</v>
@@ -3583,7 +3583,7 @@
         <v>5</v>
       </c>
       <c r="G92" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H92" s="6">
         <v>2000</v>
@@ -3612,7 +3612,7 @@
         <v>5</v>
       </c>
       <c r="G93" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H93" s="6">
         <v>2000</v>
@@ -3641,7 +3641,7 @@
         <v>5</v>
       </c>
       <c r="G94" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H94" s="6">
         <v>2000</v>
@@ -3670,7 +3670,7 @@
         <v>5</v>
       </c>
       <c r="G95" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H95" s="6">
         <v>2000</v>
@@ -3699,7 +3699,7 @@
         <v>5</v>
       </c>
       <c r="G96" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H96" s="6">
         <v>2000</v>
@@ -3728,7 +3728,7 @@
         <v>5</v>
       </c>
       <c r="G97" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H97" s="6">
         <v>2000</v>
@@ -3757,7 +3757,7 @@
         <v>5</v>
       </c>
       <c r="G98" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H98" s="6">
         <v>2000</v>
@@ -3786,7 +3786,7 @@
         <v>5</v>
       </c>
       <c r="G99" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H99" s="6">
         <v>2000</v>
@@ -3815,7 +3815,7 @@
         <v>5</v>
       </c>
       <c r="G100" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H100" s="6">
         <v>2000</v>
@@ -3844,7 +3844,7 @@
         <v>5</v>
       </c>
       <c r="G101" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H101" s="6">
         <v>2000</v>
@@ -3873,7 +3873,7 @@
         <v>5</v>
       </c>
       <c r="G102" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H102" s="6">
         <v>2000</v>
@@ -3902,7 +3902,7 @@
         <v>5</v>
       </c>
       <c r="G103" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H103" s="6">
         <v>2000</v>
@@ -3931,7 +3931,7 @@
         <v>5</v>
       </c>
       <c r="G104" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H104" s="6">
         <v>2000</v>
@@ -3960,7 +3960,7 @@
         <v>5</v>
       </c>
       <c r="G105" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H105" s="6">
         <v>2000</v>
@@ -3989,7 +3989,7 @@
         <v>5</v>
       </c>
       <c r="G106" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H106" s="6">
         <v>250000</v>
@@ -4018,7 +4018,7 @@
         <v>5</v>
       </c>
       <c r="G107" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H107" s="6">
         <v>150000</v>
@@ -4047,7 +4047,7 @@
         <v>5</v>
       </c>
       <c r="G108" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H108" s="6">
         <v>100000</v>
@@ -4076,7 +4076,7 @@
         <v>5</v>
       </c>
       <c r="G109" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H109" s="6">
         <v>80000</v>
@@ -4105,7 +4105,7 @@
         <v>5</v>
       </c>
       <c r="G110" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H110" s="6">
         <v>50000</v>
@@ -4134,7 +4134,7 @@
         <v>5</v>
       </c>
       <c r="G111" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H111" s="6">
         <v>30000</v>
@@ -4163,7 +4163,7 @@
         <v>5</v>
       </c>
       <c r="G112" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H112" s="6">
         <v>16000</v>
@@ -4192,7 +4192,7 @@
         <v>5</v>
       </c>
       <c r="G113" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H113" s="6">
         <v>16000</v>
@@ -4221,7 +4221,7 @@
         <v>5</v>
       </c>
       <c r="G114" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H114" s="6">
         <v>16000</v>
@@ -4250,7 +4250,7 @@
         <v>5</v>
       </c>
       <c r="G115" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H115" s="6">
         <v>14000</v>
@@ -4279,7 +4279,7 @@
         <v>5</v>
       </c>
       <c r="G116" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H116" s="6">
         <v>14000</v>
@@ -4308,7 +4308,7 @@
         <v>5</v>
       </c>
       <c r="G117" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H117" s="6">
         <v>14000</v>
@@ -4337,7 +4337,7 @@
         <v>5</v>
       </c>
       <c r="G118" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H118" s="6">
         <v>14000</v>
@@ -4366,7 +4366,7 @@
         <v>5</v>
       </c>
       <c r="G119" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H119" s="6">
         <v>14000</v>
@@ -4395,7 +4395,7 @@
         <v>5</v>
       </c>
       <c r="G120" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H120" s="6">
         <v>14000</v>
@@ -4424,7 +4424,7 @@
         <v>5</v>
       </c>
       <c r="G121" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H121" s="6">
         <v>12000</v>
@@ -4453,7 +4453,7 @@
         <v>5</v>
       </c>
       <c r="G122" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H122" s="6">
         <v>12000</v>
@@ -4482,7 +4482,7 @@
         <v>5</v>
       </c>
       <c r="G123" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H123" s="6">
         <v>12000</v>
@@ -4511,7 +4511,7 @@
         <v>5</v>
       </c>
       <c r="G124" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H124" s="6">
         <v>12000</v>
@@ -4540,7 +4540,7 @@
         <v>5</v>
       </c>
       <c r="G125" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H125" s="6">
         <v>12000</v>
@@ -4569,7 +4569,7 @@
         <v>5</v>
       </c>
       <c r="G126" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H126" s="6">
         <v>12000</v>
@@ -4598,7 +4598,7 @@
         <v>5</v>
       </c>
       <c r="G127" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H127" s="6">
         <v>10000</v>
@@ -4627,7 +4627,7 @@
         <v>5</v>
       </c>
       <c r="G128" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H128" s="6">
         <v>10000</v>
@@ -4656,7 +4656,7 @@
         <v>5</v>
       </c>
       <c r="G129" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H129" s="6">
         <v>10000</v>
@@ -4685,7 +4685,7 @@
         <v>5</v>
       </c>
       <c r="G130" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H130" s="6">
         <v>10000</v>
@@ -4714,7 +4714,7 @@
         <v>5</v>
       </c>
       <c r="G131" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H131" s="6">
         <v>10000</v>
@@ -4743,7 +4743,7 @@
         <v>5</v>
       </c>
       <c r="G132" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H132" s="6">
         <v>10000</v>
@@ -4772,7 +4772,7 @@
         <v>5</v>
       </c>
       <c r="G133" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H133" s="6">
         <v>9000</v>
@@ -4801,7 +4801,7 @@
         <v>5</v>
       </c>
       <c r="G134" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H134" s="6">
         <v>9000</v>
@@ -4830,7 +4830,7 @@
         <v>5</v>
       </c>
       <c r="G135" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H135" s="6">
         <v>9000</v>
@@ -4859,7 +4859,7 @@
         <v>5</v>
       </c>
       <c r="G136" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H136" s="6">
         <v>9000</v>
@@ -4888,7 +4888,7 @@
         <v>5</v>
       </c>
       <c r="G137" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H137" s="6">
         <v>9000</v>
@@ -4917,7 +4917,7 @@
         <v>5</v>
       </c>
       <c r="G138" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H138" s="6">
         <v>9000</v>
@@ -4946,7 +4946,7 @@
         <v>5</v>
       </c>
       <c r="G139" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H139" s="6">
         <v>9000</v>
@@ -4975,7 +4975,7 @@
         <v>5</v>
       </c>
       <c r="G140" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H140" s="6">
         <v>9000</v>
@@ -5004,7 +5004,7 @@
         <v>5</v>
       </c>
       <c r="G141" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H141" s="6">
         <v>9000</v>
@@ -5033,7 +5033,7 @@
         <v>5</v>
       </c>
       <c r="G142" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H142" s="6">
         <v>400000</v>
@@ -5062,7 +5062,7 @@
         <v>5</v>
       </c>
       <c r="G143" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H143" s="6">
         <v>270000</v>
@@ -5091,7 +5091,7 @@
         <v>5</v>
       </c>
       <c r="G144" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H144" s="6">
         <v>190000</v>
@@ -5120,7 +5120,7 @@
         <v>5</v>
       </c>
       <c r="G145" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H145" s="6">
         <v>135000</v>
@@ -5149,7 +5149,7 @@
         <v>5</v>
       </c>
       <c r="G146" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H146" s="6">
         <v>95000</v>
@@ -5178,7 +5178,7 @@
         <v>5</v>
       </c>
       <c r="G147" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H147" s="6">
         <v>67000</v>
@@ -5207,7 +5207,7 @@
         <v>5</v>
       </c>
       <c r="G148" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H148" s="6">
         <v>55000</v>
@@ -5236,7 +5236,7 @@
         <v>5</v>
       </c>
       <c r="G149" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H149" s="6">
         <v>45000</v>
@@ -5265,7 +5265,7 @@
         <v>5</v>
       </c>
       <c r="G150" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H150" s="6">
         <v>45000</v>
@@ -5294,7 +5294,7 @@
         <v>5</v>
       </c>
       <c r="G151" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H151" s="6">
         <v>36000</v>
@@ -5323,7 +5323,7 @@
         <v>5</v>
       </c>
       <c r="G152" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H152" s="6">
         <v>36000</v>
@@ -5352,7 +5352,7 @@
         <v>5</v>
       </c>
       <c r="G153" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H153" s="6">
         <v>36000</v>
@@ -5381,7 +5381,7 @@
         <v>5</v>
       </c>
       <c r="G154" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H154" s="6">
         <v>30000</v>
@@ -5410,7 +5410,7 @@
         <v>5</v>
       </c>
       <c r="G155" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H155" s="6">
         <v>30000</v>
@@ -5439,7 +5439,7 @@
         <v>5</v>
       </c>
       <c r="G156" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H156" s="6">
         <v>30000</v>
@@ -5468,7 +5468,7 @@
         <v>5</v>
       </c>
       <c r="G157" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H157" s="6">
         <v>24000</v>
@@ -5497,7 +5497,7 @@
         <v>5</v>
       </c>
       <c r="G158" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H158" s="6">
         <v>24000</v>
@@ -5526,7 +5526,7 @@
         <v>5</v>
       </c>
       <c r="G159" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H159" s="6">
         <v>24000</v>
@@ -5555,7 +5555,7 @@
         <v>5</v>
       </c>
       <c r="G160" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H160" s="6">
         <v>20000</v>
@@ -5584,7 +5584,7 @@
         <v>5</v>
       </c>
       <c r="G161" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H161" s="6">
         <v>20000</v>
@@ -5613,7 +5613,7 @@
         <v>5</v>
       </c>
       <c r="G162" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H162" s="6">
         <v>20000</v>
@@ -5642,7 +5642,7 @@
         <v>5</v>
       </c>
       <c r="G163" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H163" s="6">
         <v>20000</v>
@@ -5671,7 +5671,7 @@
         <v>5</v>
       </c>
       <c r="G164" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H164" s="6">
         <v>20000</v>
@@ -5700,7 +5700,7 @@
         <v>5</v>
       </c>
       <c r="G165" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H165" s="6">
         <v>20000</v>
@@ -5729,7 +5729,7 @@
         <v>5</v>
       </c>
       <c r="G166" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H166" s="6">
         <v>16000</v>
@@ -5758,7 +5758,7 @@
         <v>5</v>
       </c>
       <c r="G167" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H167" s="6">
         <v>16000</v>
@@ -5787,7 +5787,7 @@
         <v>5</v>
       </c>
       <c r="G168" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H168" s="6">
         <v>16000</v>
@@ -5816,7 +5816,7 @@
         <v>5</v>
       </c>
       <c r="G169" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H169" s="6">
         <v>16000</v>
@@ -5845,7 +5845,7 @@
         <v>5</v>
       </c>
       <c r="G170" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H170" s="6">
         <v>16000</v>
@@ -5874,7 +5874,7 @@
         <v>5</v>
       </c>
       <c r="G171" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H171" s="6">
         <v>16000</v>
@@ -5903,7 +5903,7 @@
         <v>5</v>
       </c>
       <c r="G172" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H172" s="6">
         <v>16000</v>
@@ -5932,7 +5932,7 @@
         <v>5</v>
       </c>
       <c r="G173" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H173" s="6">
         <v>16000</v>
@@ -5961,7 +5961,7 @@
         <v>5</v>
       </c>
       <c r="G174" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H174" s="6">
         <v>16000</v>
@@ -5990,7 +5990,7 @@
         <v>5</v>
       </c>
       <c r="G175" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H175" s="6">
         <v>16000</v>
@@ -6019,7 +6019,7 @@
         <v>5</v>
       </c>
       <c r="G176" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H176" s="6">
         <v>16000</v>
@@ -6048,7 +6048,7 @@
         <v>5</v>
       </c>
       <c r="G177" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H177" s="6">
         <v>16000</v>
@@ -6077,7 +6077,7 @@
         <v>5</v>
       </c>
       <c r="G178" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H178" s="6">
         <v>13000</v>
@@ -6106,7 +6106,7 @@
         <v>5</v>
       </c>
       <c r="G179" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H179" s="6">
         <v>13000</v>
@@ -6135,7 +6135,7 @@
         <v>5</v>
       </c>
       <c r="G180" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H180" s="6">
         <v>13000</v>
@@ -6164,7 +6164,7 @@
         <v>5</v>
       </c>
       <c r="G181" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H181" s="6">
         <v>13000</v>
@@ -6193,7 +6193,7 @@
         <v>5</v>
       </c>
       <c r="G182" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H182" s="6">
         <v>13000</v>
@@ -6222,7 +6222,7 @@
         <v>5</v>
       </c>
       <c r="G183" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H183" s="6">
         <v>13000</v>
@@ -6251,7 +6251,7 @@
         <v>5</v>
       </c>
       <c r="G184" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H184" s="6">
         <v>13000</v>
@@ -6280,7 +6280,7 @@
         <v>5</v>
       </c>
       <c r="G185" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H185" s="6">
         <v>13000</v>
@@ -6309,7 +6309,7 @@
         <v>5</v>
       </c>
       <c r="G186" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H186" s="6">
         <v>13000</v>
@@ -6338,7 +6338,7 @@
         <v>5</v>
       </c>
       <c r="G187" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H187" s="6">
         <v>13000</v>
@@ -6367,7 +6367,7 @@
         <v>5</v>
       </c>
       <c r="G188" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H188" s="6">
         <v>13000</v>
@@ -6396,7 +6396,7 @@
         <v>5</v>
       </c>
       <c r="G189" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H189" s="6">
         <v>13000</v>
@@ -6425,7 +6425,7 @@
         <v>5</v>
       </c>
       <c r="G190" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H190" s="6">
         <v>1300000</v>
@@ -6454,7 +6454,7 @@
         <v>5</v>
       </c>
       <c r="G191" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H191" s="6">
         <v>800000</v>
@@ -6483,7 +6483,7 @@
         <v>5</v>
       </c>
       <c r="G192" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H192" s="6">
         <v>540000</v>
@@ -6512,7 +6512,7 @@
         <v>5</v>
       </c>
       <c r="G193" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H193" s="6">
         <v>270000</v>
@@ -6541,7 +6541,7 @@
         <v>5</v>
       </c>
       <c r="G194" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H194" s="6">
         <v>200000</v>
@@ -6570,7 +6570,7 @@
         <v>5</v>
       </c>
       <c r="G195" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H195" s="6">
         <v>130000</v>
@@ -6599,7 +6599,7 @@
         <v>5</v>
       </c>
       <c r="G196" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H196" s="6">
         <v>110000</v>
@@ -6628,7 +6628,7 @@
         <v>5</v>
       </c>
       <c r="G197" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H197" s="6">
         <v>110000</v>
@@ -6657,7 +6657,7 @@
         <v>5</v>
       </c>
       <c r="G198" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H198" s="6">
         <v>110000</v>
@@ -6686,7 +6686,7 @@
         <v>5</v>
       </c>
       <c r="G199" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H199" s="6">
         <v>95000</v>
@@ -6715,7 +6715,7 @@
         <v>5</v>
       </c>
       <c r="G200" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H200" s="6">
         <v>95000</v>
@@ -6744,7 +6744,7 @@
         <v>5</v>
       </c>
       <c r="G201" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H201" s="6">
         <v>95000</v>
@@ -6773,7 +6773,7 @@
         <v>5</v>
       </c>
       <c r="G202" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H202" s="6">
         <v>95000</v>
@@ -6802,7 +6802,7 @@
         <v>5</v>
       </c>
       <c r="G203" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H203" s="6">
         <v>95000</v>
@@ -6831,7 +6831,7 @@
         <v>5</v>
       </c>
       <c r="G204" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H204" s="6">
         <v>95000</v>
@@ -6860,7 +6860,7 @@
         <v>5</v>
       </c>
       <c r="G205" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H205" s="6">
         <v>85000</v>
@@ -6889,7 +6889,7 @@
         <v>5</v>
       </c>
       <c r="G206" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H206" s="6">
         <v>85000</v>
@@ -6918,7 +6918,7 @@
         <v>5</v>
       </c>
       <c r="G207" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H207" s="6">
         <v>85000</v>
@@ -6947,7 +6947,7 @@
         <v>5</v>
       </c>
       <c r="G208" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H208" s="6">
         <v>85000</v>
@@ -6976,7 +6976,7 @@
         <v>5</v>
       </c>
       <c r="G209" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H209" s="6">
         <v>85000</v>
@@ -7005,7 +7005,7 @@
         <v>5</v>
       </c>
       <c r="G210" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H210" s="6">
         <v>85000</v>
@@ -7034,7 +7034,7 @@
         <v>5</v>
       </c>
       <c r="G211" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H211" s="6">
         <v>85000</v>
@@ -7063,7 +7063,7 @@
         <v>5</v>
       </c>
       <c r="G212" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H212" s="6">
         <v>85000</v>
@@ -7092,7 +7092,7 @@
         <v>5</v>
       </c>
       <c r="G213" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H213" s="6">
         <v>85000</v>
@@ -7121,7 +7121,7 @@
         <v>5</v>
       </c>
       <c r="G214" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H214" s="6">
         <v>2000000</v>
@@ -7150,7 +7150,7 @@
         <v>5</v>
       </c>
       <c r="G215" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H215" s="6">
         <v>1300000</v>
@@ -7179,7 +7179,7 @@
         <v>5</v>
       </c>
       <c r="G216" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H216" s="6">
         <v>950000</v>
@@ -7208,7 +7208,7 @@
         <v>5</v>
       </c>
       <c r="G217" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H217" s="6">
         <v>650000</v>
@@ -7237,7 +7237,7 @@
         <v>5</v>
       </c>
       <c r="G218" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H218" s="6">
         <v>470000</v>
@@ -7266,7 +7266,7 @@
         <v>5</v>
       </c>
       <c r="G219" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H219" s="6">
         <v>330000</v>
@@ -7295,7 +7295,7 @@
         <v>5</v>
       </c>
       <c r="G220" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H220" s="6">
         <v>270000</v>
@@ -7324,7 +7324,7 @@
         <v>5</v>
       </c>
       <c r="G221" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H221" s="6">
         <v>220000</v>
@@ -7353,7 +7353,7 @@
         <v>5</v>
       </c>
       <c r="G222" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H222" s="6">
         <v>180000</v>
@@ -7382,7 +7382,7 @@
         <v>5</v>
       </c>
       <c r="G223" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H223" s="6">
         <v>180000</v>
@@ -7411,7 +7411,7 @@
         <v>5</v>
       </c>
       <c r="G224" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H224" s="6">
         <v>150000</v>
@@ -7440,7 +7440,7 @@
         <v>5</v>
       </c>
       <c r="G225" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H225" s="6">
         <v>150000</v>
@@ -7469,7 +7469,7 @@
         <v>5</v>
       </c>
       <c r="G226" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H226" s="6">
         <v>150000</v>
@@ -7498,7 +7498,7 @@
         <v>5</v>
       </c>
       <c r="G227" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H227" s="6">
         <v>150000</v>
@@ -7527,7 +7527,7 @@
         <v>5</v>
       </c>
       <c r="G228" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H228" s="6">
         <v>120000</v>
@@ -7556,7 +7556,7 @@
         <v>5</v>
       </c>
       <c r="G229" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H229" s="6">
         <v>120000</v>
@@ -7585,7 +7585,7 @@
         <v>5</v>
       </c>
       <c r="G230" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H230" s="6">
         <v>120000</v>
@@ -7614,7 +7614,7 @@
         <v>5</v>
       </c>
       <c r="G231" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H231" s="6">
         <v>120000</v>
@@ -7643,7 +7643,7 @@
         <v>5</v>
       </c>
       <c r="G232" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H232" s="6">
         <v>100000</v>
@@ -7672,7 +7672,7 @@
         <v>5</v>
       </c>
       <c r="G233" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H233" s="6">
         <v>100000</v>
@@ -7701,7 +7701,7 @@
         <v>5</v>
       </c>
       <c r="G234" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H234" s="6">
         <v>100000</v>
@@ -7730,7 +7730,7 @@
         <v>5</v>
       </c>
       <c r="G235" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H235" s="6">
         <v>100000</v>
@@ -7759,7 +7759,7 @@
         <v>5</v>
       </c>
       <c r="G236" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H236" s="6">
         <v>100000</v>
@@ -7788,7 +7788,7 @@
         <v>5</v>
       </c>
       <c r="G237" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H237" s="6">
         <v>80000</v>
@@ -7817,7 +7817,7 @@
         <v>5</v>
       </c>
       <c r="G238" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H238" s="6">
         <v>80000</v>
@@ -7846,7 +7846,7 @@
         <v>5</v>
       </c>
       <c r="G239" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H239" s="6">
         <v>80000</v>
@@ -7875,7 +7875,7 @@
         <v>5</v>
       </c>
       <c r="G240" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H240" s="6">
         <v>80000</v>
@@ -7904,7 +7904,7 @@
         <v>5</v>
       </c>
       <c r="G241" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H241" s="6">
         <v>80000</v>
@@ -7933,7 +7933,7 @@
         <v>5</v>
       </c>
       <c r="G242" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H242" s="6">
         <v>80000</v>
@@ -7962,7 +7962,7 @@
         <v>5</v>
       </c>
       <c r="G243" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H243" s="6">
         <v>80000</v>
@@ -7991,7 +7991,7 @@
         <v>5</v>
       </c>
       <c r="G244" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H244" s="6">
         <v>80000</v>
@@ -8020,7 +8020,7 @@
         <v>5</v>
       </c>
       <c r="G245" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H245" s="6">
         <v>80000</v>
@@ -8049,7 +8049,7 @@
         <v>5</v>
       </c>
       <c r="G246" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H246" s="6">
         <v>80000</v>
@@ -8078,7 +8078,7 @@
         <v>5</v>
       </c>
       <c r="G247" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H247" s="6">
         <v>80000</v>
@@ -8107,7 +8107,7 @@
         <v>5</v>
       </c>
       <c r="G248" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H248" s="6">
         <v>80000</v>
@@ -8136,7 +8136,7 @@
         <v>5</v>
       </c>
       <c r="G249" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H249" s="6">
         <v>80000</v>
@@ -8165,7 +8165,7 @@
         <v>5</v>
       </c>
       <c r="G250" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H250" s="6">
         <v>80000</v>
@@ -8194,7 +8194,7 @@
         <v>5</v>
       </c>
       <c r="G251" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H251" s="6">
         <v>80000</v>
@@ -8223,7 +8223,7 @@
         <v>5</v>
       </c>
       <c r="G252" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H252" s="6">
         <v>80000</v>
@@ -8252,7 +8252,7 @@
         <v>5</v>
       </c>
       <c r="G253" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H253" s="6">
         <v>80000</v>
@@ -8281,7 +8281,7 @@
         <v>5</v>
       </c>
       <c r="G254" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H254" s="6">
         <v>80000</v>
@@ -8310,7 +8310,7 @@
         <v>5</v>
       </c>
       <c r="G255" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H255" s="6">
         <v>80000</v>
@@ -8339,7 +8339,7 @@
         <v>5</v>
       </c>
       <c r="G256" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H256" s="6">
         <v>80000</v>
@@ -8368,7 +8368,7 @@
         <v>5</v>
       </c>
       <c r="G257" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H257" s="6">
         <v>80000</v>
@@ -8397,7 +8397,7 @@
         <v>5</v>
       </c>
       <c r="G258" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H258" s="6">
         <v>80000</v>
@@ -8426,7 +8426,7 @@
         <v>5</v>
       </c>
       <c r="G259" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H259" s="6">
         <v>80000</v>
@@ -8455,7 +8455,7 @@
         <v>5</v>
       </c>
       <c r="G260" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H260" s="6">
         <v>80000</v>
@@ -8484,7 +8484,7 @@
         <v>5</v>
       </c>
       <c r="G261" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H261" s="6">
         <v>80000</v>
@@ -8513,7 +8513,7 @@
         <v>5</v>
       </c>
       <c r="G262" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H262" s="6">
         <v>4000000</v>
@@ -8542,7 +8542,7 @@
         <v>5</v>
       </c>
       <c r="G263" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H263" s="6">
         <v>2600000</v>
@@ -8571,7 +8571,7 @@
         <v>5</v>
       </c>
       <c r="G264" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H264" s="6">
         <v>1900000</v>
@@ -8600,7 +8600,7 @@
         <v>5</v>
       </c>
       <c r="G265" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H265" s="6">
         <v>1300000</v>
@@ -8629,7 +8629,7 @@
         <v>5</v>
       </c>
       <c r="G266" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H266" s="6">
         <v>950000</v>
@@ -8658,7 +8658,7 @@
         <v>5</v>
       </c>
       <c r="G267" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H267" s="6">
         <v>670000</v>
@@ -8687,7 +8687,7 @@
         <v>5</v>
       </c>
       <c r="G268" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H268" s="6">
         <v>550000</v>
@@ -8716,7 +8716,7 @@
         <v>5</v>
       </c>
       <c r="G269" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H269" s="6">
         <v>450000</v>
@@ -8745,7 +8745,7 @@
         <v>5</v>
       </c>
       <c r="G270" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H270" s="6">
         <v>350000</v>
@@ -8774,7 +8774,7 @@
         <v>5</v>
       </c>
       <c r="G271" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H271" s="6">
         <v>350000</v>
@@ -8803,7 +8803,7 @@
         <v>5</v>
       </c>
       <c r="G272" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H272" s="6">
         <v>300000</v>
@@ -8832,7 +8832,7 @@
         <v>5</v>
       </c>
       <c r="G273" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H273" s="6">
         <v>300000</v>
@@ -8861,7 +8861,7 @@
         <v>5</v>
       </c>
       <c r="G274" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H274" s="6">
         <v>300000</v>
@@ -8890,7 +8890,7 @@
         <v>5</v>
       </c>
       <c r="G275" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H275" s="6">
         <v>240000</v>
@@ -8919,7 +8919,7 @@
         <v>5</v>
       </c>
       <c r="G276" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H276" s="6">
         <v>240000</v>
@@ -8948,7 +8948,7 @@
         <v>5</v>
       </c>
       <c r="G277" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H277" s="6">
         <v>240000</v>
@@ -8977,7 +8977,7 @@
         <v>5</v>
       </c>
       <c r="G278" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H278" s="6">
         <v>200000</v>
@@ -9006,7 +9006,7 @@
         <v>5</v>
       </c>
       <c r="G279" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H279" s="6">
         <v>200000</v>
@@ -9035,7 +9035,7 @@
         <v>5</v>
       </c>
       <c r="G280" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H280" s="6">
         <v>200000</v>
@@ -9064,7 +9064,7 @@
         <v>5</v>
       </c>
       <c r="G281" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H281" s="6">
         <v>200000</v>
@@ -9093,7 +9093,7 @@
         <v>5</v>
       </c>
       <c r="G282" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H282" s="6">
         <v>200000</v>
@@ -9122,7 +9122,7 @@
         <v>5</v>
       </c>
       <c r="G283" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H283" s="6">
         <v>200000</v>
@@ -9151,7 +9151,7 @@
         <v>5</v>
       </c>
       <c r="G284" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H284" s="6">
         <v>160000</v>
@@ -9180,7 +9180,7 @@
         <v>5</v>
       </c>
       <c r="G285" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H285" s="6">
         <v>160000</v>
@@ -9209,7 +9209,7 @@
         <v>5</v>
       </c>
       <c r="G286" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H286" s="6">
         <v>160000</v>
@@ -9238,7 +9238,7 @@
         <v>5</v>
       </c>
       <c r="G287" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H287" s="6">
         <v>160000</v>
@@ -9267,7 +9267,7 @@
         <v>5</v>
       </c>
       <c r="G288" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H288" s="6">
         <v>160000</v>
@@ -9296,7 +9296,7 @@
         <v>5</v>
       </c>
       <c r="G289" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H289" s="6">
         <v>160000</v>
@@ -9325,7 +9325,7 @@
         <v>5</v>
       </c>
       <c r="G290" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H290" s="6">
         <v>160000</v>
@@ -9354,7 +9354,7 @@
         <v>5</v>
       </c>
       <c r="G291" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H291" s="6">
         <v>160000</v>
@@ -9383,7 +9383,7 @@
         <v>5</v>
       </c>
       <c r="G292" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H292" s="6">
         <v>160000</v>
@@ -9412,7 +9412,7 @@
         <v>5</v>
       </c>
       <c r="G293" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H293" s="6">
         <v>160000</v>
@@ -9441,7 +9441,7 @@
         <v>5</v>
       </c>
       <c r="G294" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H294" s="6">
         <v>160000</v>
@@ -9470,7 +9470,7 @@
         <v>5</v>
       </c>
       <c r="G295" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H295" s="6">
         <v>160000</v>
@@ -9499,7 +9499,7 @@
         <v>5</v>
       </c>
       <c r="G296" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H296" s="6">
         <v>130000</v>
@@ -9528,7 +9528,7 @@
         <v>5</v>
       </c>
       <c r="G297" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H297" s="6">
         <v>130000</v>
@@ -9557,7 +9557,7 @@
         <v>5</v>
       </c>
       <c r="G298" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H298" s="6">
         <v>130000</v>
@@ -9586,7 +9586,7 @@
         <v>5</v>
       </c>
       <c r="G299" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H299" s="6">
         <v>130000</v>
@@ -9615,7 +9615,7 @@
         <v>5</v>
       </c>
       <c r="G300" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H300" s="6">
         <v>130000</v>
@@ -9644,7 +9644,7 @@
         <v>5</v>
       </c>
       <c r="G301" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H301" s="6">
         <v>130000</v>
@@ -9673,7 +9673,7 @@
         <v>5</v>
       </c>
       <c r="G302" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H302" s="6">
         <v>130000</v>
@@ -9702,7 +9702,7 @@
         <v>5</v>
       </c>
       <c r="G303" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H303" s="6">
         <v>130000</v>
@@ -9731,7 +9731,7 @@
         <v>5</v>
       </c>
       <c r="G304" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H304" s="6">
         <v>130000</v>
@@ -9760,7 +9760,7 @@
         <v>5</v>
       </c>
       <c r="G305" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H305" s="6">
         <v>130000</v>
@@ -9789,7 +9789,7 @@
         <v>5</v>
       </c>
       <c r="G306" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H306" s="6">
         <v>130000</v>
@@ -9818,7 +9818,7 @@
         <v>5</v>
       </c>
       <c r="G307" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H307" s="6">
         <v>130000</v>
@@ -9847,7 +9847,7 @@
         <v>5</v>
       </c>
       <c r="G308" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H308" s="6">
         <v>130000</v>
@@ -9876,7 +9876,7 @@
         <v>5</v>
       </c>
       <c r="G309" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H309" s="6">
         <v>130000</v>
@@ -9905,7 +9905,7 @@
         <v>5</v>
       </c>
       <c r="G310" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H310" s="6">
         <v>18000000</v>
@@ -9934,7 +9934,7 @@
         <v>5</v>
       </c>
       <c r="G311" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H311" s="6">
         <v>12000000</v>
@@ -9963,7 +9963,7 @@
         <v>5</v>
       </c>
       <c r="G312" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H312" s="6">
         <v>8800000</v>
@@ -9992,7 +9992,7 @@
         <v>5</v>
       </c>
       <c r="G313" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H313" s="6">
         <v>6000000</v>
@@ -10021,7 +10021,7 @@
         <v>5</v>
       </c>
       <c r="G314" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H314" s="6">
         <v>4300000</v>
@@ -10050,7 +10050,7 @@
         <v>5</v>
       </c>
       <c r="G315" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H315" s="6">
         <v>3000000</v>
@@ -10079,7 +10079,7 @@
         <v>5</v>
       </c>
       <c r="G316" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H316" s="6">
         <v>2500000</v>
@@ -10108,7 +10108,7 @@
         <v>5</v>
       </c>
       <c r="G317" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H317" s="6">
         <v>2000000</v>
@@ -10137,7 +10137,7 @@
         <v>5</v>
       </c>
       <c r="G318" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H318" s="6">
         <v>2000000</v>
@@ -10166,7 +10166,7 @@
         <v>5</v>
       </c>
       <c r="G319" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H319" s="6">
         <v>1600000</v>
@@ -10195,7 +10195,7 @@
         <v>5</v>
       </c>
       <c r="G320" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H320" s="6">
         <v>1600000</v>
@@ -10224,7 +10224,7 @@
         <v>5</v>
       </c>
       <c r="G321" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H321" s="6">
         <v>1300000</v>
@@ -10253,7 +10253,7 @@
         <v>5</v>
       </c>
       <c r="G322" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H322" s="6">
         <v>1300000</v>
@@ -10282,7 +10282,7 @@
         <v>5</v>
       </c>
       <c r="G323" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H323" s="6">
         <v>1300000</v>
@@ -10311,7 +10311,7 @@
         <v>5</v>
       </c>
       <c r="G324" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H324" s="6">
         <v>1000000</v>
@@ -10340,7 +10340,7 @@
         <v>5</v>
       </c>
       <c r="G325" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H325" s="6">
         <v>1000000</v>
@@ -10369,7 +10369,7 @@
         <v>5</v>
       </c>
       <c r="G326" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H326" s="6">
         <v>1000000</v>
@@ -10398,7 +10398,7 @@
         <v>5</v>
       </c>
       <c r="G327" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H327" s="6">
         <v>880000</v>
@@ -10427,7 +10427,7 @@
         <v>5</v>
       </c>
       <c r="G328" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H328" s="6">
         <v>880000</v>
@@ -10456,7 +10456,7 @@
         <v>5</v>
       </c>
       <c r="G329" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H329" s="6">
         <v>880000</v>
@@ -10485,7 +10485,7 @@
         <v>5</v>
       </c>
       <c r="G330" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H330" s="6">
         <v>880000</v>
@@ -10514,7 +10514,7 @@
         <v>5</v>
       </c>
       <c r="G331" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H331" s="6">
         <v>880000</v>
@@ -10543,7 +10543,7 @@
         <v>5</v>
       </c>
       <c r="G332" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H332" s="6">
         <v>880000</v>
@@ -10572,7 +10572,7 @@
         <v>5</v>
       </c>
       <c r="G333" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H333" s="6">
         <v>720000</v>
@@ -10601,7 +10601,7 @@
         <v>5</v>
       </c>
       <c r="G334" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H334" s="6">
         <v>720000</v>
@@ -10630,7 +10630,7 @@
         <v>5</v>
       </c>
       <c r="G335" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H335" s="6">
         <v>720000</v>
@@ -10659,7 +10659,7 @@
         <v>5</v>
       </c>
       <c r="G336" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H336" s="6">
         <v>720000</v>
@@ -10688,7 +10688,7 @@
         <v>5</v>
       </c>
       <c r="G337" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H337" s="6">
         <v>720000</v>
@@ -10717,7 +10717,7 @@
         <v>5</v>
       </c>
       <c r="G338" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H338" s="6">
         <v>720000</v>
@@ -10746,7 +10746,7 @@
         <v>5</v>
       </c>
       <c r="G339" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H339" s="6">
         <v>720000</v>
@@ -10775,7 +10775,7 @@
         <v>5</v>
       </c>
       <c r="G340" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H340" s="6">
         <v>720000</v>
@@ -10804,7 +10804,7 @@
         <v>5</v>
       </c>
       <c r="G341" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H341" s="6">
         <v>720000</v>
@@ -10833,7 +10833,7 @@
         <v>5</v>
       </c>
       <c r="G342" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H342" s="6">
         <v>720000</v>
@@ -10862,7 +10862,7 @@
         <v>5</v>
       </c>
       <c r="G343" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H343" s="6">
         <v>720000</v>
@@ -10891,7 +10891,7 @@
         <v>5</v>
       </c>
       <c r="G344" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H344" s="6">
         <v>720000</v>
@@ -10920,7 +10920,7 @@
         <v>5</v>
       </c>
       <c r="G345" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H345" s="6">
         <v>580000</v>
@@ -10949,7 +10949,7 @@
         <v>5</v>
       </c>
       <c r="G346" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H346" s="6">
         <v>580000</v>
@@ -10978,7 +10978,7 @@
         <v>5</v>
       </c>
       <c r="G347" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H347" s="6">
         <v>580000</v>
@@ -11007,7 +11007,7 @@
         <v>5</v>
       </c>
       <c r="G348" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H348" s="6">
         <v>580000</v>
@@ -11036,7 +11036,7 @@
         <v>5</v>
       </c>
       <c r="G349" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H349" s="6">
         <v>580000</v>
@@ -11065,7 +11065,7 @@
         <v>5</v>
       </c>
       <c r="G350" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H350" s="6">
         <v>580000</v>
@@ -11094,7 +11094,7 @@
         <v>5</v>
       </c>
       <c r="G351" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H351" s="6">
         <v>580000</v>
@@ -11123,7 +11123,7 @@
         <v>5</v>
       </c>
       <c r="G352" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H352" s="6">
         <v>580000</v>
@@ -11152,7 +11152,7 @@
         <v>5</v>
       </c>
       <c r="G353" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H353" s="6">
         <v>580000</v>
@@ -11181,7 +11181,7 @@
         <v>5</v>
       </c>
       <c r="G354" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H354" s="6">
         <v>580000</v>
@@ -11210,7 +11210,7 @@
         <v>5</v>
       </c>
       <c r="G355" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H355" s="6">
         <v>580000</v>
@@ -11239,7 +11239,7 @@
         <v>5</v>
       </c>
       <c r="G356" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H356" s="6">
         <v>580000</v>
@@ -11268,7 +11268,7 @@
         <v>5</v>
       </c>
       <c r="G357" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H357" s="6">
         <v>480000</v>
@@ -11297,7 +11297,7 @@
         <v>5</v>
       </c>
       <c r="G358" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H358" s="6">
         <v>480000</v>
@@ -11326,7 +11326,7 @@
         <v>5</v>
       </c>
       <c r="G359" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H359" s="6">
         <v>480000</v>
@@ -11355,7 +11355,7 @@
         <v>5</v>
       </c>
       <c r="G360" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H360" s="6">
         <v>480000</v>
@@ -11384,7 +11384,7 @@
         <v>5</v>
       </c>
       <c r="G361" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H361" s="6">
         <v>480000</v>
@@ -11413,7 +11413,7 @@
         <v>5</v>
       </c>
       <c r="G362" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H362" s="6">
         <v>480000</v>
@@ -11442,7 +11442,7 @@
         <v>5</v>
       </c>
       <c r="G363" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H363" s="6">
         <v>480000</v>
@@ -11471,7 +11471,7 @@
         <v>5</v>
       </c>
       <c r="G364" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H364" s="6">
         <v>480000</v>
@@ -11500,7 +11500,7 @@
         <v>5</v>
       </c>
       <c r="G365" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H365" s="6">
         <v>480000</v>
@@ -11529,7 +11529,7 @@
         <v>5</v>
       </c>
       <c r="G366" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H366" s="6">
         <v>480000</v>
@@ -11558,7 +11558,7 @@
         <v>5</v>
       </c>
       <c r="G367" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H367" s="6">
         <v>480000</v>
@@ -11587,7 +11587,7 @@
         <v>5</v>
       </c>
       <c r="G368" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H368" s="6">
         <v>480000</v>
@@ -11616,7 +11616,7 @@
         <v>5</v>
       </c>
       <c r="G369" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H369" s="6">
         <v>480000</v>
@@ -11645,7 +11645,7 @@
         <v>5</v>
       </c>
       <c r="G370" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H370" s="6">
         <v>480000</v>
@@ -11674,7 +11674,7 @@
         <v>5</v>
       </c>
       <c r="G371" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H371" s="6">
         <v>480000</v>
@@ -11703,7 +11703,7 @@
         <v>5</v>
       </c>
       <c r="G372" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H372" s="6">
         <v>480000</v>
@@ -11732,7 +11732,7 @@
         <v>5</v>
       </c>
       <c r="G373" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H373" s="6">
         <v>480000</v>
@@ -11761,7 +11761,7 @@
         <v>5</v>
       </c>
       <c r="G374" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H374" s="6">
         <v>480000</v>
@@ -11821,7 +11821,7 @@
         <v>5</v>
       </c>
       <c r="G376" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H376" s="6">
         <v>70000</v>
@@ -11850,7 +11850,7 @@
         <v>5</v>
       </c>
       <c r="G377" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H377" s="6">
         <v>50000</v>
@@ -11879,7 +11879,7 @@
         <v>5</v>
       </c>
       <c r="G378" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H378" s="6">
         <v>30000</v>
@@ -11908,7 +11908,7 @@
         <v>5</v>
       </c>
       <c r="G379" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H379" s="6">
         <v>20000</v>
@@ -11937,7 +11937,7 @@
         <v>5</v>
       </c>
       <c r="G380" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H380" s="6">
         <v>17000</v>
@@ -11966,7 +11966,7 @@
         <v>5</v>
       </c>
       <c r="G381" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H381" s="6">
         <v>15000</v>
@@ -11995,7 +11995,7 @@
         <v>5</v>
       </c>
       <c r="G382" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H382" s="6">
         <v>15000</v>
@@ -12024,7 +12024,7 @@
         <v>5</v>
       </c>
       <c r="G383" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H383" s="6">
         <v>15000</v>
@@ -12053,7 +12053,7 @@
         <v>5</v>
       </c>
       <c r="G384" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H384" s="6">
         <v>13000</v>
@@ -12082,7 +12082,7 @@
         <v>5</v>
       </c>
       <c r="G385" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H385" s="6">
         <v>13000</v>
@@ -12111,7 +12111,7 @@
         <v>5</v>
       </c>
       <c r="G386" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H386" s="6">
         <v>13000</v>
@@ -12140,7 +12140,7 @@
         <v>5</v>
       </c>
       <c r="G387" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H387" s="6">
         <v>10000</v>
@@ -12169,7 +12169,7 @@
         <v>5</v>
       </c>
       <c r="G388" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H388" s="6">
         <v>10000</v>
@@ -12198,7 +12198,7 @@
         <v>5</v>
       </c>
       <c r="G389" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H389" s="6">
         <v>10000</v>
@@ -12227,7 +12227,7 @@
         <v>5</v>
       </c>
       <c r="G390" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H390" s="6">
         <v>10000</v>
@@ -12256,7 +12256,7 @@
         <v>5</v>
       </c>
       <c r="G391" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H391" s="6">
         <v>10000</v>
@@ -12285,7 +12285,7 @@
         <v>5</v>
       </c>
       <c r="G392" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H392" s="6">
         <v>10000</v>
@@ -12314,7 +12314,7 @@
         <v>5</v>
       </c>
       <c r="G393" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H393" s="6">
         <v>8000</v>
@@ -12343,7 +12343,7 @@
         <v>5</v>
       </c>
       <c r="G394" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H394" s="6">
         <v>8000</v>
@@ -12372,7 +12372,7 @@
         <v>5</v>
       </c>
       <c r="G395" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H395" s="6">
         <v>8000</v>
@@ -12401,7 +12401,7 @@
         <v>5</v>
       </c>
       <c r="G396" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H396" s="6">
         <v>8000</v>
@@ -12430,7 +12430,7 @@
         <v>5</v>
       </c>
       <c r="G397" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H397" s="6">
         <v>8000</v>
@@ -12459,7 +12459,7 @@
         <v>5</v>
       </c>
       <c r="G398" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H398" s="6">
         <v>8000</v>
@@ -12488,7 +12488,7 @@
         <v>5</v>
       </c>
       <c r="G399" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H399" s="6">
         <v>6000</v>
@@ -12517,7 +12517,7 @@
         <v>5</v>
       </c>
       <c r="G400" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H400" s="6">
         <v>6000</v>
@@ -12546,7 +12546,7 @@
         <v>5</v>
       </c>
       <c r="G401" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H401" s="6">
         <v>6000</v>
@@ -12575,7 +12575,7 @@
         <v>5</v>
       </c>
       <c r="G402" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H402" s="6">
         <v>6000</v>
@@ -12604,7 +12604,7 @@
         <v>5</v>
       </c>
       <c r="G403" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H403" s="6">
         <v>6000</v>
@@ -12633,7 +12633,7 @@
         <v>5</v>
       </c>
       <c r="G404" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H404" s="6">
         <v>6000</v>
@@ -12662,7 +12662,7 @@
         <v>5</v>
       </c>
       <c r="G405" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H405" s="6">
         <v>4000</v>
@@ -12691,7 +12691,7 @@
         <v>5</v>
       </c>
       <c r="G406" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H406" s="6">
         <v>4000</v>
@@ -12720,7 +12720,7 @@
         <v>5</v>
       </c>
       <c r="G407" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H407" s="6">
         <v>4000</v>
@@ -12749,7 +12749,7 @@
         <v>5</v>
       </c>
       <c r="G408" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H408" s="6">
         <v>4000</v>
@@ -12778,7 +12778,7 @@
         <v>5</v>
       </c>
       <c r="G409" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H409" s="6">
         <v>4000</v>
@@ -12807,7 +12807,7 @@
         <v>5</v>
       </c>
       <c r="G410" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H410" s="6">
         <v>4000</v>
@@ -12836,7 +12836,7 @@
         <v>5</v>
       </c>
       <c r="G411" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H411" s="6">
         <v>4000</v>
@@ -12865,7 +12865,7 @@
         <v>5</v>
       </c>
       <c r="G412" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H412" s="6">
         <v>4000</v>
@@ -12894,7 +12894,7 @@
         <v>5</v>
       </c>
       <c r="G413" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H413" s="6">
         <v>4000</v>
@@ -12923,7 +12923,7 @@
         <v>5</v>
       </c>
       <c r="G414" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H414" s="6">
         <v>4000</v>
@@ -12952,7 +12952,7 @@
         <v>5</v>
       </c>
       <c r="G415" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H415" s="6">
         <v>4000</v>
@@ -12981,7 +12981,7 @@
         <v>5</v>
       </c>
       <c r="G416" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H416" s="6">
         <v>4000</v>
@@ -13010,7 +13010,7 @@
         <v>5</v>
       </c>
       <c r="G417" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H417" s="6">
         <v>4000</v>
@@ -13039,7 +13039,7 @@
         <v>5</v>
       </c>
       <c r="G418" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H418" s="6">
         <v>4000</v>
@@ -13068,7 +13068,7 @@
         <v>5</v>
       </c>
       <c r="G419" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H419" s="6">
         <v>4000</v>
@@ -13097,7 +13097,7 @@
         <v>5</v>
       </c>
       <c r="G420" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H420" s="6">
         <v>4000</v>
@@ -13126,7 +13126,7 @@
         <v>5</v>
       </c>
       <c r="G421" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H421" s="6">
         <v>4000</v>
@@ -13155,7 +13155,7 @@
         <v>5</v>
       </c>
       <c r="G422" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H422" s="6">
         <v>4000</v>
@@ -13246,7 +13246,7 @@
         <v>5</v>
       </c>
       <c r="G425" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H425" s="6">
         <v>180000</v>
@@ -13275,7 +13275,7 @@
         <v>5</v>
       </c>
       <c r="G426" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H426" s="6">
         <v>140000</v>
@@ -13304,7 +13304,7 @@
         <v>5</v>
       </c>
       <c r="G427" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H427" s="6">
         <v>100000</v>
@@ -13333,7 +13333,7 @@
         <v>5</v>
       </c>
       <c r="G428" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H428" s="6">
         <v>70000</v>
@@ -13362,7 +13362,7 @@
         <v>5</v>
       </c>
       <c r="G429" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H429" s="6">
         <v>58000</v>
@@ -13391,7 +13391,7 @@
         <v>5</v>
       </c>
       <c r="G430" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H430" s="6">
         <v>48000</v>
@@ -13420,7 +13420,7 @@
         <v>5</v>
       </c>
       <c r="G431" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H431" s="6">
         <v>48000</v>
@@ -13449,7 +13449,7 @@
         <v>5</v>
       </c>
       <c r="G432" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H432" s="6">
         <v>38000</v>
@@ -13478,7 +13478,7 @@
         <v>5</v>
       </c>
       <c r="G433" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H433" s="6">
         <v>38000</v>
@@ -13507,7 +13507,7 @@
         <v>5</v>
       </c>
       <c r="G434" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H434" s="6">
         <v>31000</v>
@@ -13536,7 +13536,7 @@
         <v>5</v>
       </c>
       <c r="G435" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H435" s="6">
         <v>31000</v>
@@ -13565,7 +13565,7 @@
         <v>5</v>
       </c>
       <c r="G436" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H436" s="6">
         <v>31000</v>
@@ -13594,7 +13594,7 @@
         <v>5</v>
       </c>
       <c r="G437" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H437" s="6">
         <v>25000</v>
@@ -13623,7 +13623,7 @@
         <v>5</v>
       </c>
       <c r="G438" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H438" s="6">
         <v>25000</v>
@@ -13652,7 +13652,7 @@
         <v>5</v>
       </c>
       <c r="G439" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H439" s="6">
         <v>25000</v>
@@ -13681,7 +13681,7 @@
         <v>5</v>
       </c>
       <c r="G440" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H440" s="6">
         <v>21000</v>
@@ -13710,7 +13710,7 @@
         <v>5</v>
       </c>
       <c r="G441" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H441" s="6">
         <v>21000</v>
@@ -13739,7 +13739,7 @@
         <v>5</v>
       </c>
       <c r="G442" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H442" s="6">
         <v>21000</v>
@@ -13768,7 +13768,7 @@
         <v>5</v>
       </c>
       <c r="G443" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H443" s="6">
         <v>21000</v>
@@ -13797,7 +13797,7 @@
         <v>5</v>
       </c>
       <c r="G444" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H444" s="6">
         <v>21000</v>
@@ -13826,7 +13826,7 @@
         <v>5</v>
       </c>
       <c r="G445" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H445" s="6">
         <v>21000</v>
@@ -13855,7 +13855,7 @@
         <v>5</v>
       </c>
       <c r="G446" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H446" s="6">
         <v>18000</v>
@@ -13884,7 +13884,7 @@
         <v>5</v>
       </c>
       <c r="G447" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H447" s="6">
         <v>18000</v>
@@ -13913,7 +13913,7 @@
         <v>5</v>
       </c>
       <c r="G448" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H448" s="6">
         <v>18000</v>
@@ -13942,7 +13942,7 @@
         <v>5</v>
       </c>
       <c r="G449" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H449" s="6">
         <v>18000</v>
@@ -13971,7 +13971,7 @@
         <v>5</v>
       </c>
       <c r="G450" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H450" s="6">
         <v>18000</v>
@@ -14000,7 +14000,7 @@
         <v>5</v>
       </c>
       <c r="G451" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H451" s="6">
         <v>18000</v>
@@ -14029,7 +14029,7 @@
         <v>5</v>
       </c>
       <c r="G452" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H452" s="6">
         <v>18000</v>
@@ -14058,7 +14058,7 @@
         <v>5</v>
       </c>
       <c r="G453" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H453" s="6">
         <v>18000</v>
@@ -14087,7 +14087,7 @@
         <v>5</v>
       </c>
       <c r="G454" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H454" s="6">
         <v>18000</v>
@@ -14116,7 +14116,7 @@
         <v>5</v>
       </c>
       <c r="G455" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H455" s="6">
         <v>18000</v>
@@ -14145,7 +14145,7 @@
         <v>5</v>
       </c>
       <c r="G456" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H456" s="6">
         <v>18000</v>
@@ -14174,7 +14174,7 @@
         <v>5</v>
       </c>
       <c r="G457" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H457" s="6">
         <v>18000</v>
@@ -14203,7 +14203,7 @@
         <v>5</v>
       </c>
       <c r="G458" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H458" s="6">
         <v>15000</v>
@@ -14232,7 +14232,7 @@
         <v>5</v>
       </c>
       <c r="G459" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H459" s="6">
         <v>15000</v>
@@ -14261,7 +14261,7 @@
         <v>5</v>
       </c>
       <c r="G460" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H460" s="6">
         <v>15000</v>
@@ -14290,7 +14290,7 @@
         <v>5</v>
       </c>
       <c r="G461" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H461" s="6">
         <v>15000</v>
@@ -14319,7 +14319,7 @@
         <v>5</v>
       </c>
       <c r="G462" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H462" s="6">
         <v>15000</v>
@@ -14348,7 +14348,7 @@
         <v>5</v>
       </c>
       <c r="G463" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H463" s="6">
         <v>15000</v>
@@ -14377,7 +14377,7 @@
         <v>5</v>
       </c>
       <c r="G464" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H464" s="6">
         <v>15000</v>
@@ -14406,7 +14406,7 @@
         <v>5</v>
       </c>
       <c r="G465" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H465" s="6">
         <v>15000</v>
@@ -14435,7 +14435,7 @@
         <v>5</v>
       </c>
       <c r="G466" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H466" s="6">
         <v>15000</v>
@@ -14464,7 +14464,7 @@
         <v>5</v>
       </c>
       <c r="G467" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H467" s="6">
         <v>15000</v>
@@ -14493,7 +14493,7 @@
         <v>5</v>
       </c>
       <c r="G468" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H468" s="6">
         <v>15000</v>
@@ -14522,7 +14522,7 @@
         <v>5</v>
       </c>
       <c r="G469" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H469" s="6">
         <v>15000</v>
@@ -14551,7 +14551,7 @@
         <v>5</v>
       </c>
       <c r="G470" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H470" s="6">
         <v>15000</v>
@@ -14673,7 +14673,7 @@
         <v>5</v>
       </c>
       <c r="G474" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H474" s="6">
         <v>200000</v>
@@ -14702,7 +14702,7 @@
         <v>5</v>
       </c>
       <c r="G475" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H475" s="6">
         <v>150000</v>
@@ -14731,7 +14731,7 @@
         <v>5</v>
       </c>
       <c r="G476" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H476" s="6">
         <v>100000</v>
@@ -14760,7 +14760,7 @@
         <v>5</v>
       </c>
       <c r="G477" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H477" s="6">
         <v>80000</v>
@@ -14789,7 +14789,7 @@
         <v>5</v>
       </c>
       <c r="G478" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H478" s="6">
         <v>80000</v>
@@ -14818,7 +14818,7 @@
         <v>5</v>
       </c>
       <c r="G479" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H479" s="6">
         <v>80000</v>
@@ -14847,7 +14847,7 @@
         <v>5</v>
       </c>
       <c r="G480" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H480" s="6">
         <v>70000</v>
@@ -14876,7 +14876,7 @@
         <v>5</v>
       </c>
       <c r="G481" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H481" s="6">
         <v>70000</v>
@@ -14905,7 +14905,7 @@
         <v>5</v>
       </c>
       <c r="G482" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H482" s="6">
         <v>70000</v>
@@ -14934,7 +14934,7 @@
         <v>5</v>
       </c>
       <c r="G483" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H483" s="6">
         <v>70000</v>
@@ -14963,7 +14963,7 @@
         <v>5</v>
       </c>
       <c r="G484" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H484" s="6">
         <v>70000</v>
@@ -14992,7 +14992,7 @@
         <v>5</v>
       </c>
       <c r="G485" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H485" s="6">
         <v>70000</v>
@@ -15021,7 +15021,7 @@
         <v>5</v>
       </c>
       <c r="G486" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H486" s="6">
         <v>65000</v>
@@ -15050,7 +15050,7 @@
         <v>5</v>
       </c>
       <c r="G487" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H487" s="6">
         <v>65000</v>
@@ -15079,7 +15079,7 @@
         <v>5</v>
       </c>
       <c r="G488" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H488" s="6">
         <v>65000</v>
@@ -15108,7 +15108,7 @@
         <v>5</v>
       </c>
       <c r="G489" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H489" s="6">
         <v>65000</v>
@@ -15137,7 +15137,7 @@
         <v>5</v>
       </c>
       <c r="G490" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H490" s="6">
         <v>65000</v>
@@ -15166,7 +15166,7 @@
         <v>5</v>
       </c>
       <c r="G491" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H491" s="6">
         <v>65000</v>
@@ -15195,7 +15195,7 @@
         <v>5</v>
       </c>
       <c r="G492" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H492" s="6">
         <v>65000</v>
@@ -15224,7 +15224,7 @@
         <v>5</v>
       </c>
       <c r="G493" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H493" s="6">
         <v>65000</v>
@@ -15253,7 +15253,7 @@
         <v>5</v>
       </c>
       <c r="G494" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H494" s="6">
         <v>65000</v>
@@ -15282,7 +15282,7 @@
         <v>5</v>
       </c>
       <c r="G495" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H495" s="6">
         <v>60000</v>
@@ -15311,7 +15311,7 @@
         <v>5</v>
       </c>
       <c r="G496" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H496" s="6">
         <v>60000</v>
@@ -15340,7 +15340,7 @@
         <v>5</v>
       </c>
       <c r="G497" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H497" s="6">
         <v>60000</v>
@@ -15369,7 +15369,7 @@
         <v>5</v>
       </c>
       <c r="G498" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H498" s="6">
         <v>60000</v>
@@ -15398,7 +15398,7 @@
         <v>5</v>
       </c>
       <c r="G499" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H499" s="6">
         <v>60000</v>
@@ -15427,7 +15427,7 @@
         <v>5</v>
       </c>
       <c r="G500" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H500" s="6">
         <v>60000</v>
@@ -15456,7 +15456,7 @@
         <v>5</v>
       </c>
       <c r="G501" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H501" s="6">
         <v>60000</v>
@@ -15485,7 +15485,7 @@
         <v>5</v>
       </c>
       <c r="G502" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H502" s="6">
         <v>60000</v>
@@ -15514,7 +15514,7 @@
         <v>5</v>
       </c>
       <c r="G503" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H503" s="6">
         <v>60000</v>
@@ -15543,7 +15543,7 @@
         <v>5</v>
       </c>
       <c r="G504" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H504" s="6">
         <v>60000</v>
@@ -15572,7 +15572,7 @@
         <v>5</v>
       </c>
       <c r="G505" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H505" s="6">
         <v>60000</v>
@@ -15601,7 +15601,7 @@
         <v>5</v>
       </c>
       <c r="G506" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H506" s="6">
         <v>60000</v>
@@ -15630,7 +15630,7 @@
         <v>5</v>
       </c>
       <c r="G507" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H507" s="6">
         <v>6000</v>
@@ -15659,7 +15659,7 @@
         <v>5</v>
       </c>
       <c r="G508" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H508" s="6">
         <v>12000</v>
@@ -15688,7 +15688,7 @@
         <v>5</v>
       </c>
       <c r="G509" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H509" s="6">
         <v>60000</v>
@@ -15717,7 +15717,7 @@
         <v>5</v>
       </c>
       <c r="G510" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H510" s="6">
         <v>4000</v>
@@ -15746,7 +15746,7 @@
         <v>5</v>
       </c>
       <c r="G511" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H511" s="6">
         <v>2000</v>
@@ -15775,7 +15775,7 @@
         <v>5</v>
       </c>
       <c r="G512" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H512" s="6">
         <v>8000</v>
@@ -15804,7 +15804,7 @@
         <v>5</v>
       </c>
       <c r="G513" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H513" s="6">
         <v>4000</v>
@@ -15833,7 +15833,7 @@
         <v>5</v>
       </c>
       <c r="G514" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H514" s="6">
         <v>20000</v>
@@ -15862,7 +15862,7 @@
         <v>5</v>
       </c>
       <c r="G515" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H515" s="6">
         <v>10000</v>
@@ -15891,7 +15891,7 @@
         <v>5</v>
       </c>
       <c r="G516" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H516" s="6">
         <v>40000</v>
@@ -15920,7 +15920,7 @@
         <v>5</v>
       </c>
       <c r="G517" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H517" s="6">
         <v>20000</v>
@@ -15949,7 +15949,7 @@
         <v>5</v>
       </c>
       <c r="G518" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H518" s="6">
         <v>80000</v>
@@ -15978,7 +15978,7 @@
         <v>5</v>
       </c>
       <c r="G519" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H519" s="6">
         <v>40000</v>
@@ -16007,7 +16007,7 @@
         <v>5</v>
       </c>
       <c r="G520" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H520" s="6">
         <v>200000</v>
@@ -16036,7 +16036,7 @@
         <v>5</v>
       </c>
       <c r="G521" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H521" s="6">
         <v>100000</v>
@@ -16065,7 +16065,7 @@
         <v>5</v>
       </c>
       <c r="G522" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H522" s="6">
         <v>400000</v>
@@ -16094,7 +16094,7 @@
         <v>5</v>
       </c>
       <c r="G523" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H523" s="6">
         <v>200000</v>
@@ -16123,7 +16123,7 @@
         <v>5</v>
       </c>
       <c r="G524" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H524" s="6">
         <v>100000</v>
@@ -16152,7 +16152,7 @@
         <v>5</v>
       </c>
       <c r="G525" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H525" s="6">
         <v>200000</v>
@@ -16181,7 +16181,7 @@
         <v>5</v>
       </c>
       <c r="G526" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H526" s="6">
         <v>400000</v>
@@ -16210,7 +16210,7 @@
         <v>5</v>
       </c>
       <c r="G527" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H527" s="6">
         <v>1000000</v>
@@ -16270,7 +16270,7 @@
         <v>5</v>
       </c>
       <c r="G529" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H529" s="6">
         <v>200000000</v>
@@ -16444,7 +16444,7 @@
         <v>5</v>
       </c>
       <c r="G535" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H535" s="6">
         <v>100000000</v>
@@ -16560,7 +16560,7 @@
         <v>5</v>
       </c>
       <c r="G539" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H539" s="6">
         <v>20000000</v>
@@ -16676,7 +16676,7 @@
         <v>5</v>
       </c>
       <c r="G543" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H543" s="6">
         <v>10000000</v>
@@ -16850,7 +16850,7 @@
         <v>5</v>
       </c>
       <c r="G549" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H549" s="6">
         <v>900000</v>
@@ -16966,7 +16966,7 @@
         <v>5</v>
       </c>
       <c r="G553" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H553" s="6">
         <v>200000</v>
@@ -17053,7 +17053,7 @@
         <v>5</v>
       </c>
       <c r="G556" s="6">
-        <v>60003</v>
+        <v>1</v>
       </c>
       <c r="H556" s="6">
         <v>4000</v>

--- a/docs/excel/TAward.xlsx
+++ b/docs/excel/TAward.xlsx
@@ -748,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O562"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A532" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I550" sqref="I550"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1080,7 +1080,9 @@
       <c r="C11" s="8">
         <v>3</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="8">
+        <v>2</v>
+      </c>
       <c r="E11" s="8">
         <v>99</v>
       </c>
@@ -1113,7 +1115,9 @@
       <c r="C12" s="8">
         <v>3</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="8">
+        <v>2</v>
+      </c>
       <c r="E12" s="8">
         <v>499</v>
       </c>
@@ -1146,7 +1150,9 @@
       <c r="C13" s="8">
         <v>3</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="8">
+        <v>2</v>
+      </c>
       <c r="E13" s="8">
         <v>999</v>
       </c>
@@ -1179,7 +1185,9 @@
       <c r="C14" s="8">
         <v>3</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="8">
+        <v>2</v>
+      </c>
       <c r="E14" s="8">
         <v>1</v>
       </c>
@@ -1214,7 +1222,9 @@
       <c r="C15" s="8">
         <v>3</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="8">
+        <v>2</v>
+      </c>
       <c r="E15" s="8">
         <v>18</v>
       </c>
@@ -1536,7 +1546,9 @@
       <c r="C25" s="8">
         <v>3</v>
       </c>
-      <c r="D25" s="8"/>
+      <c r="D25" s="8">
+        <v>2</v>
+      </c>
       <c r="E25" s="8">
         <v>500</v>
       </c>
@@ -1569,7 +1581,9 @@
       <c r="C26" s="8">
         <v>3</v>
       </c>
-      <c r="D26" s="8"/>
+      <c r="D26" s="8">
+        <v>2</v>
+      </c>
       <c r="E26" s="8">
         <v>200</v>
       </c>
@@ -1602,7 +1616,9 @@
       <c r="C27" s="8">
         <v>3</v>
       </c>
-      <c r="D27" s="8"/>
+      <c r="D27" s="8">
+        <v>2</v>
+      </c>
       <c r="E27" s="8">
         <v>100</v>
       </c>
@@ -1635,7 +1651,9 @@
       <c r="C28" s="8">
         <v>3</v>
       </c>
-      <c r="D28" s="8"/>
+      <c r="D28" s="8">
+        <v>2</v>
+      </c>
       <c r="E28" s="8">
         <v>30</v>
       </c>
@@ -1668,7 +1686,9 @@
       <c r="C29" s="8">
         <v>3</v>
       </c>
-      <c r="D29" s="8"/>
+      <c r="D29" s="8">
+        <v>2</v>
+      </c>
       <c r="E29" s="8">
         <v>10</v>
       </c>
@@ -1701,7 +1721,9 @@
       <c r="C30" s="8">
         <v>3</v>
       </c>
-      <c r="D30" s="8"/>
+      <c r="D30" s="8">
+        <v>2</v>
+      </c>
       <c r="E30" s="8">
         <v>1</v>
       </c>
@@ -1734,7 +1756,9 @@
       <c r="C31" s="8">
         <v>3</v>
       </c>
-      <c r="D31" s="8"/>
+      <c r="D31" s="8">
+        <v>2</v>
+      </c>
       <c r="E31" s="8">
         <v>18</v>
       </c>
@@ -1767,7 +1791,9 @@
       <c r="C32" s="8">
         <v>3</v>
       </c>
-      <c r="D32" s="8"/>
+      <c r="D32" s="8">
+        <v>2</v>
+      </c>
       <c r="E32" s="8">
         <v>99</v>
       </c>
@@ -1800,7 +1826,9 @@
       <c r="C33" s="8">
         <v>3</v>
       </c>
-      <c r="D33" s="8"/>
+      <c r="D33" s="8">
+        <v>2</v>
+      </c>
       <c r="E33" s="8">
         <v>499</v>
       </c>
@@ -1833,7 +1861,9 @@
       <c r="C34" s="8">
         <v>3</v>
       </c>
-      <c r="D34" s="8"/>
+      <c r="D34" s="8">
+        <v>2</v>
+      </c>
       <c r="E34" s="8">
         <v>999</v>
       </c>

--- a/docs/excel/TAward.xlsx
+++ b/docs/excel/TAward.xlsx
@@ -293,10 +293,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PreId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LogId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -326,6 +322,10 @@
   </si>
   <si>
     <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PreId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -748,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O562"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -776,7 +776,7 @@
         <v>63</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>64</v>
@@ -797,19 +797,19 @@
         <v>22</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>23</v>
@@ -826,22 +826,22 @@
         <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>17</v>
@@ -850,10 +850,10 @@
         <v>17</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>17</v>
@@ -871,22 +871,22 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -2302,9 +2302,11 @@
         <v>0</v>
       </c>
       <c r="C47" s="8">
-        <v>10</v>
-      </c>
-      <c r="D47" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="D47" s="8">
+        <v>2</v>
+      </c>
       <c r="E47" s="8">
         <v>2500</v>
       </c>
@@ -2329,9 +2331,11 @@
         <v>0</v>
       </c>
       <c r="C48" s="8">
-        <v>10</v>
-      </c>
-      <c r="D48" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="D48" s="8">
+        <v>2</v>
+      </c>
       <c r="E48" s="8">
         <v>9800</v>
       </c>

--- a/docs/excel/TAward.xlsx
+++ b/docs/excel/TAward.xlsx
@@ -748,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O562"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1929,9 +1929,11 @@
         <v>0</v>
       </c>
       <c r="C36" s="8">
-        <v>10</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="D36" s="8">
+        <v>2</v>
+      </c>
       <c r="E36" s="8">
         <v>1800</v>
       </c>
@@ -1964,9 +1966,11 @@
         <v>0</v>
       </c>
       <c r="C37" s="8">
-        <v>10</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="D37" s="8">
+        <v>2</v>
+      </c>
       <c r="E37" s="8">
         <v>6800</v>
       </c>
@@ -1999,9 +2003,11 @@
         <v>0</v>
       </c>
       <c r="C38" s="8">
-        <v>10</v>
-      </c>
-      <c r="D38" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="D38" s="8">
+        <v>2</v>
+      </c>
       <c r="E38" s="8">
         <v>12800</v>
       </c>
@@ -2034,9 +2040,11 @@
         <v>0</v>
       </c>
       <c r="C39" s="8">
-        <v>10</v>
-      </c>
-      <c r="D39" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="D39" s="8">
+        <v>2</v>
+      </c>
       <c r="E39" s="8">
         <v>32800</v>
       </c>
@@ -2069,9 +2077,11 @@
         <v>0</v>
       </c>
       <c r="C40" s="8">
-        <v>10</v>
-      </c>
-      <c r="D40" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="D40" s="8">
+        <v>2</v>
+      </c>
       <c r="E40" s="8">
         <v>64800</v>
       </c>

--- a/docs/excel/TAward.xlsx
+++ b/docs/excel/TAward.xlsx
@@ -748,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O562"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M48" sqref="M48"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1894,9 +1894,11 @@
         <v>0</v>
       </c>
       <c r="C35" s="8">
-        <v>10</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="D35" s="8">
+        <v>2</v>
+      </c>
       <c r="E35" s="8">
         <v>600</v>
       </c>

--- a/docs/excel/TAward.xlsx
+++ b/docs/excel/TAward.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -161,6 +161,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -293,10 +294,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LogId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -325,7 +322,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>奖品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖品类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用次数限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能通过兑换协议直接兑换</t>
+  </si>
+  <si>
+    <r>
+      <t>邮件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>id</t>
+    </r>
+  </si>
+  <si>
     <t>PreId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗道具类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>消耗道具</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗道具数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励道具类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励道具id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励道具数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破产补助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级场直通车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级场直通车</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -333,7 +438,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -348,6 +453,12 @@
       <sz val="12"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -381,7 +492,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -406,6 +517,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -746,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O562"/>
+  <dimension ref="A1:O565"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A504" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H528" sqref="H528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -776,7 +891,7 @@
         <v>63</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>64</v>
@@ -797,19 +912,19 @@
         <v>22</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>23</v>
@@ -826,22 +941,22 @@
         <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>17</v>
@@ -850,10 +965,10 @@
         <v>17</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>17</v>
@@ -871,28 +986,64 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="A4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="5" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
@@ -16273,57 +16424,67 @@
     </row>
     <row r="528" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A528" s="8">
-        <v>60001</v>
+        <v>4000</v>
       </c>
       <c r="B528" s="8">
         <v>4</v>
       </c>
-      <c r="C528" s="8"/>
+      <c r="C528" s="8">
+        <v>10</v>
+      </c>
       <c r="D528" s="8"/>
-      <c r="E528" s="8"/>
-      <c r="F528" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G528" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H528" s="7" t="s">
-        <v>30</v>
+      <c r="E528" s="8">
+        <v>600</v>
+      </c>
+      <c r="F528" s="8">
+        <v>5</v>
+      </c>
+      <c r="G528" s="8">
+        <v>1</v>
+      </c>
+      <c r="H528" s="8">
+        <v>100000</v>
       </c>
       <c r="I528" s="6"/>
       <c r="J528" s="6"/>
-      <c r="K528" s="6"/>
+      <c r="K528" s="13" t="s">
+        <v>89</v>
+      </c>
       <c r="L528" s="6"/>
       <c r="M528" s="6"/>
       <c r="N528" s="6">
         <v>1</v>
       </c>
-      <c r="O528" s="6">
-        <v>124</v>
-      </c>
+      <c r="O528" s="6"/>
     </row>
     <row r="529" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A529" s="8">
-        <v>60002</v>
+        <v>4001</v>
       </c>
       <c r="B529" s="8">
         <v>4</v>
       </c>
-      <c r="C529" s="8"/>
+      <c r="C529" s="8">
+        <v>10</v>
+      </c>
       <c r="D529" s="8"/>
-      <c r="E529" s="8"/>
+      <c r="E529" s="8">
+        <v>3500</v>
+      </c>
       <c r="F529" s="8">
         <v>5</v>
       </c>
-      <c r="G529" s="6">
-        <v>1</v>
-      </c>
-      <c r="H529" s="6">
-        <v>200000000</v>
+      <c r="G529" s="8">
+        <v>1</v>
+      </c>
+      <c r="H529" s="8">
+        <v>500000</v>
       </c>
       <c r="I529" s="6"/>
       <c r="J529" s="6"/>
-      <c r="K529" s="6"/>
+      <c r="K529" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="L529" s="6"/>
       <c r="M529" s="6"/>
       <c r="N529" s="6">
@@ -16333,26 +16494,32 @@
     </row>
     <row r="530" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A530" s="8">
-        <v>60003</v>
+        <v>4002</v>
       </c>
       <c r="B530" s="8">
         <v>4</v>
       </c>
-      <c r="C530" s="8"/>
+      <c r="C530" s="8">
+        <v>10</v>
+      </c>
       <c r="D530" s="8"/>
-      <c r="E530" s="8"/>
+      <c r="E530" s="8">
+        <v>6800</v>
+      </c>
       <c r="F530" s="8">
         <v>5</v>
       </c>
-      <c r="G530" s="6">
-        <v>202</v>
-      </c>
-      <c r="H530" s="6">
-        <v>1</v>
+      <c r="G530" s="8">
+        <v>1</v>
+      </c>
+      <c r="H530" s="8">
+        <v>1000000</v>
       </c>
       <c r="I530" s="6"/>
       <c r="J530" s="6"/>
-      <c r="K530" s="6"/>
+      <c r="K530" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="L530" s="6"/>
       <c r="M530" s="6"/>
       <c r="N530" s="6">
@@ -16362,7 +16529,7 @@
     </row>
     <row r="531" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A531" s="8">
-        <v>60004</v>
+        <v>60001</v>
       </c>
       <c r="B531" s="8">
         <v>4</v>
@@ -16370,14 +16537,14 @@
       <c r="C531" s="8"/>
       <c r="D531" s="8"/>
       <c r="E531" s="8"/>
-      <c r="F531" s="8">
-        <v>5</v>
-      </c>
-      <c r="G531" s="6">
-        <v>213</v>
-      </c>
-      <c r="H531" s="6">
-        <v>1</v>
+      <c r="F531" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G531" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H531" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="I531" s="6"/>
       <c r="J531" s="6"/>
@@ -16387,11 +16554,13 @@
       <c r="N531" s="6">
         <v>1</v>
       </c>
-      <c r="O531" s="6"/>
+      <c r="O531" s="6">
+        <v>124</v>
+      </c>
     </row>
     <row r="532" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A532" s="8">
-        <v>60005</v>
+        <v>60002</v>
       </c>
       <c r="B532" s="8">
         <v>4</v>
@@ -16403,10 +16572,10 @@
         <v>5</v>
       </c>
       <c r="G532" s="6">
-        <v>214</v>
+        <v>1</v>
       </c>
       <c r="H532" s="6">
-        <v>1</v>
+        <v>200000000</v>
       </c>
       <c r="I532" s="6"/>
       <c r="J532" s="6"/>
@@ -16420,7 +16589,7 @@
     </row>
     <row r="533" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A533" s="8">
-        <v>60006</v>
+        <v>60003</v>
       </c>
       <c r="B533" s="8">
         <v>4</v>
@@ -16432,7 +16601,7 @@
         <v>5</v>
       </c>
       <c r="G533" s="6">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H533" s="6">
         <v>1</v>
@@ -16449,7 +16618,7 @@
     </row>
     <row r="534" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A534" s="8">
-        <v>60007</v>
+        <v>60004</v>
       </c>
       <c r="B534" s="8">
         <v>4</v>
@@ -16461,7 +16630,7 @@
         <v>5</v>
       </c>
       <c r="G534" s="6">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="H534" s="6">
         <v>1</v>
@@ -16478,7 +16647,7 @@
     </row>
     <row r="535" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A535" s="8">
-        <v>60008</v>
+        <v>60005</v>
       </c>
       <c r="B535" s="8">
         <v>4</v>
@@ -16490,10 +16659,10 @@
         <v>5</v>
       </c>
       <c r="G535" s="6">
-        <v>1</v>
+        <v>214</v>
       </c>
       <c r="H535" s="6">
-        <v>100000000</v>
+        <v>1</v>
       </c>
       <c r="I535" s="6"/>
       <c r="J535" s="6"/>
@@ -16507,7 +16676,7 @@
     </row>
     <row r="536" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A536" s="8">
-        <v>60009</v>
+        <v>60006</v>
       </c>
       <c r="B536" s="8">
         <v>4</v>
@@ -16519,7 +16688,7 @@
         <v>5</v>
       </c>
       <c r="G536" s="6">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="H536" s="6">
         <v>1</v>
@@ -16536,7 +16705,7 @@
     </row>
     <row r="537" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A537" s="8">
-        <v>60010</v>
+        <v>60007</v>
       </c>
       <c r="B537" s="8">
         <v>4</v>
@@ -16548,7 +16717,7 @@
         <v>5</v>
       </c>
       <c r="G537" s="6">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="H537" s="6">
         <v>1</v>
@@ -16565,7 +16734,7 @@
     </row>
     <row r="538" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A538" s="8">
-        <v>60011</v>
+        <v>60008</v>
       </c>
       <c r="B538" s="8">
         <v>4</v>
@@ -16577,10 +16746,10 @@
         <v>5</v>
       </c>
       <c r="G538" s="6">
-        <v>211</v>
+        <v>1</v>
       </c>
       <c r="H538" s="6">
-        <v>1</v>
+        <v>100000000</v>
       </c>
       <c r="I538" s="6"/>
       <c r="J538" s="6"/>
@@ -16594,7 +16763,7 @@
     </row>
     <row r="539" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A539" s="8">
-        <v>60012</v>
+        <v>60009</v>
       </c>
       <c r="B539" s="8">
         <v>4</v>
@@ -16606,10 +16775,10 @@
         <v>5</v>
       </c>
       <c r="G539" s="6">
-        <v>1</v>
+        <v>212</v>
       </c>
       <c r="H539" s="6">
-        <v>20000000</v>
+        <v>1</v>
       </c>
       <c r="I539" s="6"/>
       <c r="J539" s="6"/>
@@ -16623,7 +16792,7 @@
     </row>
     <row r="540" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A540" s="8">
-        <v>60013</v>
+        <v>60010</v>
       </c>
       <c r="B540" s="8">
         <v>4</v>
@@ -16635,7 +16804,7 @@
         <v>5</v>
       </c>
       <c r="G540" s="6">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="H540" s="6">
         <v>1</v>
@@ -16652,7 +16821,7 @@
     </row>
     <row r="541" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A541" s="8">
-        <v>60014</v>
+        <v>60011</v>
       </c>
       <c r="B541" s="8">
         <v>4</v>
@@ -16664,7 +16833,7 @@
         <v>5</v>
       </c>
       <c r="G541" s="6">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="H541" s="6">
         <v>1</v>
@@ -16681,7 +16850,7 @@
     </row>
     <row r="542" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A542" s="8">
-        <v>60015</v>
+        <v>60012</v>
       </c>
       <c r="B542" s="8">
         <v>4</v>
@@ -16693,10 +16862,10 @@
         <v>5</v>
       </c>
       <c r="G542" s="6">
-        <v>216</v>
+        <v>1</v>
       </c>
       <c r="H542" s="6">
-        <v>1</v>
+        <v>20000000</v>
       </c>
       <c r="I542" s="6"/>
       <c r="J542" s="6"/>
@@ -16710,7 +16879,7 @@
     </row>
     <row r="543" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A543" s="8">
-        <v>60016</v>
+        <v>60013</v>
       </c>
       <c r="B543" s="8">
         <v>4</v>
@@ -16722,10 +16891,10 @@
         <v>5</v>
       </c>
       <c r="G543" s="6">
-        <v>1</v>
+        <v>204</v>
       </c>
       <c r="H543" s="6">
-        <v>10000000</v>
+        <v>1</v>
       </c>
       <c r="I543" s="6"/>
       <c r="J543" s="6"/>
@@ -16739,7 +16908,7 @@
     </row>
     <row r="544" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A544" s="8">
-        <v>60017</v>
+        <v>60014</v>
       </c>
       <c r="B544" s="8">
         <v>4</v>
@@ -16751,7 +16920,7 @@
         <v>5</v>
       </c>
       <c r="G544" s="6">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H544" s="6">
         <v>1</v>
@@ -16768,7 +16937,7 @@
     </row>
     <row r="545" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A545" s="8">
-        <v>60018</v>
+        <v>60015</v>
       </c>
       <c r="B545" s="8">
         <v>4</v>
@@ -16780,7 +16949,7 @@
         <v>5</v>
       </c>
       <c r="G545" s="6">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="H545" s="6">
         <v>1</v>
@@ -16797,7 +16966,7 @@
     </row>
     <row r="546" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A546" s="8">
-        <v>60019</v>
+        <v>60016</v>
       </c>
       <c r="B546" s="8">
         <v>4</v>
@@ -16809,10 +16978,10 @@
         <v>5</v>
       </c>
       <c r="G546" s="6">
-        <v>208</v>
+        <v>1</v>
       </c>
       <c r="H546" s="6">
-        <v>1</v>
+        <v>10000000</v>
       </c>
       <c r="I546" s="6"/>
       <c r="J546" s="6"/>
@@ -16826,7 +16995,7 @@
     </row>
     <row r="547" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A547" s="8">
-        <v>60020</v>
+        <v>60017</v>
       </c>
       <c r="B547" s="8">
         <v>4</v>
@@ -16838,7 +17007,7 @@
         <v>5</v>
       </c>
       <c r="G547" s="6">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H547" s="6">
         <v>1</v>
@@ -16855,7 +17024,7 @@
     </row>
     <row r="548" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A548" s="8">
-        <v>60021</v>
+        <v>60018</v>
       </c>
       <c r="B548" s="8">
         <v>4</v>
@@ -16867,7 +17036,7 @@
         <v>5</v>
       </c>
       <c r="G548" s="6">
-        <v>304</v>
+        <v>207</v>
       </c>
       <c r="H548" s="6">
         <v>1</v>
@@ -16884,7 +17053,7 @@
     </row>
     <row r="549" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A549" s="8">
-        <v>60022</v>
+        <v>60019</v>
       </c>
       <c r="B549" s="8">
         <v>4</v>
@@ -16896,10 +17065,10 @@
         <v>5</v>
       </c>
       <c r="G549" s="6">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="H549" s="6">
-        <v>900000</v>
+        <v>1</v>
       </c>
       <c r="I549" s="6"/>
       <c r="J549" s="6"/>
@@ -16913,7 +17082,7 @@
     </row>
     <row r="550" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A550" s="8">
-        <v>60023</v>
+        <v>60020</v>
       </c>
       <c r="B550" s="8">
         <v>4</v>
@@ -16925,7 +17094,7 @@
         <v>5</v>
       </c>
       <c r="G550" s="6">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="H550" s="6">
         <v>1</v>
@@ -16942,7 +17111,7 @@
     </row>
     <row r="551" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A551" s="8">
-        <v>60024</v>
+        <v>60021</v>
       </c>
       <c r="B551" s="8">
         <v>4</v>
@@ -16954,7 +17123,7 @@
         <v>5</v>
       </c>
       <c r="G551" s="6">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H551" s="6">
         <v>1</v>
@@ -16971,7 +17140,7 @@
     </row>
     <row r="552" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A552" s="8">
-        <v>60025</v>
+        <v>60022</v>
       </c>
       <c r="B552" s="8">
         <v>4</v>
@@ -16983,10 +17152,10 @@
         <v>5</v>
       </c>
       <c r="G552" s="6">
-        <v>217</v>
+        <v>1</v>
       </c>
       <c r="H552" s="6">
-        <v>1</v>
+        <v>900000</v>
       </c>
       <c r="I552" s="6"/>
       <c r="J552" s="6"/>
@@ -17000,7 +17169,7 @@
     </row>
     <row r="553" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A553" s="8">
-        <v>60026</v>
+        <v>60023</v>
       </c>
       <c r="B553" s="8">
         <v>4</v>
@@ -17012,10 +17181,10 @@
         <v>5</v>
       </c>
       <c r="G553" s="6">
-        <v>1</v>
+        <v>218</v>
       </c>
       <c r="H553" s="6">
-        <v>200000</v>
+        <v>1</v>
       </c>
       <c r="I553" s="6"/>
       <c r="J553" s="6"/>
@@ -17029,7 +17198,7 @@
     </row>
     <row r="554" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A554" s="8">
-        <v>60027</v>
+        <v>60024</v>
       </c>
       <c r="B554" s="8">
         <v>4</v>
@@ -17041,7 +17210,7 @@
         <v>5</v>
       </c>
       <c r="G554" s="6">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H554" s="6">
         <v>1</v>
@@ -17058,7 +17227,7 @@
     </row>
     <row r="555" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A555" s="8">
-        <v>60028</v>
+        <v>60025</v>
       </c>
       <c r="B555" s="8">
         <v>4</v>
@@ -17070,7 +17239,7 @@
         <v>5</v>
       </c>
       <c r="G555" s="6">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="H555" s="6">
         <v>1</v>
@@ -17087,7 +17256,7 @@
     </row>
     <row r="556" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A556" s="8">
-        <v>61001</v>
+        <v>60026</v>
       </c>
       <c r="B556" s="8">
         <v>4</v>
@@ -17102,15 +17271,13 @@
         <v>1</v>
       </c>
       <c r="H556" s="6">
-        <v>4000</v>
+        <v>200000</v>
       </c>
       <c r="I556" s="6"/>
       <c r="J556" s="6"/>
       <c r="K556" s="6"/>
       <c r="L556" s="6"/>
-      <c r="M556" s="6">
-        <v>4</v>
-      </c>
+      <c r="M556" s="6"/>
       <c r="N556" s="6">
         <v>1</v>
       </c>
@@ -17118,7 +17285,7 @@
     </row>
     <row r="557" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A557" s="8">
-        <v>62001</v>
+        <v>60027</v>
       </c>
       <c r="B557" s="8">
         <v>4</v>
@@ -17130,10 +17297,10 @@
         <v>5</v>
       </c>
       <c r="G557" s="6">
-        <v>402</v>
+        <v>301</v>
       </c>
       <c r="H557" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I557" s="6"/>
       <c r="J557" s="6"/>
@@ -17147,7 +17314,7 @@
     </row>
     <row r="558" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A558" s="8">
-        <v>62002</v>
+        <v>60028</v>
       </c>
       <c r="B558" s="8">
         <v>4</v>
@@ -17159,10 +17326,10 @@
         <v>5</v>
       </c>
       <c r="G558" s="6">
-        <v>402</v>
+        <v>209</v>
       </c>
       <c r="H558" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I558" s="6"/>
       <c r="J558" s="6"/>
@@ -17176,7 +17343,7 @@
     </row>
     <row r="559" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A559" s="8">
-        <v>62003</v>
+        <v>61001</v>
       </c>
       <c r="B559" s="8">
         <v>4</v>
@@ -17188,16 +17355,18 @@
         <v>5</v>
       </c>
       <c r="G559" s="6">
-        <v>402</v>
+        <v>1</v>
       </c>
       <c r="H559" s="6">
-        <v>10</v>
+        <v>4000</v>
       </c>
       <c r="I559" s="6"/>
       <c r="J559" s="6"/>
       <c r="K559" s="6"/>
       <c r="L559" s="6"/>
-      <c r="M559" s="6"/>
+      <c r="M559" s="6">
+        <v>4</v>
+      </c>
       <c r="N559" s="6">
         <v>1</v>
       </c>
@@ -17205,7 +17374,7 @@
     </row>
     <row r="560" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A560" s="8">
-        <v>62004</v>
+        <v>62001</v>
       </c>
       <c r="B560" s="8">
         <v>4</v>
@@ -17220,7 +17389,7 @@
         <v>402</v>
       </c>
       <c r="H560" s="6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I560" s="6"/>
       <c r="J560" s="6"/>
@@ -17234,7 +17403,7 @@
     </row>
     <row r="561" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A561" s="8">
-        <v>62005</v>
+        <v>62002</v>
       </c>
       <c r="B561" s="8">
         <v>4</v>
@@ -17249,7 +17418,7 @@
         <v>402</v>
       </c>
       <c r="H561" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I561" s="6"/>
       <c r="J561" s="6"/>
@@ -17263,7 +17432,7 @@
     </row>
     <row r="562" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A562" s="8">
-        <v>62006</v>
+        <v>62003</v>
       </c>
       <c r="B562" s="8">
         <v>4</v>
@@ -17278,7 +17447,7 @@
         <v>402</v>
       </c>
       <c r="H562" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I562" s="6"/>
       <c r="J562" s="6"/>
@@ -17289,6 +17458,93 @@
         <v>1</v>
       </c>
       <c r="O562" s="6"/>
+    </row>
+    <row r="563" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A563" s="8">
+        <v>62004</v>
+      </c>
+      <c r="B563" s="8">
+        <v>4</v>
+      </c>
+      <c r="C563" s="8"/>
+      <c r="D563" s="8"/>
+      <c r="E563" s="8"/>
+      <c r="F563" s="8">
+        <v>5</v>
+      </c>
+      <c r="G563" s="6">
+        <v>402</v>
+      </c>
+      <c r="H563" s="6">
+        <v>20</v>
+      </c>
+      <c r="I563" s="6"/>
+      <c r="J563" s="6"/>
+      <c r="K563" s="6"/>
+      <c r="L563" s="6"/>
+      <c r="M563" s="6"/>
+      <c r="N563" s="6">
+        <v>1</v>
+      </c>
+      <c r="O563" s="6"/>
+    </row>
+    <row r="564" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A564" s="8">
+        <v>62005</v>
+      </c>
+      <c r="B564" s="8">
+        <v>4</v>
+      </c>
+      <c r="C564" s="8"/>
+      <c r="D564" s="8"/>
+      <c r="E564" s="8"/>
+      <c r="F564" s="8">
+        <v>5</v>
+      </c>
+      <c r="G564" s="6">
+        <v>402</v>
+      </c>
+      <c r="H564" s="6">
+        <v>10</v>
+      </c>
+      <c r="I564" s="6"/>
+      <c r="J564" s="6"/>
+      <c r="K564" s="6"/>
+      <c r="L564" s="6"/>
+      <c r="M564" s="6"/>
+      <c r="N564" s="6">
+        <v>1</v>
+      </c>
+      <c r="O564" s="6"/>
+    </row>
+    <row r="565" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A565" s="8">
+        <v>62006</v>
+      </c>
+      <c r="B565" s="8">
+        <v>4</v>
+      </c>
+      <c r="C565" s="8"/>
+      <c r="D565" s="8"/>
+      <c r="E565" s="8"/>
+      <c r="F565" s="8">
+        <v>5</v>
+      </c>
+      <c r="G565" s="6">
+        <v>402</v>
+      </c>
+      <c r="H565" s="6">
+        <v>20</v>
+      </c>
+      <c r="I565" s="6"/>
+      <c r="J565" s="6"/>
+      <c r="K565" s="6"/>
+      <c r="L565" s="6"/>
+      <c r="M565" s="6"/>
+      <c r="N565" s="6">
+        <v>1</v>
+      </c>
+      <c r="O565" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/excel/TAward.xlsx
+++ b/docs/excel/TAward.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="96">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -431,6 +431,21 @@
   </si>
   <si>
     <t>高级场直通车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PayPushId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联推送Push 如果有值 必须推送过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -861,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O565"/>
+  <dimension ref="A1:P565"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A504" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H528" sqref="H528"/>
+    <sheetView tabSelected="1" topLeftCell="F518" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P536" sqref="P536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -886,7 +901,7 @@
     <col min="18" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>63</v>
       </c>
@@ -932,8 +947,11 @@
       <c r="O1" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -977,10 +995,13 @@
         <v>17</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1004,7 +1025,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>74</v>
       </c>
@@ -1044,8 +1065,11 @@
       <c r="O4" s="12" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P4" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -1076,7 +1100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -1107,7 +1131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -1138,7 +1162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -1167,7 +1191,7 @@
       </c>
       <c r="O8" s="6"/>
     </row>
-    <row r="9" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -1198,7 +1222,7 @@
       </c>
       <c r="O9" s="6"/>
     </row>
-    <row r="10" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>6</v>
       </c>
@@ -1221,7 +1245,7 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
     </row>
-    <row r="11" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>101</v>
       </c>
@@ -1256,7 +1280,7 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
     </row>
-    <row r="12" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>102</v>
       </c>
@@ -1291,7 +1315,7 @@
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
     </row>
-    <row r="13" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>103</v>
       </c>
@@ -1326,7 +1350,7 @@
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
     </row>
-    <row r="14" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>104</v>
       </c>
@@ -1363,7 +1387,7 @@
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>105</v>
       </c>
@@ -1400,7 +1424,7 @@
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
     </row>
-    <row r="16" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>201</v>
       </c>
@@ -15987,7 +16011,7 @@
       </c>
       <c r="O512" s="6"/>
     </row>
-    <row r="513" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A513" s="8">
         <v>3007</v>
       </c>
@@ -16016,7 +16040,7 @@
       </c>
       <c r="O513" s="6"/>
     </row>
-    <row r="514" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A514" s="8">
         <v>3008</v>
       </c>
@@ -16045,7 +16069,7 @@
       </c>
       <c r="O514" s="6"/>
     </row>
-    <row r="515" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A515" s="8">
         <v>3009</v>
       </c>
@@ -16074,7 +16098,7 @@
       </c>
       <c r="O515" s="6"/>
     </row>
-    <row r="516" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A516" s="8">
         <v>3010</v>
       </c>
@@ -16103,7 +16127,7 @@
       </c>
       <c r="O516" s="6"/>
     </row>
-    <row r="517" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A517" s="8">
         <v>3011</v>
       </c>
@@ -16132,7 +16156,7 @@
       </c>
       <c r="O517" s="6"/>
     </row>
-    <row r="518" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A518" s="8">
         <v>3012</v>
       </c>
@@ -16161,7 +16185,7 @@
       </c>
       <c r="O518" s="6"/>
     </row>
-    <row r="519" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A519" s="8">
         <v>3013</v>
       </c>
@@ -16190,7 +16214,7 @@
       </c>
       <c r="O519" s="6"/>
     </row>
-    <row r="520" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A520" s="8">
         <v>3014</v>
       </c>
@@ -16219,7 +16243,7 @@
       </c>
       <c r="O520" s="6"/>
     </row>
-    <row r="521" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A521" s="8">
         <v>3015</v>
       </c>
@@ -16248,7 +16272,7 @@
       </c>
       <c r="O521" s="6"/>
     </row>
-    <row r="522" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A522" s="8">
         <v>3016</v>
       </c>
@@ -16277,7 +16301,7 @@
       </c>
       <c r="O522" s="6"/>
     </row>
-    <row r="523" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A523" s="8">
         <v>3017</v>
       </c>
@@ -16306,7 +16330,7 @@
       </c>
       <c r="O523" s="6"/>
     </row>
-    <row r="524" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A524" s="8">
         <v>3018</v>
       </c>
@@ -16335,7 +16359,7 @@
       </c>
       <c r="O524" s="6"/>
     </row>
-    <row r="525" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A525" s="8">
         <v>3019</v>
       </c>
@@ -16364,7 +16388,7 @@
       </c>
       <c r="O525" s="6"/>
     </row>
-    <row r="526" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A526" s="8">
         <v>3020</v>
       </c>
@@ -16393,7 +16417,7 @@
       </c>
       <c r="O526" s="6"/>
     </row>
-    <row r="527" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A527" s="8">
         <v>3021</v>
       </c>
@@ -16422,7 +16446,7 @@
       </c>
       <c r="O527" s="6"/>
     </row>
-    <row r="528" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A528" s="8">
         <v>4000</v>
       </c>
@@ -16456,8 +16480,11 @@
         <v>1</v>
       </c>
       <c r="O528" s="6"/>
-    </row>
-    <row r="529" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P528" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A529" s="8">
         <v>4001</v>
       </c>
@@ -16491,8 +16518,11 @@
         <v>1</v>
       </c>
       <c r="O529" s="6"/>
-    </row>
-    <row r="530" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P529" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="530" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A530" s="8">
         <v>4002</v>
       </c>
@@ -16526,8 +16556,11 @@
         <v>1</v>
       </c>
       <c r="O530" s="6"/>
-    </row>
-    <row r="531" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P530" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="531" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A531" s="8">
         <v>60001</v>
       </c>
@@ -16558,7 +16591,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="532" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A532" s="8">
         <v>60002</v>
       </c>
@@ -16587,7 +16620,7 @@
       </c>
       <c r="O532" s="6"/>
     </row>
-    <row r="533" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A533" s="8">
         <v>60003</v>
       </c>
@@ -16616,7 +16649,7 @@
       </c>
       <c r="O533" s="6"/>
     </row>
-    <row r="534" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A534" s="8">
         <v>60004</v>
       </c>
@@ -16645,7 +16678,7 @@
       </c>
       <c r="O534" s="6"/>
     </row>
-    <row r="535" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A535" s="8">
         <v>60005</v>
       </c>
@@ -16674,7 +16707,7 @@
       </c>
       <c r="O535" s="6"/>
     </row>
-    <row r="536" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A536" s="8">
         <v>60006</v>
       </c>
@@ -16703,7 +16736,7 @@
       </c>
       <c r="O536" s="6"/>
     </row>
-    <row r="537" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A537" s="8">
         <v>60007</v>
       </c>
@@ -16732,7 +16765,7 @@
       </c>
       <c r="O537" s="6"/>
     </row>
-    <row r="538" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A538" s="8">
         <v>60008</v>
       </c>
@@ -16761,7 +16794,7 @@
       </c>
       <c r="O538" s="6"/>
     </row>
-    <row r="539" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A539" s="8">
         <v>60009</v>
       </c>
@@ -16790,7 +16823,7 @@
       </c>
       <c r="O539" s="6"/>
     </row>
-    <row r="540" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A540" s="8">
         <v>60010</v>
       </c>
@@ -16819,7 +16852,7 @@
       </c>
       <c r="O540" s="6"/>
     </row>
-    <row r="541" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A541" s="8">
         <v>60011</v>
       </c>
@@ -16848,7 +16881,7 @@
       </c>
       <c r="O541" s="6"/>
     </row>
-    <row r="542" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A542" s="8">
         <v>60012</v>
       </c>
@@ -16877,7 +16910,7 @@
       </c>
       <c r="O542" s="6"/>
     </row>
-    <row r="543" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A543" s="8">
         <v>60013</v>
       </c>
@@ -16906,7 +16939,7 @@
       </c>
       <c r="O543" s="6"/>
     </row>
-    <row r="544" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A544" s="8">
         <v>60014</v>
       </c>

--- a/docs/excel/TAward.xlsx
+++ b/docs/excel/TAward.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="97">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -448,6 +448,10 @@
     <t>关联推送Push 如果有值 必须推送过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>重返巅峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -876,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P565"/>
+  <dimension ref="A1:P566"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F518" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P536" sqref="P536"/>
+    <sheetView tabSelected="1" topLeftCell="A500" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F522" sqref="F522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16557,43 +16561,50 @@
       </c>
       <c r="O530" s="6"/>
       <c r="P530" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A531" s="8">
-        <v>60001</v>
+        <v>4003</v>
       </c>
       <c r="B531" s="8">
         <v>4</v>
       </c>
-      <c r="C531" s="8"/>
+      <c r="C531" s="8">
+        <v>10</v>
+      </c>
       <c r="D531" s="8"/>
-      <c r="E531" s="8"/>
-      <c r="F531" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G531" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H531" s="7" t="s">
-        <v>30</v>
+      <c r="E531" s="8">
+        <v>6800</v>
+      </c>
+      <c r="F531" s="8">
+        <v>5</v>
+      </c>
+      <c r="G531" s="8">
+        <v>1</v>
+      </c>
+      <c r="H531" s="8">
+        <v>1000000</v>
       </c>
       <c r="I531" s="6"/>
       <c r="J531" s="6"/>
-      <c r="K531" s="6"/>
+      <c r="K531" s="13" t="s">
+        <v>96</v>
+      </c>
       <c r="L531" s="6"/>
       <c r="M531" s="6"/>
       <c r="N531" s="6">
         <v>1</v>
       </c>
-      <c r="O531" s="6">
-        <v>124</v>
+      <c r="O531" s="6"/>
+      <c r="P531" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="532" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A532" s="8">
-        <v>60002</v>
+        <v>60001</v>
       </c>
       <c r="B532" s="8">
         <v>4</v>
@@ -16601,14 +16612,14 @@
       <c r="C532" s="8"/>
       <c r="D532" s="8"/>
       <c r="E532" s="8"/>
-      <c r="F532" s="8">
-        <v>5</v>
-      </c>
-      <c r="G532" s="6">
-        <v>1</v>
-      </c>
-      <c r="H532" s="6">
-        <v>200000000</v>
+      <c r="F532" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G532" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H532" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="I532" s="6"/>
       <c r="J532" s="6"/>
@@ -16618,11 +16629,13 @@
       <c r="N532" s="6">
         <v>1</v>
       </c>
-      <c r="O532" s="6"/>
+      <c r="O532" s="6">
+        <v>124</v>
+      </c>
     </row>
     <row r="533" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A533" s="8">
-        <v>60003</v>
+        <v>60002</v>
       </c>
       <c r="B533" s="8">
         <v>4</v>
@@ -16634,10 +16647,10 @@
         <v>5</v>
       </c>
       <c r="G533" s="6">
-        <v>202</v>
+        <v>1</v>
       </c>
       <c r="H533" s="6">
-        <v>1</v>
+        <v>200000000</v>
       </c>
       <c r="I533" s="6"/>
       <c r="J533" s="6"/>
@@ -16651,7 +16664,7 @@
     </row>
     <row r="534" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A534" s="8">
-        <v>60004</v>
+        <v>60003</v>
       </c>
       <c r="B534" s="8">
         <v>4</v>
@@ -16663,7 +16676,7 @@
         <v>5</v>
       </c>
       <c r="G534" s="6">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="H534" s="6">
         <v>1</v>
@@ -16680,7 +16693,7 @@
     </row>
     <row r="535" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A535" s="8">
-        <v>60005</v>
+        <v>60004</v>
       </c>
       <c r="B535" s="8">
         <v>4</v>
@@ -16692,7 +16705,7 @@
         <v>5</v>
       </c>
       <c r="G535" s="6">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H535" s="6">
         <v>1</v>
@@ -16709,7 +16722,7 @@
     </row>
     <row r="536" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A536" s="8">
-        <v>60006</v>
+        <v>60005</v>
       </c>
       <c r="B536" s="8">
         <v>4</v>
@@ -16721,7 +16734,7 @@
         <v>5</v>
       </c>
       <c r="G536" s="6">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="H536" s="6">
         <v>1</v>
@@ -16738,7 +16751,7 @@
     </row>
     <row r="537" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A537" s="8">
-        <v>60007</v>
+        <v>60006</v>
       </c>
       <c r="B537" s="8">
         <v>4</v>
@@ -16750,7 +16763,7 @@
         <v>5</v>
       </c>
       <c r="G537" s="6">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H537" s="6">
         <v>1</v>
@@ -16767,7 +16780,7 @@
     </row>
     <row r="538" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A538" s="8">
-        <v>60008</v>
+        <v>60007</v>
       </c>
       <c r="B538" s="8">
         <v>4</v>
@@ -16779,10 +16792,10 @@
         <v>5</v>
       </c>
       <c r="G538" s="6">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="H538" s="6">
-        <v>100000000</v>
+        <v>1</v>
       </c>
       <c r="I538" s="6"/>
       <c r="J538" s="6"/>
@@ -16796,7 +16809,7 @@
     </row>
     <row r="539" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A539" s="8">
-        <v>60009</v>
+        <v>60008</v>
       </c>
       <c r="B539" s="8">
         <v>4</v>
@@ -16808,10 +16821,10 @@
         <v>5</v>
       </c>
       <c r="G539" s="6">
-        <v>212</v>
+        <v>1</v>
       </c>
       <c r="H539" s="6">
-        <v>1</v>
+        <v>100000000</v>
       </c>
       <c r="I539" s="6"/>
       <c r="J539" s="6"/>
@@ -16825,7 +16838,7 @@
     </row>
     <row r="540" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A540" s="8">
-        <v>60010</v>
+        <v>60009</v>
       </c>
       <c r="B540" s="8">
         <v>4</v>
@@ -16837,7 +16850,7 @@
         <v>5</v>
       </c>
       <c r="G540" s="6">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H540" s="6">
         <v>1</v>
@@ -16854,7 +16867,7 @@
     </row>
     <row r="541" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A541" s="8">
-        <v>60011</v>
+        <v>60010</v>
       </c>
       <c r="B541" s="8">
         <v>4</v>
@@ -16866,7 +16879,7 @@
         <v>5</v>
       </c>
       <c r="G541" s="6">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H541" s="6">
         <v>1</v>
@@ -16883,7 +16896,7 @@
     </row>
     <row r="542" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A542" s="8">
-        <v>60012</v>
+        <v>60011</v>
       </c>
       <c r="B542" s="8">
         <v>4</v>
@@ -16895,10 +16908,10 @@
         <v>5</v>
       </c>
       <c r="G542" s="6">
-        <v>1</v>
+        <v>211</v>
       </c>
       <c r="H542" s="6">
-        <v>20000000</v>
+        <v>1</v>
       </c>
       <c r="I542" s="6"/>
       <c r="J542" s="6"/>
@@ -16912,7 +16925,7 @@
     </row>
     <row r="543" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A543" s="8">
-        <v>60013</v>
+        <v>60012</v>
       </c>
       <c r="B543" s="8">
         <v>4</v>
@@ -16924,10 +16937,10 @@
         <v>5</v>
       </c>
       <c r="G543" s="6">
-        <v>204</v>
+        <v>1</v>
       </c>
       <c r="H543" s="6">
-        <v>1</v>
+        <v>20000000</v>
       </c>
       <c r="I543" s="6"/>
       <c r="J543" s="6"/>
@@ -16941,7 +16954,7 @@
     </row>
     <row r="544" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A544" s="8">
-        <v>60014</v>
+        <v>60013</v>
       </c>
       <c r="B544" s="8">
         <v>4</v>
@@ -16953,7 +16966,7 @@
         <v>5</v>
       </c>
       <c r="G544" s="6">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H544" s="6">
         <v>1</v>
@@ -16970,7 +16983,7 @@
     </row>
     <row r="545" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A545" s="8">
-        <v>60015</v>
+        <v>60014</v>
       </c>
       <c r="B545" s="8">
         <v>4</v>
@@ -16982,7 +16995,7 @@
         <v>5</v>
       </c>
       <c r="G545" s="6">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="H545" s="6">
         <v>1</v>
@@ -16999,7 +17012,7 @@
     </row>
     <row r="546" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A546" s="8">
-        <v>60016</v>
+        <v>60015</v>
       </c>
       <c r="B546" s="8">
         <v>4</v>
@@ -17011,10 +17024,10 @@
         <v>5</v>
       </c>
       <c r="G546" s="6">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="H546" s="6">
-        <v>10000000</v>
+        <v>1</v>
       </c>
       <c r="I546" s="6"/>
       <c r="J546" s="6"/>
@@ -17028,7 +17041,7 @@
     </row>
     <row r="547" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A547" s="8">
-        <v>60017</v>
+        <v>60016</v>
       </c>
       <c r="B547" s="8">
         <v>4</v>
@@ -17040,10 +17053,10 @@
         <v>5</v>
       </c>
       <c r="G547" s="6">
-        <v>206</v>
+        <v>1</v>
       </c>
       <c r="H547" s="6">
-        <v>1</v>
+        <v>10000000</v>
       </c>
       <c r="I547" s="6"/>
       <c r="J547" s="6"/>
@@ -17057,7 +17070,7 @@
     </row>
     <row r="548" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A548" s="8">
-        <v>60018</v>
+        <v>60017</v>
       </c>
       <c r="B548" s="8">
         <v>4</v>
@@ -17069,7 +17082,7 @@
         <v>5</v>
       </c>
       <c r="G548" s="6">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H548" s="6">
         <v>1</v>
@@ -17086,7 +17099,7 @@
     </row>
     <row r="549" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A549" s="8">
-        <v>60019</v>
+        <v>60018</v>
       </c>
       <c r="B549" s="8">
         <v>4</v>
@@ -17098,7 +17111,7 @@
         <v>5</v>
       </c>
       <c r="G549" s="6">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H549" s="6">
         <v>1</v>
@@ -17115,7 +17128,7 @@
     </row>
     <row r="550" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A550" s="8">
-        <v>60020</v>
+        <v>60019</v>
       </c>
       <c r="B550" s="8">
         <v>4</v>
@@ -17127,7 +17140,7 @@
         <v>5</v>
       </c>
       <c r="G550" s="6">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H550" s="6">
         <v>1</v>
@@ -17144,7 +17157,7 @@
     </row>
     <row r="551" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A551" s="8">
-        <v>60021</v>
+        <v>60020</v>
       </c>
       <c r="B551" s="8">
         <v>4</v>
@@ -17156,7 +17169,7 @@
         <v>5</v>
       </c>
       <c r="G551" s="6">
-        <v>304</v>
+        <v>210</v>
       </c>
       <c r="H551" s="6">
         <v>1</v>
@@ -17173,7 +17186,7 @@
     </row>
     <row r="552" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A552" s="8">
-        <v>60022</v>
+        <v>60021</v>
       </c>
       <c r="B552" s="8">
         <v>4</v>
@@ -17185,10 +17198,10 @@
         <v>5</v>
       </c>
       <c r="G552" s="6">
-        <v>1</v>
+        <v>304</v>
       </c>
       <c r="H552" s="6">
-        <v>900000</v>
+        <v>1</v>
       </c>
       <c r="I552" s="6"/>
       <c r="J552" s="6"/>
@@ -17202,7 +17215,7 @@
     </row>
     <row r="553" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A553" s="8">
-        <v>60023</v>
+        <v>60022</v>
       </c>
       <c r="B553" s="8">
         <v>4</v>
@@ -17214,10 +17227,10 @@
         <v>5</v>
       </c>
       <c r="G553" s="6">
-        <v>218</v>
+        <v>1</v>
       </c>
       <c r="H553" s="6">
-        <v>1</v>
+        <v>900000</v>
       </c>
       <c r="I553" s="6"/>
       <c r="J553" s="6"/>
@@ -17231,7 +17244,7 @@
     </row>
     <row r="554" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A554" s="8">
-        <v>60024</v>
+        <v>60023</v>
       </c>
       <c r="B554" s="8">
         <v>4</v>
@@ -17243,7 +17256,7 @@
         <v>5</v>
       </c>
       <c r="G554" s="6">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="H554" s="6">
         <v>1</v>
@@ -17260,7 +17273,7 @@
     </row>
     <row r="555" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A555" s="8">
-        <v>60025</v>
+        <v>60024</v>
       </c>
       <c r="B555" s="8">
         <v>4</v>
@@ -17272,7 +17285,7 @@
         <v>5</v>
       </c>
       <c r="G555" s="6">
-        <v>217</v>
+        <v>303</v>
       </c>
       <c r="H555" s="6">
         <v>1</v>
@@ -17289,7 +17302,7 @@
     </row>
     <row r="556" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A556" s="8">
-        <v>60026</v>
+        <v>60025</v>
       </c>
       <c r="B556" s="8">
         <v>4</v>
@@ -17301,10 +17314,10 @@
         <v>5</v>
       </c>
       <c r="G556" s="6">
-        <v>1</v>
+        <v>217</v>
       </c>
       <c r="H556" s="6">
-        <v>200000</v>
+        <v>1</v>
       </c>
       <c r="I556" s="6"/>
       <c r="J556" s="6"/>
@@ -17318,7 +17331,7 @@
     </row>
     <row r="557" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A557" s="8">
-        <v>60027</v>
+        <v>60026</v>
       </c>
       <c r="B557" s="8">
         <v>4</v>
@@ -17330,10 +17343,10 @@
         <v>5</v>
       </c>
       <c r="G557" s="6">
-        <v>301</v>
+        <v>1</v>
       </c>
       <c r="H557" s="6">
-        <v>1</v>
+        <v>200000</v>
       </c>
       <c r="I557" s="6"/>
       <c r="J557" s="6"/>
@@ -17347,7 +17360,7 @@
     </row>
     <row r="558" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A558" s="8">
-        <v>60028</v>
+        <v>60027</v>
       </c>
       <c r="B558" s="8">
         <v>4</v>
@@ -17359,7 +17372,7 @@
         <v>5</v>
       </c>
       <c r="G558" s="6">
-        <v>209</v>
+        <v>301</v>
       </c>
       <c r="H558" s="6">
         <v>1</v>
@@ -17376,7 +17389,7 @@
     </row>
     <row r="559" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A559" s="8">
-        <v>61001</v>
+        <v>60028</v>
       </c>
       <c r="B559" s="8">
         <v>4</v>
@@ -17388,18 +17401,16 @@
         <v>5</v>
       </c>
       <c r="G559" s="6">
-        <v>1</v>
+        <v>209</v>
       </c>
       <c r="H559" s="6">
-        <v>4000</v>
+        <v>1</v>
       </c>
       <c r="I559" s="6"/>
       <c r="J559" s="6"/>
       <c r="K559" s="6"/>
       <c r="L559" s="6"/>
-      <c r="M559" s="6">
-        <v>4</v>
-      </c>
+      <c r="M559" s="6"/>
       <c r="N559" s="6">
         <v>1</v>
       </c>
@@ -17407,7 +17418,7 @@
     </row>
     <row r="560" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A560" s="8">
-        <v>62001</v>
+        <v>61001</v>
       </c>
       <c r="B560" s="8">
         <v>4</v>
@@ -17419,16 +17430,18 @@
         <v>5</v>
       </c>
       <c r="G560" s="6">
-        <v>402</v>
+        <v>1</v>
       </c>
       <c r="H560" s="6">
-        <v>5</v>
+        <v>4000</v>
       </c>
       <c r="I560" s="6"/>
       <c r="J560" s="6"/>
       <c r="K560" s="6"/>
       <c r="L560" s="6"/>
-      <c r="M560" s="6"/>
+      <c r="M560" s="6">
+        <v>4</v>
+      </c>
       <c r="N560" s="6">
         <v>1</v>
       </c>
@@ -17436,7 +17449,7 @@
     </row>
     <row r="561" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A561" s="8">
-        <v>62002</v>
+        <v>62001</v>
       </c>
       <c r="B561" s="8">
         <v>4</v>
@@ -17465,7 +17478,7 @@
     </row>
     <row r="562" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A562" s="8">
-        <v>62003</v>
+        <v>62002</v>
       </c>
       <c r="B562" s="8">
         <v>4</v>
@@ -17480,7 +17493,7 @@
         <v>402</v>
       </c>
       <c r="H562" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I562" s="6"/>
       <c r="J562" s="6"/>
@@ -17494,7 +17507,7 @@
     </row>
     <row r="563" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A563" s="8">
-        <v>62004</v>
+        <v>62003</v>
       </c>
       <c r="B563" s="8">
         <v>4</v>
@@ -17509,7 +17522,7 @@
         <v>402</v>
       </c>
       <c r="H563" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I563" s="6"/>
       <c r="J563" s="6"/>
@@ -17523,7 +17536,7 @@
     </row>
     <row r="564" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A564" s="8">
-        <v>62005</v>
+        <v>62004</v>
       </c>
       <c r="B564" s="8">
         <v>4</v>
@@ -17538,7 +17551,7 @@
         <v>402</v>
       </c>
       <c r="H564" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I564" s="6"/>
       <c r="J564" s="6"/>
@@ -17552,7 +17565,7 @@
     </row>
     <row r="565" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A565" s="8">
-        <v>62006</v>
+        <v>62005</v>
       </c>
       <c r="B565" s="8">
         <v>4</v>
@@ -17567,7 +17580,7 @@
         <v>402</v>
       </c>
       <c r="H565" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I565" s="6"/>
       <c r="J565" s="6"/>
@@ -17578,6 +17591,35 @@
         <v>1</v>
       </c>
       <c r="O565" s="6"/>
+    </row>
+    <row r="566" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A566" s="8">
+        <v>62006</v>
+      </c>
+      <c r="B566" s="8">
+        <v>4</v>
+      </c>
+      <c r="C566" s="8"/>
+      <c r="D566" s="8"/>
+      <c r="E566" s="8"/>
+      <c r="F566" s="8">
+        <v>5</v>
+      </c>
+      <c r="G566" s="6">
+        <v>402</v>
+      </c>
+      <c r="H566" s="6">
+        <v>20</v>
+      </c>
+      <c r="I566" s="6"/>
+      <c r="J566" s="6"/>
+      <c r="K566" s="6"/>
+      <c r="L566" s="6"/>
+      <c r="M566" s="6"/>
+      <c r="N566" s="6">
+        <v>1</v>
+      </c>
+      <c r="O566" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/excel/TAward.xlsx
+++ b/docs/excel/TAward.xlsx
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P566"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A500" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F522" sqref="F522"/>
+    <sheetView tabSelected="1" topLeftCell="A516" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H532" sqref="H532"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16458,7 +16458,7 @@
         <v>4</v>
       </c>
       <c r="C528" s="8">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D528" s="8"/>
       <c r="E528" s="8">
@@ -16496,7 +16496,7 @@
         <v>4</v>
       </c>
       <c r="C529" s="8">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D529" s="8"/>
       <c r="E529" s="8">
@@ -16534,7 +16534,7 @@
         <v>4</v>
       </c>
       <c r="C530" s="8">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D530" s="8"/>
       <c r="E530" s="8">
@@ -16572,7 +16572,7 @@
         <v>4</v>
       </c>
       <c r="C531" s="8">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D531" s="8"/>
       <c r="E531" s="8">

--- a/docs/excel/TAward.xlsx
+++ b/docs/excel/TAward.xlsx
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P566"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A500" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F522" sqref="F522"/>
+    <sheetView tabSelected="1" topLeftCell="A513" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N535" sqref="N535"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16458,11 +16458,13 @@
         <v>4</v>
       </c>
       <c r="C528" s="8">
-        <v>10</v>
-      </c>
-      <c r="D528" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="D528" s="8">
+        <v>2</v>
+      </c>
       <c r="E528" s="8">
-        <v>600</v>
+        <v>60</v>
       </c>
       <c r="F528" s="8">
         <v>5</v>
@@ -16480,9 +16482,7 @@
       </c>
       <c r="L528" s="6"/>
       <c r="M528" s="6"/>
-      <c r="N528" s="6">
-        <v>1</v>
-      </c>
+      <c r="N528" s="6"/>
       <c r="O528" s="6"/>
       <c r="P528" s="9">
         <v>1</v>
@@ -16496,11 +16496,13 @@
         <v>4</v>
       </c>
       <c r="C529" s="8">
-        <v>10</v>
-      </c>
-      <c r="D529" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="D529" s="8">
+        <v>2</v>
+      </c>
       <c r="E529" s="8">
-        <v>3500</v>
+        <v>350</v>
       </c>
       <c r="F529" s="8">
         <v>5</v>
@@ -16518,9 +16520,7 @@
       </c>
       <c r="L529" s="6"/>
       <c r="M529" s="6"/>
-      <c r="N529" s="6">
-        <v>1</v>
-      </c>
+      <c r="N529" s="6"/>
       <c r="O529" s="6"/>
       <c r="P529" s="9">
         <v>2</v>
@@ -16534,11 +16534,13 @@
         <v>4</v>
       </c>
       <c r="C530" s="8">
-        <v>10</v>
-      </c>
-      <c r="D530" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="D530" s="8">
+        <v>2</v>
+      </c>
       <c r="E530" s="8">
-        <v>6800</v>
+        <v>680</v>
       </c>
       <c r="F530" s="8">
         <v>5</v>
@@ -16556,9 +16558,7 @@
       </c>
       <c r="L530" s="6"/>
       <c r="M530" s="6"/>
-      <c r="N530" s="6">
-        <v>1</v>
-      </c>
+      <c r="N530" s="6"/>
       <c r="O530" s="6"/>
       <c r="P530" s="9">
         <v>2</v>
@@ -16572,11 +16572,13 @@
         <v>4</v>
       </c>
       <c r="C531" s="8">
-        <v>10</v>
-      </c>
-      <c r="D531" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="D531" s="8">
+        <v>2</v>
+      </c>
       <c r="E531" s="8">
-        <v>6800</v>
+        <v>680</v>
       </c>
       <c r="F531" s="8">
         <v>5</v>
@@ -16594,9 +16596,7 @@
       </c>
       <c r="L531" s="6"/>
       <c r="M531" s="6"/>
-      <c r="N531" s="6">
-        <v>1</v>
-      </c>
+      <c r="N531" s="6"/>
       <c r="O531" s="6"/>
       <c r="P531" s="9">
         <v>3</v>

--- a/docs/excel/TAward.xlsx
+++ b/docs/excel/TAward.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="98">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -452,6 +452,10 @@
     <t>重返巅峰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>[]int64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -882,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P566"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A516" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H532" sqref="H532"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -969,7 +973,7 @@
         <v>70</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>70</v>
@@ -978,7 +982,7 @@
         <v>70</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>17</v>

--- a/docs/excel/TAward.xlsx
+++ b/docs/excel/TAward.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="99">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -456,6 +456,20 @@
     <t>[]int64</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>,200</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -515,7 +529,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -544,6 +558,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -887,7 +902,7 @@
   <dimension ref="A1:P566"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1345,8 +1360,8 @@
       <c r="G13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="11">
-        <v>1200</v>
+      <c r="H13" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -2056,8 +2071,8 @@
       <c r="G34" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H34" s="11">
-        <v>1200</v>
+      <c r="H34" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>

--- a/docs/excel/TAward.xlsx
+++ b/docs/excel/TAward.xlsx
@@ -901,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P566"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2092,11 +2092,9 @@
         <v>0</v>
       </c>
       <c r="C35" s="8">
-        <v>3</v>
-      </c>
-      <c r="D35" s="8">
-        <v>2</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D35" s="8"/>
       <c r="E35" s="8">
         <v>600</v>
       </c>
@@ -2118,7 +2116,9 @@
         <v>57</v>
       </c>
       <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
+      <c r="N35" s="6">
+        <v>1</v>
+      </c>
       <c r="O35" s="6"/>
     </row>
     <row r="36" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -2129,11 +2129,9 @@
         <v>0</v>
       </c>
       <c r="C36" s="8">
-        <v>3</v>
-      </c>
-      <c r="D36" s="8">
-        <v>2</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D36" s="8"/>
       <c r="E36" s="8">
         <v>1800</v>
       </c>
@@ -2155,7 +2153,9 @@
         <v>58</v>
       </c>
       <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
+      <c r="N36" s="6">
+        <v>1</v>
+      </c>
       <c r="O36" s="6"/>
     </row>
     <row r="37" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -2166,11 +2166,9 @@
         <v>0</v>
       </c>
       <c r="C37" s="8">
-        <v>3</v>
-      </c>
-      <c r="D37" s="8">
-        <v>2</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D37" s="8"/>
       <c r="E37" s="8">
         <v>6800</v>
       </c>
@@ -2192,7 +2190,9 @@
         <v>59</v>
       </c>
       <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
+      <c r="N37" s="6">
+        <v>1</v>
+      </c>
       <c r="O37" s="6"/>
     </row>
     <row r="38" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -2203,11 +2203,9 @@
         <v>0</v>
       </c>
       <c r="C38" s="8">
-        <v>3</v>
-      </c>
-      <c r="D38" s="8">
-        <v>2</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D38" s="8"/>
       <c r="E38" s="8">
         <v>12800</v>
       </c>
@@ -2229,7 +2227,9 @@
         <v>60</v>
       </c>
       <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
+      <c r="N38" s="6">
+        <v>1</v>
+      </c>
       <c r="O38" s="6"/>
     </row>
     <row r="39" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -2240,11 +2240,9 @@
         <v>0</v>
       </c>
       <c r="C39" s="8">
-        <v>3</v>
-      </c>
-      <c r="D39" s="8">
-        <v>2</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D39" s="8"/>
       <c r="E39" s="8">
         <v>32800</v>
       </c>
@@ -2266,7 +2264,9 @@
         <v>61</v>
       </c>
       <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
+      <c r="N39" s="6">
+        <v>1</v>
+      </c>
       <c r="O39" s="6"/>
     </row>
     <row r="40" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -2277,11 +2277,9 @@
         <v>0</v>
       </c>
       <c r="C40" s="8">
-        <v>3</v>
-      </c>
-      <c r="D40" s="8">
-        <v>2</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D40" s="8"/>
       <c r="E40" s="8">
         <v>64800</v>
       </c>
@@ -2303,7 +2301,9 @@
         <v>62</v>
       </c>
       <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
+      <c r="N40" s="6">
+        <v>1</v>
+      </c>
       <c r="O40" s="6"/>
     </row>
     <row r="41" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -2336,7 +2336,9 @@
       </c>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
+      <c r="N41" s="6">
+        <v>1</v>
+      </c>
       <c r="O41" s="6"/>
     </row>
     <row r="42" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -2369,7 +2371,9 @@
       </c>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
+      <c r="N42" s="6">
+        <v>1</v>
+      </c>
       <c r="O42" s="6"/>
     </row>
     <row r="43" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -2402,7 +2406,9 @@
       </c>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
+      <c r="N43" s="6">
+        <v>1</v>
+      </c>
       <c r="O43" s="6"/>
     </row>
     <row r="44" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -2435,7 +2441,9 @@
       </c>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
+      <c r="N44" s="6">
+        <v>1</v>
+      </c>
       <c r="O44" s="6"/>
     </row>
     <row r="45" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -2468,7 +2476,9 @@
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
+      <c r="N45" s="6">
+        <v>1</v>
+      </c>
       <c r="O45" s="6"/>
     </row>
     <row r="46" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -2501,7 +2511,9 @@
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
+      <c r="N46" s="6">
+        <v>1</v>
+      </c>
       <c r="O46" s="6"/>
     </row>
     <row r="47" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -2512,11 +2524,9 @@
         <v>0</v>
       </c>
       <c r="C47" s="8">
-        <v>3</v>
-      </c>
-      <c r="D47" s="8">
-        <v>2</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D47" s="8"/>
       <c r="E47" s="8">
         <v>2500</v>
       </c>
@@ -2530,7 +2540,9 @@
       </c>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
+      <c r="N47" s="6">
+        <v>1</v>
+      </c>
       <c r="O47" s="6"/>
     </row>
     <row r="48" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -2541,11 +2553,9 @@
         <v>0</v>
       </c>
       <c r="C48" s="8">
-        <v>3</v>
-      </c>
-      <c r="D48" s="8">
-        <v>2</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D48" s="8"/>
       <c r="E48" s="8">
         <v>9800</v>
       </c>
@@ -2559,7 +2569,9 @@
       </c>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
+      <c r="N48" s="6">
+        <v>1</v>
+      </c>
       <c r="O48" s="6"/>
     </row>
     <row r="49" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">

--- a/docs/excel/TAward.xlsx
+++ b/docs/excel/TAward.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="111">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -471,23 +471,241 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>充值送金币</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>送</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金币</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>充值送钻石</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>送</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万金币</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VIP1</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>送</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万金币</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VIP3</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>送</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>.9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万金币</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VIP2</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>送</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>4.9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万金币</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>送</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>9.9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万金币</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5万钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3万钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.9万钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.9万钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29.9万钻石</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -921,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P581"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2130,7 +2348,7 @@
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
-      <c r="K35" s="13" t="s">
+      <c r="K35" s="7" t="s">
         <v>99</v>
       </c>
       <c r="L35" s="6"/>
@@ -2165,8 +2383,8 @@
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
-      <c r="K36" s="13" t="s">
-        <v>99</v>
+      <c r="K36" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
@@ -2200,8 +2418,8 @@
       </c>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
-      <c r="K37" s="13" t="s">
-        <v>99</v>
+      <c r="K37" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
@@ -2235,8 +2453,8 @@
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
-      <c r="K38" s="13" t="s">
-        <v>99</v>
+      <c r="K38" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
@@ -2270,8 +2488,8 @@
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
-      <c r="K39" s="13" t="s">
-        <v>99</v>
+      <c r="K39" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
@@ -2305,8 +2523,8 @@
       </c>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
-      <c r="K40" s="13" t="s">
-        <v>99</v>
+      <c r="K40" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
@@ -2341,7 +2559,7 @@
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="13" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
@@ -2376,7 +2594,7 @@
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="13" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
@@ -2411,7 +2629,7 @@
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="13" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
@@ -2446,7 +2664,7 @@
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="13" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
@@ -2481,7 +2699,7 @@
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="13" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
@@ -2516,7 +2734,7 @@
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="13" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
@@ -2533,9 +2751,11 @@
         <v>0</v>
       </c>
       <c r="C47" s="8">
-        <v>10</v>
-      </c>
-      <c r="D47" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="D47" s="8">
+        <v>2</v>
+      </c>
       <c r="E47" s="8">
         <v>3000</v>
       </c>
@@ -2550,8 +2770,8 @@
       </c>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
-      <c r="K47" s="13" t="s">
-        <v>101</v>
+      <c r="K47" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
@@ -2566,9 +2786,11 @@
         <v>0</v>
       </c>
       <c r="C48" s="8">
-        <v>10</v>
-      </c>
-      <c r="D48" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="D48" s="8">
+        <v>2</v>
+      </c>
       <c r="E48" s="8">
         <v>15000</v>
       </c>
@@ -2583,8 +2805,8 @@
       </c>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
-      <c r="K48" s="13" t="s">
-        <v>103</v>
+      <c r="K48" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
@@ -2599,9 +2821,11 @@
         <v>0</v>
       </c>
       <c r="C49" s="8">
-        <v>10</v>
-      </c>
-      <c r="D49" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="D49" s="8">
+        <v>2</v>
+      </c>
       <c r="E49" s="8">
         <v>30000</v>
       </c>
@@ -2616,8 +2840,8 @@
       </c>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
-      <c r="K49" s="13" t="s">
-        <v>102</v>
+      <c r="K49" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>

--- a/docs/excel/TAward.xlsx
+++ b/docs/excel/TAward.xlsx
@@ -1139,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P581"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="A521" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L535" sqref="L535"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17253,7 +17253,7 @@
         <v>4</v>
       </c>
       <c r="C543" s="8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D543" s="8"/>
       <c r="E543" s="8">
@@ -17291,7 +17291,7 @@
         <v>4</v>
       </c>
       <c r="C544" s="8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D544" s="8"/>
       <c r="E544" s="8">
@@ -17329,7 +17329,7 @@
         <v>4</v>
       </c>
       <c r="C545" s="8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D545" s="8"/>
       <c r="E545" s="8">
@@ -17367,7 +17367,7 @@
         <v>4</v>
       </c>
       <c r="C546" s="8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D546" s="8"/>
       <c r="E546" s="8">
